--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62464343-4FE9-4A53-8195-E0EEBC21B1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF2BF2-132E-4F27-938F-2C1A3F6F3857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15150" yWindow="2640" windowWidth="18010" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14710" yWindow="3410" windowWidth="18010" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Weekly</t>
   </si>
@@ -68,12 +68,6 @@
     <t>1, 3, 5, 10, 20, 50</t>
   </si>
   <si>
-    <t>k=1 of</t>
-  </si>
-  <si>
-    <t>k=50 of</t>
-  </si>
-  <si>
     <t>Worst case is all customers on one ledger with new PK per transaction</t>
   </si>
   <si>
@@ -189,6 +183,15 @@
   </si>
   <si>
     <t>Working on</t>
+  </si>
+  <si>
+    <t>k=1 best of</t>
+  </si>
+  <si>
+    <t>k=50 best of</t>
+  </si>
+  <si>
+    <t>Accuracy of a guess</t>
   </si>
 </sst>
 </file>
@@ -375,18 +378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -394,22 +385,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -419,7 +405,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,31 +719,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
+      <c r="H1" s="32"/>
+      <c r="J1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
@@ -763,292 +766,340 @@
       <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="18">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="19">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="18">
         <f>(0.5904+0.6326+0.5436)/3</f>
         <v>0.58886666666666665</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="J3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="18">
+        <f>(0.7925)/1</f>
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(0.0181)/1</f>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="21">
         <f>(0.2535+0.2386+0.22)/3</f>
         <v>0.23736666666666664</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="22">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="21">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="22">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="G4" s="23">
+        <f>(0.4382)/1</f>
+        <v>0.43819999999999998</v>
+      </c>
+      <c r="H4" s="24">
+        <f>(0.1034)/1</f>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <f>(0.0884+0.0887+0.0886)/3</f>
         <v>8.8566666666666669E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <f>(0.0158+0.0148+0.01523)/3</f>
         <v>1.5276666666666668E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <f>(0.1263+0.1258+0.1273)/3</f>
         <v>0.12646666666666664</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <f>(0.02256+0.02296+0.02266)/3</f>
         <v>2.2726666666666669E-2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="2">
+        <f>(0.1408)/1</f>
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <f>(0.0221)/1</f>
+        <v>2.2100000000000002E-2</v>
+      </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="12">
         <f>(0.1218+0.1227+0.1243)/3</f>
         <v>0.12293333333333334</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <f>(0.0903+0.0897+0.0904)/3</f>
         <v>9.0133333333333329E-2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <f>(0.1567+0.1565+0.1568)/3</f>
         <v>0.15666666666666668</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <f>(0.0924+0.0923+0.0921)/3</f>
         <v>9.2266666666666663E-2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="4">
+        <f>(0.1756)/1</f>
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <f>(0.0925)/1</f>
+        <v>9.2499999999999999E-2</v>
+      </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26">
+        <f>1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="26">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="B24" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+      <c r="B25" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="J3:L4"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF2BF2-132E-4F27-938F-2C1A3F6F3857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8808B49-EECE-4EEA-AEA5-FEB34A297B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14710" yWindow="3410" windowWidth="18010" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15410" yWindow="2200" windowWidth="18010" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Weekly</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>1, 3, 5, 10, 20, 50</t>
-  </si>
-  <si>
     <t>Worst case is all customers on one ledger with new PK per transaction</t>
   </si>
   <si>
@@ -92,30 +89,15 @@
     <t>1b</t>
   </si>
   <si>
-    <t>Classification accuracy of data points</t>
-  </si>
-  <si>
-    <t>Classification accuracy of data series</t>
-  </si>
-  <si>
     <t>Methods</t>
   </si>
   <si>
-    <t>MLP, KNN</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
     <t>Freq, ledgers, PKs</t>
   </si>
   <si>
-    <t>LTSM, Cointegration</t>
-  </si>
-  <si>
-    <t>Maybe clustering</t>
-  </si>
-  <si>
     <t>Stage 0</t>
   </si>
   <si>
@@ -125,21 +107,9 @@
     <t>2a</t>
   </si>
   <si>
-    <t>Include off-chain weather data: Source by postcode, find effective way to combine with Blockchain for analysis.</t>
-  </si>
-  <si>
     <t>2b</t>
   </si>
   <si>
-    <t>Adjusted version of 1a, same methods and variables for comparison. Changes needed to include extra data well.</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>Refinements to techniques used in stage 1</t>
-  </si>
-  <si>
     <t>Stage 3</t>
   </si>
   <si>
@@ -176,29 +146,77 @@
     <t>Method</t>
   </si>
   <si>
-    <t>Currently running</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>Working on</t>
   </si>
   <si>
-    <t>k=1 best of</t>
-  </si>
-  <si>
-    <t>k=50 best of</t>
-  </si>
-  <si>
-    <t>Accuracy of a guess</t>
+    <t>Classification of sets of PKs</t>
+  </si>
+  <si>
+    <t>Plan to finish stage 1b</t>
+  </si>
+  <si>
+    <t>Guess accuracy</t>
+  </si>
+  <si>
+    <t>Classification of transactions</t>
+  </si>
+  <si>
+    <t>Features, LTSM, Cointegration</t>
+  </si>
+  <si>
+    <t>Add half hours</t>
+  </si>
+  <si>
+    <t>Add breakdown of accuracy</t>
+  </si>
+  <si>
+    <t>Confusion matrix, spread, standard dev etc</t>
+  </si>
+  <si>
+    <t>Reasons for methods</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Stage 1a</t>
+  </si>
+  <si>
+    <t>Half Hourly</t>
+  </si>
+  <si>
+    <t>MLP, RF, KNN</t>
+  </si>
+  <si>
+    <t>Best of k=[1, 3, 5, 10, 20, 50]</t>
+  </si>
+  <si>
+    <t>Stage 2 measures the chance an attacker can find the customer's location from their dataset and solar data</t>
+  </si>
+  <si>
+    <t>Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2</t>
+  </si>
+  <si>
+    <t>Explore whether solar data has an impact on stage 1 analysis.</t>
+  </si>
+  <si>
+    <t>Investigate approaches to combine a user data set with solar data to reveal postcode.</t>
+  </si>
+  <si>
+    <t>Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2</t>
+  </si>
+  <si>
+    <t>Include off-chain weather data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +264,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +283,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,12 +376,23 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -347,37 +402,27 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -388,33 +433,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -423,8 +459,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -704,96 +769,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="8" width="9.453125" customWidth="1"/>
-    <col min="10" max="12" width="10" customWidth="1"/>
+    <col min="3" max="9" width="9.453125" customWidth="1"/>
+    <col min="11" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="J1" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="I2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <f>(0.5904+0.6326+0.5436)/3</f>
         <v>0.58886666666666665</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="14">
         <f>(0.7925)/1</f>
         <v>0.79249999999999998</v>
       </c>
@@ -801,307 +876,423 @@
         <f>(0.0181)/1</f>
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="20" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28"/>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="6">
         <f>(0.2535+0.2386+0.22)/3</f>
         <v>0.23736666666666664</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="7">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="6">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="7">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="2">
         <f>(0.4382)/1</f>
         <v>0.43819999999999998</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="3">
         <f>(0.1034)/1</f>
         <v>0.10340000000000001</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="40">
+        <f>(0.9811+0.9801+0.9793)/3</f>
+        <v>0.98016666666666652</v>
+      </c>
+      <c r="D5" s="15">
+        <f>(0.0042+0.0033+0.0035)/3</f>
+        <v>3.6666666666666666E-3</v>
+      </c>
+      <c r="E5" s="40">
+        <f>(1+1+1)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <f>(0.0052+0.0049+0.0053)/3</f>
+        <v>5.1333333333333335E-3</v>
+      </c>
+      <c r="G5" s="40">
+        <f>(1+1+1)/3</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="41">
+        <f>(0.0068+0.007+0.0074)/3</f>
+        <v>7.0666666666666664E-3</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="29"/>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8">
+        <f>(0.9797+0.9814+0.9793)/3</f>
+        <v>0.9801333333333333</v>
+      </c>
+      <c r="D6" s="9">
+        <f>(0.0044+0.0051+0.0047)/3</f>
+        <v>4.7333333333333333E-3</v>
+      </c>
+      <c r="E6" s="8">
+        <f>(1+1+1)/3</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <f>(0.0066+0.0064+0.0065)/3</f>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <f>(1+1+1)/3</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(0.0079+0.0081+0.01)/3</f>
+        <v>8.666666666666668E-3</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
-        <f>(0.0884+0.0887+0.0886)/3</f>
-        <v>8.8566666666666669E-2</v>
-      </c>
-      <c r="D5" s="11">
-        <f>(0.0158+0.0148+0.01523)/3</f>
-        <v>1.5276666666666668E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <f>(0.1263+0.1258+0.1273)/3</f>
-        <v>0.12646666666666664</v>
-      </c>
-      <c r="F5" s="11">
-        <f>(0.02256+0.02296+0.02266)/3</f>
-        <v>2.2726666666666669E-2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C7" s="6">
+        <f>(0.1062+0.1091+0.1051)/3</f>
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <f>(0.0214+0.02+0.0204)/3</f>
+        <v>2.06E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f>(0.1277+0.1276+0.1272)/3</f>
+        <v>0.12749999999999997</v>
+      </c>
+      <c r="F7" s="7">
+        <f>(0.0227+0.02273+0.0231)/3</f>
+        <v>2.284333333333333E-2</v>
+      </c>
+      <c r="G7" s="37">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H7" s="36">
         <f>(0.0221)/1</f>
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
-      <c r="B6" s="6" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="29"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12">
-        <f>(0.1218+0.1227+0.1243)/3</f>
-        <v>0.12293333333333334</v>
-      </c>
-      <c r="D6" s="13">
-        <f>(0.0903+0.0897+0.0904)/3</f>
-        <v>9.0133333333333329E-2</v>
-      </c>
-      <c r="E6" s="12">
-        <f>(0.1567+0.1565+0.1568)/3</f>
-        <v>0.15666666666666668</v>
-      </c>
-      <c r="F6" s="13">
-        <f>(0.0924+0.0923+0.0921)/3</f>
-        <v>9.2266666666666663E-2</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="C8" s="8">
+        <f>(0.1401+0.1378+0.1374)/3</f>
+        <v>0.13843333333333332</v>
+      </c>
+      <c r="D8" s="9">
+        <f>(0.1026+0.1017+0.1048)/3</f>
+        <v>0.10303333333333332</v>
+      </c>
+      <c r="E8" s="8">
+        <f>(0.1577+0.1582+0.1566)/3</f>
+        <v>0.1575</v>
+      </c>
+      <c r="F8" s="9">
+        <f>(0.0917+0.091+0.0914)/3</f>
+        <v>9.1366666666666665E-2</v>
+      </c>
+      <c r="G8" s="39">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H8" s="38">
         <f>(0.0925)/1</f>
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G7" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C10" s="17">
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="27" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="AB10" s="22"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C11" s="17">
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="B15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="B27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B28" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>41</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="10">
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="K3:M4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5:F6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8808B49-EECE-4EEA-AEA5-FEB34A297B1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE9C7F-29E7-418A-805E-1F5B8709897F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15410" yWindow="2200" windowWidth="18010" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19650" yWindow="2450" windowWidth="18010" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Weekly</t>
   </si>
@@ -83,21 +83,6 @@
     <t>Blockchain data analysis</t>
   </si>
   <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>1b</t>
-  </si>
-  <si>
-    <t>Methods</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Freq, ledgers, PKs</t>
-  </si>
-  <si>
     <t>Stage 0</t>
   </si>
   <si>
@@ -152,21 +137,12 @@
     <t>Working on</t>
   </si>
   <si>
-    <t>Classification of sets of PKs</t>
-  </si>
-  <si>
     <t>Plan to finish stage 1b</t>
   </si>
   <si>
     <t>Guess accuracy</t>
   </si>
   <si>
-    <t>Classification of transactions</t>
-  </si>
-  <si>
-    <t>Features, LTSM, Cointegration</t>
-  </si>
-  <si>
     <t>Add half hours</t>
   </si>
   <si>
@@ -188,9 +164,6 @@
     <t>Half Hourly</t>
   </si>
   <si>
-    <t>MLP, RF, KNN</t>
-  </si>
-  <si>
     <t>Best of k=[1, 3, 5, 10, 20, 50]</t>
   </si>
   <si>
@@ -210,6 +183,18 @@
   </si>
   <si>
     <t>Include off-chain weather data</t>
+  </si>
+  <si>
+    <t>What's the likelihood one can see a transaction and pick the customer or postcode?</t>
+  </si>
+  <si>
+    <t>What's the likelihood one can see a set of transactions and guess the likelihood?</t>
+  </si>
+  <si>
+    <t>Investigate classification methods: MLP, RF, KNN, LTSM, Cointegration</t>
+  </si>
+  <si>
+    <t>For identifying customer and postcode. On best and worst case scenarios.</t>
   </si>
 </sst>
 </file>
@@ -772,7 +757,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,7 +770,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="30" t="s">
@@ -801,7 +786,7 @@
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="32" t="s">
@@ -812,7 +797,7 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>9</v>
@@ -921,7 +906,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
@@ -1025,7 +1010,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1060,7 +1045,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1079,14 +1064,14 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J10" s="21"/>
       <c r="AB10" s="22"/>
@@ -1100,14 +1085,14 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J11" s="21"/>
     </row>
@@ -1118,19 +1103,19 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
@@ -1140,140 +1125,126 @@
       <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="11"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="45" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="B20" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE9C7F-29E7-418A-805E-1F5B8709897F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E0CC9A-D316-4B6B-B5EC-9364640FE3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19650" yWindow="2450" windowWidth="18010" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,27 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -472,6 +451,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -757,7 +757,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,31 +769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
@@ -802,36 +802,36 @@
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -861,16 +861,16 @@
         <f>(0.0181)/1</f>
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,18 +900,18 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="41" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="33">
         <f>(0.9811+0.9801+0.9793)/3</f>
         <v>0.98016666666666652</v>
       </c>
@@ -919,7 +919,7 @@
         <f>(0.0042+0.0033+0.0035)/3</f>
         <v>3.6666666666666666E-3</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="33">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
@@ -927,22 +927,22 @@
         <f>(0.0052+0.0049+0.0053)/3</f>
         <v>5.1333333333333335E-3</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="33">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="34">
         <f>(0.0068+0.007+0.0074)/3</f>
         <v>7.0666666666666664E-3</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="33"/>
       <c r="J5" s="15"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="45" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -999,11 +999,11 @@
         <f>(0.0227+0.02273+0.0231)/3</f>
         <v>2.284333333333333E-2</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="30">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="29">
         <f>(0.0221)/1</f>
         <v>2.2100000000000002E-2</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1034,11 +1034,11 @@
         <f>(0.0917+0.091+0.0914)/3</f>
         <v>9.1366666666666665E-2</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="32">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="31">
         <f>(0.0925)/1</f>
         <v>9.2499999999999999E-2</v>
       </c>
@@ -1049,11 +1049,11 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
@@ -1131,7 +1131,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="38" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="16"/>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="38" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="38" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1249,6 +1249,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="A5:A6"/>
@@ -1257,8 +1259,6 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E0CC9A-D316-4B6B-B5EC-9364640FE3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B3893-3F72-4615-B439-02DBA671286B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19650" yWindow="2450" windowWidth="18010" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15860" yWindow="3800" windowWidth="21490" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,13 +451,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,7 +463,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,7 +757,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,31 +769,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="43" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="43" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
@@ -826,12 +826,12 @@
       <c r="J2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -863,14 +863,14 @@
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,12 +900,12 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -942,7 +942,7 @@
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="42"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1014,7 +1014,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B3893-3F72-4615-B439-02DBA671286B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683CF6C3-1499-4231-8F2C-4056F0099253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="3800" windowWidth="21490" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15670" yWindow="3200" windowWidth="21490" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Weekly</t>
   </si>
@@ -134,27 +134,9 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Working on</t>
-  </si>
-  <si>
-    <t>Plan to finish stage 1b</t>
-  </si>
-  <si>
     <t>Guess accuracy</t>
   </si>
   <si>
-    <t>Add half hours</t>
-  </si>
-  <si>
-    <t>Add breakdown of accuracy</t>
-  </si>
-  <si>
-    <t>Confusion matrix, spread, standard dev etc</t>
-  </si>
-  <si>
-    <t>Reasons for methods</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -195,6 +177,9 @@
   </si>
   <si>
     <t>For identifying customer and postcode. On best and worst case scenarios.</t>
+  </si>
+  <si>
+    <t>Spread/STD DEV</t>
   </si>
 </sst>
 </file>
@@ -433,7 +418,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -472,6 +456,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -757,7 +742,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,31 +754,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23" t="s">
@@ -802,36 +787,36 @@
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -861,16 +846,16 @@
         <f>(0.0181)/1</f>
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -900,18 +885,18 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>40</v>
+      <c r="A5" s="44" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <f>(0.9811+0.9801+0.9793)/3</f>
         <v>0.98016666666666652</v>
       </c>
@@ -919,7 +904,7 @@
         <f>(0.0042+0.0033+0.0035)/3</f>
         <v>3.6666666666666666E-3</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
@@ -927,22 +912,22 @@
         <f>(0.0052+0.0049+0.0053)/3</f>
         <v>5.1333333333333335E-3</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <f>(0.0068+0.007+0.0074)/3</f>
         <v>7.0666666666666664E-3</v>
       </c>
-      <c r="I5" s="33"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="15"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -977,7 +962,7 @@
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -999,22 +984,22 @@
         <f>(0.0227+0.02273+0.0231)/3</f>
         <v>2.284333333333333E-2</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f>(0.0221)/1</f>
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1034,26 +1019,26 @@
         <f>(0.0917+0.091+0.0914)/3</f>
         <v>9.1366666666666665E-2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="30">
         <f>(0.0925)/1</f>
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
@@ -1064,14 +1049,12 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="J10" s="21"/>
       <c r="AB10" s="22"/>
@@ -1085,27 +1068,21 @@
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="21"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -1131,35 +1108,38 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
-      <c r="B16" s="38" t="s">
-        <v>45</v>
+      <c r="B16" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="E16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
+      <c r="K16" s="20" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1167,13 +1147,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
-      <c r="B21" s="38" t="s">
-        <v>44</v>
+      <c r="B21" s="37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1181,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1189,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1205,8 +1185,8 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
-      <c r="B26" s="38" t="s">
-        <v>48</v>
+      <c r="B26" s="37" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Semester1\Research\Smart-Grid-Blockchain-Privacy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB62B1D4-E3F4-4020-902C-A944E2379E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F9B88-93A1-4662-A86E-DB81A1176A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="4230" windowWidth="19600" windowHeight="14720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
   <si>
     <t>Weekly</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>For identifying customer and postcode. On best and worst case scenarios.</t>
-  </si>
-  <si>
-    <t>Spread/STD DEV</t>
   </si>
   <si>
     <t>Best of k=[1, 50]</t>
@@ -457,18 +454,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,16 +570,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -590,7 +605,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -599,21 +613,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,19 +639,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -926,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -939,398 +966,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="18">
+        <f>(0.2535+0.2386+0.22)/3</f>
+        <v>0.23736666666666664</v>
+      </c>
+      <c r="D3" s="40">
+        <f>(0.1181+0.1143+0.1121)/3</f>
+        <v>0.11483333333333334</v>
+      </c>
+      <c r="E3" s="18">
+        <f>(0.3411+0.3014+0.3415)/3</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <f>(0.1134+0.1125+0.1133)/3</f>
+        <v>0.11306666666666666</v>
+      </c>
+      <c r="G3" s="18">
+        <f>(0.4382+0.471)/2</f>
+        <v>0.4546</v>
+      </c>
+      <c r="H3" s="8">
+        <f>(0.1034+0.1005)/2</f>
+        <v>0.10195000000000001</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="41">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E4" s="3">
         <f>(0.5904+0.6326+0.6324)/3</f>
         <v>0.61846666666666661</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F4" s="4">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G4" s="3">
         <f>(0.7925+0.7477)/2</f>
         <v>0.77010000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H4" s="4">
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I4" s="41">
         <v>0.86660000000000004</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J4" s="4">
         <v>1.95E-2</v>
       </c>
-      <c r="K3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-    </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <f>(0.2535+0.2386+0.22)/3</f>
-        <v>0.23736666666666664</v>
-      </c>
-      <c r="D4" s="4">
-        <f>(0.1181+0.1143+0.1121)/3</f>
-        <v>0.11483333333333334</v>
-      </c>
-      <c r="E4" s="3">
-        <f>(0.3411+0.3014+0.3415)/3</f>
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F4" s="4">
-        <f>(0.1134+0.1125+0.1133)/3</f>
-        <v>0.11306666666666666</v>
-      </c>
-      <c r="G4" s="3">
-        <f>(0.4382+0.471)/2</f>
-        <v>0.4546</v>
-      </c>
-      <c r="H4" s="4">
-        <f>(0.1034+0.1005)/2</f>
-        <v>0.10195000000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="J4" s="4">
-        <v>9.8500000000000004E-2</v>
-      </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="35">
         <f>(0.9811+0.9801+0.9793)/3</f>
         <v>0.98016666666666652</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="36">
         <f>(0.0042+0.0033+0.0035)/3</f>
         <v>3.6666666666666666E-3</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="35">
         <v>0.98750000000000004</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="36">
         <f>(0.0052+0.0049+0.0053)/3</f>
         <v>5.1333333333333335E-3</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="35">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="36">
         <f>(0.0068+0.007+0.0074)/3</f>
         <v>7.0666666666666664E-3</v>
       </c>
-      <c r="I5" s="24">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="29">
         <v>0.97870000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="30">
         <f>(0.0044+0.0051+0.0047)/3</f>
         <v>4.7333333333333333E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="29">
         <v>0.98699999999999999</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="30">
         <f>(0.0066+0.0064+0.0065)/3</f>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="29">
         <f>(1+1+1)/3</f>
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="30">
         <f>(0.0079+0.0081+0.01)/3</f>
         <v>8.666666666666668E-3</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="30">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f>(0.1062+0.1091+0.1051)/3</f>
         <v>0.10680000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <f>(0.0097+0.0095+0.0093)/3</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <f>(0.1277+0.1276+0.1272)/3</f>
         <v>0.12749999999999997</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f>(0.0187+0.0184+0.0187)/3</f>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f>(0.0221+0.0222)/2</f>
         <v>2.2150000000000003E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>1.21E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f>(0.1401+0.1378+0.1374)/3</f>
         <v>0.13843333333333332</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f>(0.1026+0.1017+0.1048)/3</f>
         <v>0.10303333333333332</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <f>(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <f>(0.1071+0.1084+0.1071)/3</f>
         <v>0.10753333333333333</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f>(0.0925+0.0919)/2</f>
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.1578</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="21" t="s">
-        <v>47</v>
-      </c>
+      <c r="E10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="17"/>
-      <c r="AB10" s="18"/>
+      <c r="AB10" s="14"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <f>1/100</f>
         <v>0.01</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="23"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="E15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="K16" s="16" t="s">
+      <c r="E16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="K16" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M17" t="s">
@@ -1338,11 +1363,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M18" t="s">
@@ -1350,21 +1375,21 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -1372,7 +1397,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -1380,27 +1405,27 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F27" t="s">
@@ -1408,10 +1433,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
@@ -1419,33 +1444,36 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F50:F349">
+    <sortCondition ref="F50"/>
+  </sortState>
   <mergeCells count="10">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:M2"/>
-    <mergeCell ref="K3:M4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="K3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1470,84 +1498,84 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <f>_xlfn.STDEV.P(B4:B303)</f>
         <v>0.24637270507083706</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <f>_xlfn.STDEV.P(H4:H303)</f>
         <v>0.2997199637439365</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="10">
         <f>_xlfn.STDEV.P(N4:N303)</f>
         <v>5.2274181007453381E-2</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <f>_xlfn.STDEV.P(T4:T303)</f>
         <v>5.3999218101335081E-2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -7784,7 +7812,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105">
         <v>0.23</v>
@@ -7808,7 +7836,7 @@
         <v>64</v>
       </c>
       <c r="M105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -7828,7 +7856,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>0.26</v>
@@ -7858,7 +7886,7 @@
         <v>73</v>
       </c>
       <c r="M106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -7878,7 +7906,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107">
         <v>0.2</v>
@@ -7908,7 +7936,7 @@
         <v>85</v>
       </c>
       <c r="M107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -14200,17 +14228,17 @@
     </row>
     <row r="305" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="306" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S306" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S307" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -14230,85 +14258,85 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>80</v>
       </c>
-      <c r="S1" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <f>_xlfn.STDEV.P(B4:B303)</f>
         <v>0.32714796346607455</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <f>_xlfn.STDEV.P(H4:H303)</f>
         <v>0.31936660230316277</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="10">
         <f>_xlfn.STDEV.P(N4:N303)</f>
         <v>0.10402961116912818</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <f>_xlfn.STDEV.P(T4:T303)</f>
         <v>3.6546758482190397E-2</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -20545,7 +20573,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -20563,7 +20591,7 @@
         <v>570</v>
       </c>
       <c r="M105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -20583,7 +20611,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -20601,7 +20629,7 @@
         <v>546</v>
       </c>
       <c r="M106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -20621,7 +20649,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -20639,7 +20667,7 @@
         <v>553</v>
       </c>
       <c r="M107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -26931,26 +26959,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S305" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S306" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S307" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -26970,85 +26998,85 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <f>_xlfn.STDEV.P(B4:B303)</f>
         <v>0.35374940282635148</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <f>_xlfn.STDEV.P(H4:H303)</f>
         <v>0.27943653423750164</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="10">
         <f>_xlfn.STDEV.P(N4:N303)</f>
         <v>0.10052158972081569</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <f>_xlfn.STDEV.P(T4:T303)</f>
         <v>4.945906275788986E-2</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -33285,7 +33313,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -33303,7 +33331,7 @@
         <v>3360</v>
       </c>
       <c r="M105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -33323,7 +33351,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -33341,7 +33369,7 @@
         <v>3172</v>
       </c>
       <c r="M106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -33361,7 +33389,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -33379,7 +33407,7 @@
         <v>3227</v>
       </c>
       <c r="M107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -39671,26 +39699,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S305" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S306" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S307" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -39702,93 +39730,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D20595C-7C71-4AD8-B2FC-61BC3533CF98}">
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H303" sqref="H4:H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" t="s">
-        <v>105</v>
+      <c r="I1">
+        <f>COUNTIF(H4:H103,"=1")</f>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" t="s">
         <v>112</v>
       </c>
-      <c r="S1" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <f>_xlfn.STDEV.P(B4:B303)</f>
         <v>0.35112106174366703</v>
       </c>
-      <c r="H2" s="13">
+      <c r="C2">
+        <f>COUNTIF(B4:B103,"=0")</f>
+        <v>23</v>
+      </c>
+      <c r="H2" s="10">
         <f>_xlfn.STDEV.P(H4:H303)</f>
         <v>0.27869033990354775</v>
       </c>
-      <c r="N2" s="13">
+      <c r="I2">
+        <f>COUNTIF(H4:H103,"=0")</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="10">
         <f>_xlfn.STDEV.P(N4:N303)</f>
         <v>8.0286985246676199E-2</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="10">
         <f>_xlfn.STDEV.P(T4:T303)</f>
         <v>5.6605417879681187E-2</v>
       </c>
-      <c r="U2" s="13"/>
+      <c r="U2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
         <v>55</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
       <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>56</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -46025,7 +46065,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -46043,7 +46083,7 @@
         <v>3281</v>
       </c>
       <c r="M105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -46063,7 +46103,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -46081,7 +46121,7 @@
         <v>3285</v>
       </c>
       <c r="M106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -46101,7 +46141,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -46119,7 +46159,7 @@
         <v>3161</v>
       </c>
       <c r="M107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -52411,29 +52451,32 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S305" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S306" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S307" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I1:I2" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726F9B88-93A1-4662-A86E-DB81A1176A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289DCFD-3039-465E-B94F-C85953EEE7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9510" yWindow="7040" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,30 +1039,30 @@
         <v>0.23736666666666664</v>
       </c>
       <c r="D3" s="40">
-        <f>(0.1181+0.1143+0.1121)/3</f>
-        <v>0.11483333333333334</v>
+        <f>(0.0224+0.0224+0.0237)/3</f>
+        <v>2.2833333333333334E-2</v>
       </c>
       <c r="E3" s="18">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
       <c r="F3" s="8">
-        <f>(0.1134+0.1125+0.1133)/3</f>
-        <v>0.11306666666666666</v>
+        <f>(0.0194+0.0194+0.0191)/3</f>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="G3" s="18">
         <f>(0.4382+0.471)/2</f>
         <v>0.4546</v>
       </c>
       <c r="H3" s="8">
-        <f>(0.1034+0.1005)/2</f>
-        <v>0.10195000000000001</v>
+        <f>(0.0181+0.0175)/2</f>
+        <v>1.7800000000000003E-2</v>
       </c>
       <c r="I3" s="40">
         <v>0.34549999999999997</v>
       </c>
       <c r="J3" s="8">
-        <v>9.8500000000000004E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="K3" s="43" t="s">
         <v>10</v>
@@ -1080,30 +1080,30 @@
         <v>0.3831</v>
       </c>
       <c r="D4" s="41">
-        <f>(0.0224+0.0224+0.0237)/3</f>
-        <v>2.2833333333333334E-2</v>
+        <f>(0.1181+0.1143+0.1121)/3</f>
+        <v>0.11483333333333334</v>
       </c>
       <c r="E4" s="3">
         <f>(0.5904+0.6326+0.6324)/3</f>
         <v>0.61846666666666661</v>
       </c>
       <c r="F4" s="4">
-        <f>(0.0194+0.0194+0.0191)/3</f>
-        <v>1.9300000000000001E-2</v>
+        <f>(0.1134+0.1125+0.1133)/3</f>
+        <v>0.11306666666666666</v>
       </c>
       <c r="G4" s="3">
         <f>(0.7925+0.7477)/2</f>
         <v>0.77010000000000001</v>
       </c>
       <c r="H4" s="4">
-        <f>(0.0181+0.0175)/2</f>
-        <v>1.7800000000000003E-2</v>
+        <f>(0.1034+0.1005)/2</f>
+        <v>0.10195000000000001</v>
       </c>
       <c r="I4" s="41">
         <v>0.86660000000000004</v>
       </c>
       <c r="J4" s="4">
-        <v>1.95E-2</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="K4" s="43"/>
       <c r="L4" s="42"/>
@@ -1116,20 +1116,21 @@
       <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="35">
-        <f>(0.9811+0.9801+0.9793)/3</f>
-        <v>0.98016666666666652</v>
-      </c>
-      <c r="D5" s="36">
-        <f>(0.0042+0.0033+0.0035)/3</f>
-        <v>3.6666666666666666E-3</v>
+      <c r="C5" s="18">
+        <f>(0.2991+0.251+0.3416)/3</f>
+        <v>0.29723333333333335</v>
+      </c>
+      <c r="D5" s="8">
+        <f>(0.0195+0.0203+0.02)/3</f>
+        <v>1.9933333333333334E-2</v>
       </c>
       <c r="E5" s="35">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="F5" s="36">
-        <f>(0.0052+0.0049+0.0053)/3</f>
-        <v>5.1333333333333335E-3</v>
+        <f>(0.2819+0.3097+0.3085)/3</f>
+        <v>0.30003333333333332</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(0.0209+0.0207+0.0214)/3</f>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G5" s="35">
         <f>(1+1+1)/3</f>
@@ -1154,19 +1155,21 @@
       <c r="B6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29">
-        <v>0.97870000000000001</v>
-      </c>
-      <c r="D6" s="30">
-        <f>(0.0044+0.0051+0.0047)/3</f>
-        <v>4.7333333333333333E-3</v>
+      <c r="C6" s="3">
+        <f>(0.2023+0.2018+0.2009)/3</f>
+        <v>0.20166666666666666</v>
+      </c>
+      <c r="D6" s="4">
+        <f>(0.1143+0.1132+0.1152)/3</f>
+        <v>0.11423333333333334</v>
       </c>
       <c r="E6" s="29">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="F6" s="30">
-        <f>(0.0066+0.0064+0.0065)/3</f>
-        <v>6.4999999999999997E-3</v>
+        <f>(0.1904+0.192+0.1887)/3</f>
+        <v>0.19036666666666668</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(0.1134+0.1143+0.1151)/3</f>
+        <v>0.11426666666666667</v>
       </c>
       <c r="G6" s="29">
         <f>(1+1+1)/3</f>
@@ -1477,9 +1480,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F5:F6" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289DCFD-3039-465E-B94F-C85953EEE7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884E6A7-4366-423B-A6A4-999D330EC2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-9510" yWindow="7040" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>What's the likelihood one can see a set of transactions and guess the likelihood?</t>
-  </si>
-  <si>
-    <t>Investigate classification methods: MLP, RF, KNN, LTSM, Cointegration</t>
   </si>
   <si>
     <t>For identifying customer and postcode. On best and worst case scenarios.</t>
@@ -377,6 +374,9 @@
   <si>
     <t>MLP customer HH worst</t>
   </si>
+  <si>
+    <t>Investigate classification methods: MLP, RF, KNN</t>
+  </si>
 </sst>
 </file>
 
@@ -460,7 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -642,8 +641,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,8 +649,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,6 +664,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,83 +966,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="25" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="39">
         <f>(0.2535+0.2386+0.22)/3</f>
         <v>0.23736666666666664</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="35">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="39">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
@@ -1050,7 +1050,7 @@
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="39">
         <f>(0.4382+0.471)/2</f>
         <v>0.4546</v>
       </c>
@@ -1058,32 +1058,32 @@
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="42">
         <v>0.34549999999999997</v>
       </c>
       <c r="J3" s="8">
         <v>1.95E-2</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="40">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="36">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="40">
         <f>(0.5904+0.6326+0.6324)/3</f>
         <v>0.61846666666666661</v>
       </c>
@@ -1091,7 +1091,7 @@
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="40">
         <f>(0.7925+0.7477)/2</f>
         <v>0.77010000000000001</v>
       </c>
@@ -1099,101 +1099,105 @@
         <f>(0.1034+0.1005)/2</f>
         <v>0.10195000000000001</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="43">
         <v>0.86660000000000004</v>
       </c>
       <c r="J4" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18">
-        <f>(0.2991+0.251+0.3416)/3</f>
-        <v>0.29723333333333335</v>
+      <c r="C5" s="39">
+        <f>(0.2023+0.2018+0.2009)/3</f>
+        <v>0.20166666666666666</v>
       </c>
       <c r="D5" s="8">
         <f>(0.0195+0.0203+0.02)/3</f>
         <v>1.9933333333333334E-2</v>
       </c>
-      <c r="E5" s="35">
-        <f>(0.2819+0.3097+0.3085)/3</f>
-        <v>0.30003333333333332</v>
+      <c r="E5" s="41">
+        <f>(0.1904+0.192+0.1935)/3</f>
+        <v>0.1919666666666667</v>
       </c>
       <c r="F5" s="2">
         <f>(0.0209+0.0207+0.0214)/3</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G5" s="35">
-        <f>(1+1+1)/3</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="36">
-        <f>(0.0068+0.007+0.0074)/3</f>
-        <v>7.0666666666666664E-3</v>
-      </c>
-      <c r="I5" s="35">
-        <v>1</v>
-      </c>
-      <c r="J5" s="36">
-        <v>5.7999999999999996E-3</v>
+      <c r="G5" s="41">
+        <f>(0.3159+0.3085+0)/3</f>
+        <v>0.20813333333333336</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(0.0319+0.0309+0.031)/3</f>
+        <v>3.1266666666666665E-2</v>
+      </c>
+      <c r="I5" s="41">
+        <f>(0.1647+0.164+0)/3</f>
+        <v>0.10956666666666666</v>
+      </c>
+      <c r="J5" s="2">
+        <f>(0.0209+0.0214+0.021)/3</f>
+        <v>2.1099999999999997E-2</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="24"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <f>(0.2023+0.2018+0.2009)/3</f>
-        <v>0.20166666666666666</v>
+      <c r="C6" s="40">
+        <f>(0.2991+0.251+0.3416)/3</f>
+        <v>0.29723333333333335</v>
       </c>
       <c r="D6" s="4">
         <f>(0.1143+0.1132+0.1152)/3</f>
         <v>0.11423333333333334</v>
       </c>
-      <c r="E6" s="29">
-        <f>(0.1904+0.192+0.1887)/3</f>
-        <v>0.19036666666666668</v>
+      <c r="E6" s="40">
+        <f>(0.3082+0.3097+0.3085)/3</f>
+        <v>0.30879999999999996</v>
       </c>
       <c r="F6" s="4">
         <f>(0.1134+0.1143+0.1151)/3</f>
         <v>0.11426666666666667</v>
       </c>
-      <c r="G6" s="29">
-        <f>(1+1+1)/3</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="30">
-        <f>(0.0079+0.0081+0.01)/3</f>
-        <v>8.666666666666668E-3</v>
-      </c>
-      <c r="I6" s="29">
-        <v>1</v>
-      </c>
-      <c r="J6" s="30">
-        <v>7.4999999999999997E-3</v>
+      <c r="G6" s="40">
+        <f>(0.5418+0.5334+0)/3</f>
+        <v>0.3584</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(0.1062+0.1066+0.1064)/3</f>
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="I6" s="40">
+        <f>(0.2997+0.3176+0)/3</f>
+        <v>0.20576666666666665</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(0.099+0.0987+0.0991)/3</f>
+        <v>9.8933333333333318E-2</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
@@ -1227,12 +1231,12 @@
         <v>1.21E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
@@ -1266,13 +1270,13 @@
         <v>8.3699999999999997E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
@@ -1287,10 +1291,10 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="17"/>
       <c r="AB10" s="14"/>
     </row>
@@ -1305,9 +1309,9 @@
       <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
@@ -1316,7 +1320,7 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -1343,7 +1347,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="9"/>
@@ -1356,7 +1360,7 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>32</v>
@@ -1368,7 +1372,7 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>32</v>
@@ -1387,7 +1391,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1420,7 +1424,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1498,16 +1502,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -1530,52 +1534,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
       <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -7812,7 +7816,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D105">
         <v>0.23</v>
@@ -7836,7 +7840,7 @@
         <v>64</v>
       </c>
       <c r="M105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -7856,7 +7860,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106">
         <v>0.26</v>
@@ -7886,7 +7890,7 @@
         <v>73</v>
       </c>
       <c r="M106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -7906,7 +7910,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B107">
         <v>0.2</v>
@@ -7936,7 +7940,7 @@
         <v>85</v>
       </c>
       <c r="M107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -14228,17 +14232,17 @@
     </row>
     <row r="305" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S305" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S306" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="307" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S307" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -14258,16 +14262,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>79</v>
-      </c>
-      <c r="S1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -14291,52 +14295,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
       <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -20573,7 +20577,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -20591,7 +20595,7 @@
         <v>570</v>
       </c>
       <c r="M105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -20611,7 +20615,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -20629,7 +20633,7 @@
         <v>546</v>
       </c>
       <c r="M106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -20649,7 +20653,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -20667,7 +20671,7 @@
         <v>553</v>
       </c>
       <c r="M107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -26959,26 +26963,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S305" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S306" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S307" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -26998,16 +27002,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>95</v>
-      </c>
-      <c r="S1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -27031,52 +27035,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
       <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -33313,7 +33317,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -33331,7 +33335,7 @@
         <v>3360</v>
       </c>
       <c r="M105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -33351,7 +33355,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -33369,7 +33373,7 @@
         <v>3172</v>
       </c>
       <c r="M106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -33389,7 +33393,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -33407,7 +33411,7 @@
         <v>3227</v>
       </c>
       <c r="M107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -39699,26 +39703,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S305" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S306" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S307" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -39738,20 +39742,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" t="s">
         <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
       </c>
       <c r="I1">
         <f>COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" t="s">
         <v>111</v>
-      </c>
-      <c r="S1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -39783,52 +39787,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" t="s">
-        <v>57</v>
-      </c>
       <c r="T3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>56</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -46065,7 +46069,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -46083,7 +46087,7 @@
         <v>3281</v>
       </c>
       <c r="M105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -46103,7 +46107,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -46121,7 +46125,7 @@
         <v>3285</v>
       </c>
       <c r="M106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -46141,7 +46145,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -46159,7 +46163,7 @@
         <v>3161</v>
       </c>
       <c r="M107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -52451,26 +52455,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S305" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S306" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S307" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B884E6A7-4366-423B-A6A4-999D330EC2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740C2E1-6184-4059-9CF9-FE06622A7884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9510" yWindow="7040" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6280" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
   <si>
     <t>Weekly</t>
   </si>
@@ -377,6 +377,9 @@
   <si>
     <t>Investigate classification methods: MLP, RF, KNN</t>
   </si>
+  <si>
+    <t>CNN</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +599,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,6 +626,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,34 +663,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -951,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,83 +972,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="30">
         <f>(0.2535+0.2386+0.22)/3</f>
         <v>0.23736666666666664</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="28">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="30">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
@@ -1050,7 +1056,7 @@
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="30">
         <f>(0.4382+0.471)/2</f>
         <v>0.4546</v>
       </c>
@@ -1058,32 +1064,32 @@
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="33">
         <v>0.34549999999999997</v>
       </c>
       <c r="J3" s="8">
         <v>1.95E-2</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="31">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="29">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="31">
         <f>(0.5904+0.6326+0.6324)/3</f>
         <v>0.61846666666666661</v>
       </c>
@@ -1091,7 +1097,7 @@
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="31">
         <f>(0.7925+0.7477)/2</f>
         <v>0.77010000000000001</v>
       </c>
@@ -1099,382 +1105,431 @@
         <f>(0.1034+0.1005)/2</f>
         <v>0.10195000000000001</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="34">
         <v>0.86660000000000004</v>
       </c>
       <c r="J4" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="28">
+        <f>(0.0844+0.0822+0.0857)/3</f>
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="D5" s="28">
+        <f>(0.0045+0.0045+0.0047)/3</f>
+        <v>4.5666666666666668E-3</v>
+      </c>
+      <c r="E5" s="46">
+        <f>(0.1172+0.1171+0.115)/3</f>
+        <v>0.11643333333333333</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36"/>
+      <c r="B6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="29">
+        <f>(0.1253+0.1224+0.1242)/3</f>
+        <v>0.12396666666666667</v>
+      </c>
+      <c r="D6" s="29">
+        <f>(0.106+0.1073+0.106)/3</f>
+        <v>0.10643333333333332</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(0+0+0)/3</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C7" s="30">
         <f>(0.2023+0.2018+0.2009)/3</f>
         <v>0.20166666666666666</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D7" s="8">
         <f>(0.0195+0.0203+0.02)/3</f>
         <v>1.9933333333333334E-2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E7" s="32">
         <f>(0.1904+0.192+0.1935)/3</f>
         <v>0.1919666666666667</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <f>(0.0209+0.0207+0.0214)/3</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G7" s="32">
         <f>(0.3159+0.3085+0)/3</f>
         <v>0.20813333333333336</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
         <f>(0.0319+0.0309+0.031)/3</f>
         <v>3.1266666666666665E-2</v>
       </c>
-      <c r="I5" s="41">
-        <f>(0.1647+0.164+0)/3</f>
-        <v>0.10956666666666666</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I7" s="32">
+        <f>(0.1647+0.164+0.1662)/3</f>
+        <v>0.16496666666666668</v>
+      </c>
+      <c r="J7" s="2">
         <f>(0.0209+0.0214+0.021)/3</f>
         <v>2.1099999999999997E-2</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23"/>
-      <c r="B6" s="34" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C8" s="31">
         <f>(0.2991+0.251+0.3416)/3</f>
         <v>0.29723333333333335</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D8" s="4">
         <f>(0.1143+0.1132+0.1152)/3</f>
         <v>0.11423333333333334</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E8" s="31">
         <f>(0.3082+0.3097+0.3085)/3</f>
         <v>0.30879999999999996</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="4">
         <f>(0.1134+0.1143+0.1151)/3</f>
         <v>0.11426666666666667</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G8" s="31">
         <f>(0.5418+0.5334+0)/3</f>
         <v>0.3584</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H8" s="4">
         <f>(0.1062+0.1066+0.1064)/3</f>
         <v>0.10639999999999999</v>
       </c>
-      <c r="I6" s="40">
-        <f>(0.2997+0.3176+0)/3</f>
-        <v>0.20576666666666665</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="I8" s="31">
+        <f>(0.2997+0.3176+0.3301)/3</f>
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="J8" s="4">
         <f>(0.099+0.0987+0.0991)/3</f>
         <v>9.8933333333333318E-2</v>
       </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="1">
         <f>(0.1062+0.1091+0.1051)/3</f>
         <v>0.10680000000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <f>(0.0097+0.0095+0.0093)/3</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <f>(0.1277+0.1276+0.1272)/3</f>
         <v>0.12749999999999997</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <f>(0.0187+0.0184+0.0187)/3</f>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G9" s="1">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <f>(0.0221+0.0222)/2</f>
         <v>2.2150000000000003E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I9" s="1">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="2">
         <v>1.21E-2</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="34" t="s">
+    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C10" s="3">
         <f>(0.1401+0.1378+0.1374)/3</f>
         <v>0.13843333333333332</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D10" s="4">
         <f>(0.1026+0.1017+0.1048)/3</f>
         <v>0.10303333333333332</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E10" s="3">
         <f>(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F10" s="4">
         <f>(0.1071+0.1084+0.1071)/3</f>
         <v>0.10753333333333333</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G10" s="3">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H10" s="4">
         <f>(0.0925+0.0919)/2</f>
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I10" s="3">
         <v>0.1578</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J10" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C12" s="10">
         <f>1/300</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="AB10" s="14"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
+      <c r="E12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="AB12" s="14"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C13" s="10">
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="K16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>43</v>
-      </c>
+      <c r="E17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
+      <c r="B18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="K18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M18" t="s">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="19" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
+      <c r="A28" s="5"/>
+      <c r="B28" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F50:F349">
-    <sortCondition ref="F50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F52:F351">
+    <sortCondition ref="F52"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="11">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="K1:M2"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740C2E1-6184-4059-9CF9-FE06622A7884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D849758-48F7-402B-8E84-C6BC265B5F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6280" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,7 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +599,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -640,11 +640,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,6 +670,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -960,7 +957,7 @@
   <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,31 +969,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="37" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -1029,134 +1026,128 @@
       <c r="J2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30">
-        <f>(0.2535+0.2386+0.22)/3</f>
-        <v>0.23736666666666664</v>
+      <c r="C3" s="41">
+        <f>(0.3982+0.3668+0.3843)/3</f>
+        <v>0.3831</v>
       </c>
       <c r="D3" s="28">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="30">
-        <f>(0.3411+0.3014+0.3415)/3</f>
-        <v>0.32800000000000001</v>
+      <c r="E3" s="41">
+        <f>(0.5904+0.6326+0.6324)/3</f>
+        <v>0.61846666666666661</v>
       </c>
       <c r="F3" s="8">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="30">
-        <f>(0.4382+0.471)/2</f>
-        <v>0.4546</v>
+      <c r="G3" s="41">
+        <f>(0.7925+0.7477)/2</f>
+        <v>0.77010000000000001</v>
       </c>
       <c r="H3" s="8">
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="I3" s="33">
-        <v>0.34549999999999997</v>
+      <c r="I3" s="28">
+        <v>0.86660000000000004</v>
       </c>
       <c r="J3" s="8">
         <v>1.95E-2</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31">
-        <f>(0.3982+0.3668+0.3843)/3</f>
-        <v>0.3831</v>
+      <c r="C4" s="3">
+        <f>(0.2535+0.2386+0.22)/3</f>
+        <v>0.23736666666666664</v>
       </c>
       <c r="D4" s="29">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="31">
-        <f>(0.5904+0.6326+0.6324)/3</f>
-        <v>0.61846666666666661</v>
+      <c r="E4" s="3">
+        <f>(0.3411+0.3014+0.3415)/3</f>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F4" s="4">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="31">
-        <f>(0.7925+0.7477)/2</f>
-        <v>0.77010000000000001</v>
+      <c r="G4" s="3">
+        <f>(0.4382+0.471)/2</f>
+        <v>0.4546</v>
       </c>
       <c r="H4" s="4">
         <f>(0.1034+0.1005)/2</f>
         <v>0.10195000000000001</v>
       </c>
-      <c r="I4" s="34">
-        <v>0.86660000000000004</v>
+      <c r="I4" s="29">
+        <v>0.34549999999999997</v>
       </c>
       <c r="J4" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="28">
-        <f>(0.0844+0.0822+0.0857)/3</f>
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="D5" s="28">
-        <f>(0.0045+0.0045+0.0047)/3</f>
-        <v>4.5666666666666668E-3</v>
-      </c>
-      <c r="E5" s="46">
-        <f>(0.1172+0.1171+0.115)/3</f>
-        <v>0.11643333333333333</v>
-      </c>
+      <c r="C5" s="42">
+        <f>(0.175+0.1714+0.1733)/3</f>
+        <v>0.17323333333333335</v>
+      </c>
+      <c r="D5" s="42">
+        <f>(0.0045+0.0044+0.0045)/3</f>
+        <v>4.4666666666666665E-3</v>
+      </c>
+      <c r="E5" s="41"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="46"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="46"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29">
-        <f>(0.1253+0.1224+0.1242)/3</f>
-        <v>0.12396666666666667</v>
-      </c>
-      <c r="D6" s="29">
-        <f>(0.106+0.1073+0.106)/3</f>
-        <v>0.10643333333333332</v>
-      </c>
-      <c r="E6" s="3">
-        <f>(0+0+0)/3</f>
-        <v>0</v>
-      </c>
+      <c r="C6" s="43">
+        <f>(0.1536+0.158+0.1569)/3</f>
+        <v>0.15616666666666668</v>
+      </c>
+      <c r="D6" s="43">
+        <f>(0.1057+0.1054+0.1056)/3</f>
+        <v>0.10556666666666666</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
@@ -1164,39 +1155,39 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30">
-        <f>(0.2023+0.2018+0.2009)/3</f>
-        <v>0.20166666666666666</v>
+      <c r="C7" s="41">
+        <f>(0.2991+0.251+0.3416)/3</f>
+        <v>0.29723333333333335</v>
       </c>
       <c r="D7" s="8">
         <f>(0.0195+0.0203+0.02)/3</f>
         <v>1.9933333333333334E-2</v>
       </c>
-      <c r="E7" s="32">
-        <f>(0.1904+0.192+0.1935)/3</f>
-        <v>0.1919666666666667</v>
+      <c r="E7" s="1">
+        <f>(0.3082+0.3097+0.3085)/3</f>
+        <v>0.30879999999999996</v>
       </c>
       <c r="F7" s="2">
         <f>(0.0209+0.0207+0.0214)/3</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G7" s="32">
-        <f>(0.3159+0.3085+0)/3</f>
-        <v>0.20813333333333336</v>
+      <c r="G7" s="1">
+        <f>(0.5418+0.5334+0)/3</f>
+        <v>0.3584</v>
       </c>
       <c r="H7" s="2">
         <f>(0.0319+0.0309+0.031)/3</f>
         <v>3.1266666666666665E-2</v>
       </c>
-      <c r="I7" s="32">
-        <f>(0.1647+0.164+0.1662)/3</f>
-        <v>0.16496666666666668</v>
+      <c r="I7" s="1">
+        <f>(0.2997+0.3176+0.3301)/3</f>
+        <v>0.31580000000000003</v>
       </c>
       <c r="J7" s="2">
         <f>(0.0209+0.0214+0.021)/3</f>
@@ -1207,37 +1198,37 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="31">
-        <f>(0.2991+0.251+0.3416)/3</f>
-        <v>0.29723333333333335</v>
+      <c r="C8" s="3">
+        <f>(0.2023+0.2018+0.2009)/3</f>
+        <v>0.20166666666666666</v>
       </c>
       <c r="D8" s="4">
         <f>(0.1143+0.1132+0.1152)/3</f>
         <v>0.11423333333333334</v>
       </c>
-      <c r="E8" s="31">
-        <f>(0.3082+0.3097+0.3085)/3</f>
-        <v>0.30879999999999996</v>
+      <c r="E8" s="3">
+        <f>(0.1904+0.192+0.1935)/3</f>
+        <v>0.1919666666666667</v>
       </c>
       <c r="F8" s="4">
         <f>(0.1134+0.1143+0.1151)/3</f>
         <v>0.11426666666666667</v>
       </c>
-      <c r="G8" s="31">
-        <f>(0.5418+0.5334+0)/3</f>
-        <v>0.3584</v>
+      <c r="G8" s="3">
+        <f>(0.3159+0.3085+0)/3</f>
+        <v>0.20813333333333336</v>
       </c>
       <c r="H8" s="4">
         <f>(0.1062+0.1066+0.1064)/3</f>
         <v>0.10639999999999999</v>
       </c>
-      <c r="I8" s="31">
-        <f>(0.2997+0.3176+0.3301)/3</f>
-        <v>0.31580000000000003</v>
+      <c r="I8" s="3">
+        <f>(0.1647+0.164+0.1662)/3</f>
+        <v>0.16496666666666668</v>
       </c>
       <c r="J8" s="4">
         <f>(0.099+0.0987+0.0991)/3</f>
@@ -1248,10 +1239,10 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
@@ -1289,8 +1280,8 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D849758-48F7-402B-8E84-C6BC265B5F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505D366-16D4-4532-B837-F1F65A165E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6280" windowWidth="19180" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9760" windowWidth="19940" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>KNN</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Worst</t>
   </si>
   <si>
     <t>Customer</t>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Guess accuracy</t>
   </si>
   <si>
     <t>RF</t>
@@ -380,12 +371,21 @@
   <si>
     <t>CNN</t>
   </si>
+  <si>
+    <t>1 L</t>
+  </si>
+  <si>
+    <t>1 L / C</t>
+  </si>
+  <si>
+    <t>1 L / P</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,14 +433,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -463,7 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,10 +586,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -611,12 +602,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,7 +629,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,11 +653,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -667,14 +665,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -954,579 +946,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="9" width="9.453125" customWidth="1"/>
-    <col min="11" max="13" width="10" customWidth="1"/>
+    <col min="3" max="13" width="9.453125" customWidth="1"/>
+    <col min="15" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="32" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="38"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="41">
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30">
         <f>(0.3982+0.3668+0.3843)/3</f>
         <v>0.3831</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="E3" s="41">
+      <c r="F3" s="30">
         <f>(0.5904+0.6326+0.6324)/3</f>
         <v>0.61846666666666661</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="26"/>
+      <c r="H3" s="8">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="G3" s="41">
+      <c r="I3" s="32">
         <f>(0.7925+0.7477)/2</f>
         <v>0.77010000000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="J3" s="26"/>
+      <c r="K3" s="8">
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="I3" s="28">
-        <v>0.86660000000000004</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1.95E-2</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="23" t="s">
+      <c r="L3" s="31">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="8">
+        <f>(0.0195+0.0186)/2</f>
+        <v>1.9049999999999997E-2</v>
+      </c>
+      <c r="O3" s="42" t="s">
         <v>8</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41"/>
+      <c r="B4" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <f>(0.2535+0.2386+0.22)/3</f>
         <v>0.23736666666666664</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <f>(0.3411+0.3014+0.3415)/3</f>
         <v>0.32800000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="27"/>
+      <c r="H4" s="4">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="33">
         <f>(0.4382+0.471)/2</f>
         <v>0.4546</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="27"/>
+      <c r="K4" s="4">
         <f>(0.1034+0.1005)/2</f>
         <v>0.10195000000000001</v>
       </c>
-      <c r="I4" s="29">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="J4" s="4">
-        <v>9.8500000000000004E-2</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="L4" s="27">
+        <f>(0.3455+0.3285)/2</f>
+        <v>0.33699999999999997</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="4">
+        <f>(0.0985+0.0986)/2</f>
+        <v>9.8549999999999999E-2</v>
+      </c>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="42">
-        <f>(0.175+0.1714+0.1733)/3</f>
-        <v>0.17323333333333335</v>
-      </c>
-      <c r="D5" s="42">
-        <f>(0.0045+0.0044+0.0045)/3</f>
-        <v>4.4666666666666665E-3</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="43">
-        <f>(0.1536+0.158+0.1569)/3</f>
-        <v>0.15616666666666668</v>
-      </c>
-      <c r="D6" s="43">
-        <f>(0.1057+0.1054+0.1056)/3</f>
-        <v>0.10556666666666666</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26">
+        <f>(0.5514+0.5606)/2</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26">
+        <f>(0.026+0.0242+0.0238)/3</f>
+        <v>2.4666666666666667E-2</v>
+      </c>
+      <c r="F5" s="30">
+        <f>(0.6606+0.6606)/2</f>
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="8">
+        <f>(0.0228+0.0227)/2</f>
+        <v>2.2749999999999999E-2</v>
+      </c>
+      <c r="I5" s="30">
+        <f>(0.7822+0.768)/2</f>
+        <v>0.77510000000000001</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="8">
+        <f>(0.0234+0.0232)/2</f>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="L5" s="30">
+        <f>(0.7684+0.755)/2</f>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="8">
+        <f>(0.0252+0.0244)/2</f>
+        <v>2.4800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="27">
+        <f>(0.4186+0.4008)/2</f>
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
+        <f>(0.1169+0.1121+0.1149)/3</f>
+        <v>0.11463333333333332</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(0.5177+0.5177)/2</f>
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="4">
+        <f>(0.1146+0.1146)/2</f>
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="I6" s="3">
+        <f>(0.5984+0.5822)/2</f>
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="4">
+        <f>(0.1011+0.1012)/2</f>
+        <v>0.10114999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(0.6002+0.6068)/2</f>
+        <v>0.60349999999999993</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="4">
+        <f>(0.0999+0.1007)/2</f>
+        <v>0.1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="41">
-        <f>(0.2991+0.251+0.3416)/3</f>
-        <v>0.29723333333333335</v>
-      </c>
-      <c r="D7" s="8">
+        <v>31</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30">
+        <f>(0.3225+0.3037)/2</f>
+        <v>0.31310000000000004</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="8">
         <f>(0.0195+0.0203+0.02)/3</f>
         <v>1.9933333333333334E-2</v>
       </c>
-      <c r="E7" s="1">
-        <f>(0.3082+0.3097+0.3085)/3</f>
-        <v>0.30879999999999996</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="2">
         <f>(0.0209+0.0207+0.0214)/3</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <f>(0.5418+0.5334+0)/3</f>
         <v>0.3584</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="19"/>
+      <c r="K7" s="2">
         <f>(0.0319+0.0309+0.031)/3</f>
         <v>3.1266666666666665E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <f>(0.2997+0.3176+0.3301)/3</f>
         <v>0.31580000000000003</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="19"/>
+      <c r="N7" s="2">
         <f>(0.0209+0.0214+0.021)/3</f>
         <v>2.1099999999999997E-2</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27" t="s">
-        <v>8</v>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36"/>
+      <c r="B8" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>(0.2023+0.2018+0.2009)/3</f>
-        <v>0.20166666666666666</v>
-      </c>
-      <c r="D8" s="4">
+        <f>(0.1988+0.1939+0.2009)/3</f>
+        <v>0.19786666666666666</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="4">
         <f>(0.1143+0.1132+0.1152)/3</f>
         <v>0.11423333333333334</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <f>(0.1904+0.192+0.1935)/3</f>
         <v>0.1919666666666667</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="27"/>
+      <c r="H8" s="4">
         <f>(0.1134+0.1143+0.1151)/3</f>
         <v>0.11426666666666667</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <f>(0.3159+0.3085+0)/3</f>
         <v>0.20813333333333336</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="27"/>
+      <c r="K8" s="4">
         <f>(0.1062+0.1066+0.1064)/3</f>
         <v>0.10639999999999999</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <f>(0.1647+0.164+0.1662)/3</f>
         <v>0.16496666666666668</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="27"/>
+      <c r="N8" s="4">
         <f>(0.099+0.0987+0.0991)/3</f>
         <v>9.8933333333333318E-2</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>7</v>
+      <c r="B9" s="28" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <f>(0.1062+0.1091+0.1051)/3</f>
         <v>0.10680000000000001</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="19"/>
+      <c r="E9" s="2">
         <f>(0.0097+0.0095+0.0093)/3</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f>(0.1277+0.1276+0.1272)/3</f>
         <v>0.12749999999999997</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="19"/>
+      <c r="H9" s="2">
         <f>(0.0187+0.0184+0.0187)/3</f>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <f>(0.1408)/1</f>
         <v>0.14080000000000001</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="19"/>
+      <c r="K9" s="2">
         <f>(0.0221+0.0222)/2</f>
         <v>2.2150000000000003E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="M9" s="19"/>
+      <c r="N9" s="2">
         <v>1.21E-2</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="40" t="s">
-        <v>8</v>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36"/>
+      <c r="B10" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <f>(0.1401+0.1378+0.1374)/3</f>
         <v>0.13843333333333332</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="27"/>
+      <c r="E10" s="4">
         <f>(0.1026+0.1017+0.1048)/3</f>
         <v>0.10303333333333332</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <f>(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="27"/>
+      <c r="H10" s="4">
         <f>(0.1071+0.1084+0.1071)/3</f>
         <v>0.10753333333333333</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <f>(0.1756)/1</f>
         <v>0.17560000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="27"/>
+      <c r="K10" s="4">
         <f>(0.0925+0.0919)/2</f>
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>0.1578</v>
       </c>
-      <c r="J10" s="4">
+      <c r="M10" s="27"/>
+      <c r="N10" s="4">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
-        <f>1/300</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="AB12" s="14"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10">
-        <f>1/100</f>
-        <v>0.01</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="O13" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="O16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="19" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F52:F351">
-    <sortCondition ref="F52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H50:H349">
+    <sortCondition ref="H50"/>
   </sortState>
   <mergeCells count="11">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="O1:Q2"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="O3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1548,16 +1600,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" t="s">
         <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -1580,52 +1632,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
       <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -7862,7 +7914,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D105">
         <v>0.23</v>
@@ -7886,7 +7938,7 @@
         <v>64</v>
       </c>
       <c r="M105" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -7906,7 +7958,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B106">
         <v>0.26</v>
@@ -7936,7 +7988,7 @@
         <v>73</v>
       </c>
       <c r="M106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -7956,7 +8008,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B107">
         <v>0.2</v>
@@ -7986,7 +8038,7 @@
         <v>85</v>
       </c>
       <c r="M107" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -14278,17 +14330,17 @@
     </row>
     <row r="305" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S305" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S306" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="307" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S307" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -14308,16 +14360,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -14341,52 +14393,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
       <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -20623,7 +20675,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -20641,7 +20693,7 @@
         <v>570</v>
       </c>
       <c r="M105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -20661,7 +20713,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -20679,7 +20731,7 @@
         <v>546</v>
       </c>
       <c r="M106" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -20699,7 +20751,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -20717,7 +20769,7 @@
         <v>553</v>
       </c>
       <c r="M107" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -27009,26 +27061,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S305" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S306" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S307" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -27048,16 +27100,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -27081,52 +27133,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
       <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -33363,7 +33415,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -33381,7 +33433,7 @@
         <v>3360</v>
       </c>
       <c r="M105" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -33401,7 +33453,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -33419,7 +33471,7 @@
         <v>3172</v>
       </c>
       <c r="M106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -33439,7 +33491,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -33457,7 +33509,7 @@
         <v>3227</v>
       </c>
       <c r="M107" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -39749,26 +39801,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S305" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S306" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S307" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -39788,20 +39840,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1">
         <f>COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -39833,52 +39885,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
       <c r="T3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
         <v>53</v>
-      </c>
-      <c r="U3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -46115,7 +46167,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -46133,7 +46185,7 @@
         <v>3281</v>
       </c>
       <c r="M105" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -46153,7 +46205,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -46171,7 +46223,7 @@
         <v>3285</v>
       </c>
       <c r="M106" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -46191,7 +46243,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -46209,7 +46261,7 @@
         <v>3161</v>
       </c>
       <c r="M107" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -52501,26 +52553,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="S305" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S306" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S307" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F505D366-16D4-4532-B837-F1F65A165E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D484AD-E7C0-4F77-B7C7-2D685AB5BFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9760" windowWidth="19940" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11890" windowWidth="19940" windowHeight="9050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +450,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,12 +626,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,7 +941,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,35 +953,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="36"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="37" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="39" t="s">
+      <c r="M1" s="36"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -1001,7 +993,7 @@
       <c r="C2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="23" t="s">
@@ -1010,7 +1002,7 @@
       <c r="F2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="31" t="s">
         <v>113</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -1019,7 +1011,7 @@
       <c r="I2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="31" t="s">
         <v>113</v>
       </c>
       <c r="K2" s="23" t="s">
@@ -1028,26 +1020,26 @@
       <c r="L2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="31" t="s">
         <v>113</v>
       </c>
       <c r="N2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="30">
-        <f>(0.3982+0.3668+0.3843)/3</f>
-        <v>0.3831</v>
+        <f>(0.3606+0.3668+0.3843)/3</f>
+        <v>0.37056666666666666</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26">
@@ -1063,16 +1055,16 @@
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="I3" s="32">
-        <f>(0.7925+0.7477)/2</f>
-        <v>0.77010000000000001</v>
+      <c r="I3" s="30">
+        <f>(0.7877+0.7969)/2</f>
+        <v>0.7923</v>
       </c>
       <c r="J3" s="26"/>
       <c r="K3" s="8">
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="26">
         <v>0.75849999999999995</v>
       </c>
       <c r="M3" s="26"/>
@@ -1080,20 +1072,20 @@
         <f>(0.0195+0.0186)/2</f>
         <v>1.9049999999999997E-2</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
-        <f>(0.2535+0.2386+0.22)/3</f>
-        <v>0.23736666666666664</v>
+        <f>(0.2272+0.2116+0.22)/3</f>
+        <v>0.21960000000000002</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27">
@@ -1101,17 +1093,17 @@
         <v>0.11483333333333334</v>
       </c>
       <c r="F4" s="3">
-        <f>(0.3411+0.3014+0.3415)/3</f>
-        <v>0.32800000000000001</v>
+        <f>(0.3011+0.3014+0.3215)/3</f>
+        <v>0.308</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="4">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="I4" s="33">
-        <f>(0.4382+0.471)/2</f>
-        <v>0.4546</v>
+      <c r="I4" s="3">
+        <f>(0.3189+0.3365)/2</f>
+        <v>0.32769999999999999</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="4">
@@ -1119,20 +1111,20 @@
         <v>0.10195000000000001</v>
       </c>
       <c r="L4" s="27">
-        <f>(0.3455+0.3285)/2</f>
-        <v>0.33699999999999997</v>
+        <f>(0.3255+0.3285)/2</f>
+        <v>0.32700000000000001</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="4">
         <f>(0.0985+0.0986)/2</f>
         <v>9.8549999999999999E-2</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1157,8 +1149,8 @@
         <v>2.2749999999999999E-2</v>
       </c>
       <c r="I5" s="30">
-        <f>(0.7822+0.768)/2</f>
-        <v>0.77510000000000001</v>
+        <f>(0.8098+0.8098)/2</f>
+        <v>0.80979999999999996</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="8">
@@ -1176,7 +1168,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1210,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1264,7 +1256,7 @@
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1301,7 @@
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1343,7 +1335,7 @@
         <v>2.2150000000000003E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>8.5500000000000007E-2</v>
+        <v>0.1255</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="2">
@@ -1354,7 +1346,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="36"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1404,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="18"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="18"/>
       <c r="N12" s="15"/>
     </row>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EntireUniverse\UniStuff\2020\Smart-Grid-Blockchain-Privacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D484AD-E7C0-4F77-B7C7-2D685AB5BFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4B8A19-A33C-4E6F-AC93-115A2EA6D164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11890" windowWidth="19940" windowHeight="9050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30075" yWindow="10440" windowWidth="12195" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
-    <sheet name="W MLP Spread" sheetId="2" r:id="rId2"/>
-    <sheet name="D MLP Spread" sheetId="3" r:id="rId3"/>
-    <sheet name="H MLP Spread" sheetId="4" r:id="rId4"/>
-    <sheet name="HH MLP Spread" sheetId="5" r:id="rId5"/>
+    <sheet name="Overall_old" sheetId="6" r:id="rId2"/>
+    <sheet name="W MLP Spread" sheetId="2" r:id="rId3"/>
+    <sheet name="D MLP Spread" sheetId="3" r:id="rId4"/>
+    <sheet name="H MLP Spread" sheetId="4" r:id="rId5"/>
+    <sheet name="HH MLP Spread" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="114">
   <si>
     <t>Weekly</t>
   </si>
@@ -130,9 +131,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>RF</t>
   </si>
   <si>
     <t>Stage 1a</t>
@@ -380,6 +378,9 @@
   <si>
     <t>1 L / P</t>
   </si>
+  <si>
+    <t>RDF</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +451,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -630,6 +661,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +708,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,7 +1009,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N9" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -949,39 +1017,40 @@
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="13" width="9.453125" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" customWidth="1"/>
     <col min="15" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="37" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
@@ -991,401 +1060,455 @@
         <v>7</v>
       </c>
       <c r="C2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="E2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="H2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="K2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>113</v>
-      </c>
       <c r="N2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+        <v>110</v>
+      </c>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="53" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30">
-        <f>(0.3606+0.3668+0.3843)/3</f>
-        <v>0.37056666666666666</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
+      <c r="C3" s="69">
+        <f>(0.4804+0.4479+0.4332)/3</f>
+        <v>0.45383333333333331</v>
+      </c>
+      <c r="D3" s="70">
+        <f>(0.4581+0.4505+0.4579)/3</f>
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="E3" s="47">
         <f>(0.0224+0.0224+0.0237)/3</f>
         <v>2.2833333333333334E-2</v>
       </c>
-      <c r="F3" s="30">
-        <f>(0.5904+0.6326+0.6324)/3</f>
-        <v>0.61846666666666661</v>
-      </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="8">
+      <c r="F3" s="45">
+        <f>(0.7251+0.649+0.6612)/3</f>
+        <v>0.67843333333333333</v>
+      </c>
+      <c r="G3" s="47">
+        <f>(0.5581+0.6302+0.6051)/3</f>
+        <v>0.5978</v>
+      </c>
+      <c r="H3" s="48">
         <f>(0.0194+0.0194+0.0191)/3</f>
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="I3" s="30">
-        <f>(0.7877+0.7969)/2</f>
-        <v>0.7923</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="8">
+      <c r="I3" s="38">
+        <f t="shared" ref="I3:I10" si="0">(0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="48">
         <f>(0.0181+0.0175)/2</f>
         <v>1.7800000000000003E-2</v>
       </c>
-      <c r="L3" s="26">
-        <v>0.75849999999999995</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="8">
+      <c r="L3" s="39">
+        <f t="shared" ref="L3:L10" si="1">(0)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="48">
         <f>(0.0195+0.0186)/2</f>
         <v>1.9049999999999997E-2</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="O3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <f>(0.2272+0.2116+0.22)/3</f>
-        <v>0.21960000000000002</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27">
+      <c r="C4" s="44">
+        <f>(0.2311+0.2235+0.231)/3</f>
+        <v>0.22853333333333334</v>
+      </c>
+      <c r="D4" s="46">
+        <f>(0.2656+0.2412+0.2432)/3</f>
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="46">
         <f>(0.1181+0.1143+0.1121)/3</f>
         <v>0.11483333333333334</v>
       </c>
-      <c r="F4" s="3">
-        <f>(0.3011+0.3014+0.3215)/3</f>
-        <v>0.308</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="4">
+      <c r="F4" s="44">
+        <f>(0.3197+0.3895+0.3044)/3</f>
+        <v>0.3378666666666667</v>
+      </c>
+      <c r="G4" s="46">
+        <f>(0.3627+0.311+0.3503)/3</f>
+        <v>0.34133333333333332</v>
+      </c>
+      <c r="H4" s="49">
         <f>(0.1134+0.1125+0.1133)/3</f>
         <v>0.11306666666666666</v>
       </c>
-      <c r="I4" s="3">
-        <f>(0.3189+0.3365)/2</f>
-        <v>0.32769999999999999</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="4">
+      <c r="I4" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="49">
         <f>(0.1034+0.1005)/2</f>
         <v>0.10195000000000001</v>
       </c>
-      <c r="L4" s="27">
-        <f>(0.3255+0.3285)/2</f>
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="4">
+      <c r="L4" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="49">
         <f>(0.0985+0.0986)/2</f>
         <v>9.8549999999999999E-2</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>110</v>
+      <c r="A5" s="67" t="s">
+        <v>109</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26">
-        <f>(0.5514+0.5606)/2</f>
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26">
+      <c r="C5" s="64">
+        <f>(0.5701+0.5895+0.5812)/3</f>
+        <v>0.58026666666666671</v>
+      </c>
+      <c r="D5" s="47">
+        <f>(0.5804+0.5966+0.5493)/3</f>
+        <v>0.57543333333333335</v>
+      </c>
+      <c r="E5" s="47">
         <f>(0.026+0.0242+0.0238)/3</f>
         <v>2.4666666666666667E-2</v>
       </c>
-      <c r="F5" s="30">
-        <f>(0.6606+0.6606)/2</f>
-        <v>0.66059999999999997</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="8">
-        <f>(0.0228+0.0227)/2</f>
-        <v>2.2749999999999999E-2</v>
-      </c>
-      <c r="I5" s="30">
-        <f>(0.8098+0.8098)/2</f>
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="8">
+      <c r="F5" s="66">
+        <f>(0.6988+0.7072)/2</f>
+        <v>0.70300000000000007</v>
+      </c>
+      <c r="G5" s="39">
+        <f>(0.7+0.7115)/2</f>
+        <v>0.70574999999999999</v>
+      </c>
+      <c r="H5" s="48">
+        <f>(0.0238+0.0237+0.0242)/3</f>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="I5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="48">
         <f>(0.0234+0.0232)/2</f>
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="L5" s="30">
-        <f>(0.7684+0.755)/2</f>
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="8">
+      <c r="L5" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="39"/>
+      <c r="N5" s="48">
         <f>(0.0252+0.0244)/2</f>
         <v>2.4800000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27">
-        <f>(0.4186+0.4008)/2</f>
-        <v>0.40970000000000001</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="C6" s="46">
+        <f>(0.429+0.4242+0.4323)/3</f>
+        <v>0.42849999999999994</v>
+      </c>
+      <c r="D6" s="65">
+        <f>(0.4515+0.4418+0.4561)/3</f>
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="E6" s="46">
         <f>(0.1169+0.1121+0.1149)/3</f>
         <v>0.11463333333333332</v>
       </c>
-      <c r="F6" s="3">
-        <f>(0.5177+0.5177)/2</f>
-        <v>0.51770000000000005</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="4">
-        <f>(0.1146+0.1146)/2</f>
-        <v>0.11459999999999999</v>
-      </c>
-      <c r="I6" s="3">
-        <f>(0.5984+0.5822)/2</f>
-        <v>0.59030000000000005</v>
-      </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="4">
+      <c r="F6" s="40">
+        <f>(0.5249+0.5418)/2</f>
+        <v>0.53334999999999999</v>
+      </c>
+      <c r="G6" s="65">
+        <f>(0.5438+0.5666)/2</f>
+        <v>0.55519999999999992</v>
+      </c>
+      <c r="H6" s="49">
+        <f>(0.1146+0.1146+0.115)/3</f>
+        <v>0.11473333333333334</v>
+      </c>
+      <c r="I6" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="49">
         <f>(0.1011+0.1012)/2</f>
         <v>0.10114999999999999</v>
       </c>
-      <c r="L6" s="3">
-        <f>(0.6002+0.6068)/2</f>
-        <v>0.60349999999999993</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="4">
+      <c r="L6" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="49">
         <f>(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>31</v>
+      <c r="A7" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="30">
-        <f>(0.3225+0.3037)/2</f>
-        <v>0.31310000000000004</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="8">
+      <c r="C7" s="45">
+        <f>(0.4325+0.4169+0.4658)/3</f>
+        <v>0.43839999999999996</v>
+      </c>
+      <c r="D7" s="47">
+        <f>(0.4204+0.448+0.4105)/3</f>
+        <v>0.42630000000000007</v>
+      </c>
+      <c r="E7" s="48">
         <f>(0.0195+0.0203+0.02)/3</f>
         <v>1.9933333333333334E-2</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="2">
+      <c r="F7" s="51">
+        <f>(0.4323+0.3849+0.3826)/3</f>
+        <v>0.39993333333333331</v>
+      </c>
+      <c r="G7" s="52">
+        <f>(0.4254+0.4457+0.4062)/3</f>
+        <v>0.42576666666666663</v>
+      </c>
+      <c r="H7" s="50">
         <f>(0.0209+0.0207+0.0214)/3</f>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I7" s="1">
-        <f>(0.5418+0.5334+0)/3</f>
-        <v>0.3584</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="2">
-        <f>(0.0319+0.0309+0.031)/3</f>
-        <v>3.1266666666666665E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f>(0.2997+0.3176+0.3301)/3</f>
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="2">
-        <f>(0.0209+0.0214+0.021)/3</f>
-        <v>2.1099999999999997E-2</v>
+      <c r="I7" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="50">
+        <f>(0.0309+0.031)/3</f>
+        <v>2.0633333333333333E-2</v>
+      </c>
+      <c r="L7" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="50">
+        <f>(0.0209+0.0214)/2</f>
+        <v>2.1149999999999999E-2</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <f>(0.1988+0.1939+0.2009)/3</f>
-        <v>0.19786666666666666</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="4">
+      <c r="C8" s="44">
+        <f>(0.2376+0.2338+0.235)/3</f>
+        <v>0.23546666666666669</v>
+      </c>
+      <c r="D8" s="46">
+        <f>(0.2633+0.2577+0.2631)/3</f>
+        <v>0.26136666666666664</v>
+      </c>
+      <c r="E8" s="49">
         <f>(0.1143+0.1132+0.1152)/3</f>
         <v>0.11423333333333334</v>
       </c>
-      <c r="F8" s="3">
-        <f>(0.1904+0.192+0.1935)/3</f>
-        <v>0.1919666666666667</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="4">
+      <c r="F8" s="44">
+        <f>(0.265+0.2708+0.2727)/3</f>
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="G8" s="46">
+        <f>(0.2735+0.2645+0.2689)/3</f>
+        <v>0.26896666666666663</v>
+      </c>
+      <c r="H8" s="49">
         <f>(0.1134+0.1143+0.1151)/3</f>
         <v>0.11426666666666667</v>
       </c>
-      <c r="I8" s="3">
-        <f>(0.3159+0.3085+0)/3</f>
-        <v>0.20813333333333336</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="4">
-        <f>(0.1062+0.1066+0.1064)/3</f>
-        <v>0.10639999999999999</v>
-      </c>
-      <c r="L8" s="3">
-        <f>(0.1647+0.164+0.1662)/3</f>
-        <v>0.16496666666666668</v>
-      </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="4">
-        <f>(0.099+0.0987+0.0991)/3</f>
-        <v>9.8933333333333318E-2</v>
+      <c r="I8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="49">
+        <f>(0.1066+0.1064)/3</f>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L8" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="49">
+        <f>(0.099+0.0987)/2</f>
+        <v>9.8849999999999993E-2</v>
       </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="53" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
-        <f>(0.1062+0.1091+0.1051)/3</f>
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="2">
+      <c r="C9" s="51">
+        <f>(0.3587+0.3632+0.3573)/3</f>
+        <v>0.35973333333333329</v>
+      </c>
+      <c r="D9" s="52">
+        <f>(0.3498+0.3479+0.3496)/3</f>
+        <v>0.34909999999999997</v>
+      </c>
+      <c r="E9" s="50">
         <f>(0.0097+0.0095+0.0093)/3</f>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="F9" s="1">
-        <f>(0.1277+0.1276+0.1272)/3</f>
-        <v>0.12749999999999997</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="2">
+      <c r="F9" s="51">
+        <f>(0.4789+0.4773+0.4784)/3</f>
+        <v>0.47819999999999996</v>
+      </c>
+      <c r="G9" s="52">
+        <f>(0.4779+0.4776+0.4793)/3</f>
+        <v>0.47826666666666667</v>
+      </c>
+      <c r="H9" s="50">
         <f>(0.0187+0.0184+0.0187)/3</f>
         <v>1.8600000000000002E-2</v>
       </c>
-      <c r="I9" s="1">
-        <f>(0.1408)/1</f>
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="2">
+      <c r="I9" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="50">
         <f>(0.0221+0.0222)/2</f>
         <v>2.2150000000000003E-2</v>
       </c>
-      <c r="L9" s="1">
-        <v>0.1255</v>
-      </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="2">
-        <v>1.21E-2</v>
+      <c r="L9" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="50">
+        <f>(0.0239+0.0239)/2</f>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
-        <f>(0.1401+0.1378+0.1374)/3</f>
-        <v>0.13843333333333332</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="4">
+      <c r="C10" s="44">
+        <f>(0.2334+0.2216+0.2369)/3</f>
+        <v>0.23063333333333333</v>
+      </c>
+      <c r="D10" s="46">
+        <f>(0.2643+0.2638+0.2651)/3</f>
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="E10" s="49">
         <f>(0.1026+0.1017+0.1048)/3</f>
         <v>0.10303333333333332</v>
       </c>
-      <c r="F10" s="3">
-        <f>(0.1577+0.1582+0.1566)/3</f>
-        <v>0.1575</v>
-      </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="4">
+      <c r="F10" s="44">
+        <f>(0.3778+0.3786+0.3819)/3</f>
+        <v>0.37943333333333334</v>
+      </c>
+      <c r="G10" s="46">
+        <f>(0.3804+0.3778+0.3795)/3</f>
+        <v>0.37923333333333331</v>
+      </c>
+      <c r="H10" s="49">
         <f>(0.1071+0.1084+0.1071)/3</f>
         <v>0.10753333333333333</v>
       </c>
-      <c r="I10" s="3">
-        <f>(0.1756)/1</f>
-        <v>0.17560000000000001</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="4">
+      <c r="I10" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="49">
         <f>(0.0925+0.0919)/2</f>
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L10" s="3">
-        <v>0.1578</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="4">
-        <v>8.3699999999999997E-2</v>
+      <c r="L10" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="49">
+        <f>(0.0952+0.0952)/2</f>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1435,7 +1558,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -1449,25 +1572,25 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="Q17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -1475,13 +1598,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -1489,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -1497,7 +1620,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -1514,7 +1637,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -1578,6 +1701,711 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7405DBB1-A624-42F2-B5F1-D84ADF268743}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="13" width="9.453125" customWidth="1"/>
+    <col min="15" max="17" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="30">
+        <f>(0.3606+0.3668+0.3843)/3</f>
+        <v>0.37056666666666666</v>
+      </c>
+      <c r="D3" s="26">
+        <f>(0.3432+0.331+0.3215)/3</f>
+        <v>0.33190000000000003</v>
+      </c>
+      <c r="E3" s="26">
+        <f>(0.0224+0.0224+0.0237)/3</f>
+        <v>2.2833333333333334E-2</v>
+      </c>
+      <c r="F3" s="30">
+        <f>(0.5904+0.6326+0.6324)/3</f>
+        <v>0.61846666666666661</v>
+      </c>
+      <c r="G3" s="26">
+        <f>(0.3918+0.4014+0.3884)/3</f>
+        <v>0.39386666666666664</v>
+      </c>
+      <c r="H3" s="8">
+        <f>(0.0194+0.0194+0.0191)/3</f>
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="I3" s="30">
+        <f>(0.7877+0.7969)/2</f>
+        <v>0.7923</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="8">
+        <f>(0.0181+0.0175)/2</f>
+        <v>1.7800000000000003E-2</v>
+      </c>
+      <c r="L3" s="37">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="8">
+        <f>(0.0195+0.0186)/2</f>
+        <v>1.9049999999999997E-2</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="59"/>
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <f>(0.2272+0.2116+0.22)/3</f>
+        <v>0.21960000000000002</v>
+      </c>
+      <c r="D4" s="27">
+        <f>(0.8626+0.8314+0.8503)/3</f>
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="E4" s="27">
+        <f>(0.1181+0.1143+0.1121)/3</f>
+        <v>0.11483333333333334</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(0.3011+0.3014+0.3215)/3</f>
+        <v>0.308</v>
+      </c>
+      <c r="G4" s="27">
+        <f>(0.9691+0.9503+0.9682)/3</f>
+        <v>0.96253333333333335</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(0.1134+0.1125+0.1133)/3</f>
+        <v>0.11306666666666666</v>
+      </c>
+      <c r="I4" s="3">
+        <f>(0.3189+0.3365)/2</f>
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="4">
+        <f>(0.1034+0.1005)/2</f>
+        <v>0.10195000000000001</v>
+      </c>
+      <c r="L4" s="27">
+        <f>(0.3255+0.3285)/2</f>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="4">
+        <f>(0.0985+0.0986)/2</f>
+        <v>9.8549999999999999E-2</v>
+      </c>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="26">
+        <f>(0.5514+0.5606+0.5368)/3</f>
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="D5" s="26">
+        <f>(0.4411+0.4414+0.4382)/3</f>
+        <v>0.44023333333333331</v>
+      </c>
+      <c r="E5" s="26">
+        <f>(0.026+0.0242+0.0238)/3</f>
+        <v>2.4666666666666667E-2</v>
+      </c>
+      <c r="F5" s="30">
+        <f>(0.6699+0.6706+0.6927)/3</f>
+        <v>0.6777333333333333</v>
+      </c>
+      <c r="G5" s="26">
+        <f>(0.4393+0.4335+0.4325)/3</f>
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="H5" s="8">
+        <f>(0.0238+0.0237+0.0242)/3</f>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="I5" s="30">
+        <f>(0.8098+0.8098)/2</f>
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="8">
+        <f>(0.0234+0.0232)/2</f>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="L5" s="30">
+        <f>(0.7684+0.755)/2</f>
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="8">
+        <f>(0.0252+0.0244)/2</f>
+        <v>2.4800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="54"/>
+      <c r="B6" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="27">
+        <f>(0.4186+0.4008+0.4108)/3</f>
+        <v>0.41006666666666663</v>
+      </c>
+      <c r="D6" s="27">
+        <f>(0.8625+0.8393+0.8551)/3</f>
+        <v>0.85229999999999995</v>
+      </c>
+      <c r="E6" s="27">
+        <f>(0.1169+0.1121+0.1149)/3</f>
+        <v>0.11463333333333332</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(0.5177+0.5266+0.5236)/3</f>
+        <v>0.52263333333333328</v>
+      </c>
+      <c r="G6" s="27">
+        <f>(0.9399+0.9168+0.9156)/3</f>
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(0.1146+0.1146+0.115)/3</f>
+        <v>0.11473333333333334</v>
+      </c>
+      <c r="I6" s="3">
+        <f>(0.5984+0.5822)/2</f>
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="4">
+        <f>(0.1011+0.1012)/2</f>
+        <v>0.10114999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(0.6002+0.6068)/2</f>
+        <v>0.60349999999999993</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="4">
+        <f>(0.0999+0.1007)/2</f>
+        <v>0.1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30">
+        <f>(0.3225+0.3037)/2</f>
+        <v>0.31310000000000004</v>
+      </c>
+      <c r="D7" s="26">
+        <f>(0.2421+0.2415+0.2214)/3</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <f>(0.0195+0.0203+0.02)/3</f>
+        <v>1.9933333333333334E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(0.3343+0.3376+0.3375)/3</f>
+        <v>0.33646666666666664</v>
+      </c>
+      <c r="G7" s="19">
+        <f>(0.2274+0.2273+0.2291)/3</f>
+        <v>0.22793333333333332</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(0.0209+0.0207+0.0214)/3</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(0.3418+0.3334+0.3179)/3</f>
+        <v>0.33103333333333335</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="2">
+        <f>(0.0319+0.0309+0.031)/3</f>
+        <v>3.1266666666666665E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f>(0.2997+0.3176+0.3301)/3</f>
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="2">
+        <f>(0.0209+0.0214)/2</f>
+        <v>2.1149999999999999E-2</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="54"/>
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <f>(0.1988+0.1939+0.2009)/3</f>
+        <v>0.19786666666666666</v>
+      </c>
+      <c r="D8" s="27">
+        <f>(0.4076+0.4322+0.4131)/3</f>
+        <v>0.4176333333333333</v>
+      </c>
+      <c r="E8" s="4">
+        <f>(0.1143+0.1132+0.1152)/3</f>
+        <v>0.11423333333333334</v>
+      </c>
+      <c r="F8" s="3">
+        <f>(0.1904+0.192+0.1935)/3</f>
+        <v>0.1919666666666667</v>
+      </c>
+      <c r="G8" s="27">
+        <f>(0.3899+0.4101+0.4039)/3</f>
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(0.1134+0.1143+0.1151)/3</f>
+        <v>0.11426666666666667</v>
+      </c>
+      <c r="I8" s="3">
+        <f>(0.1659+0.1608+0.1658)/3</f>
+        <v>0.16416666666666666</v>
+      </c>
+      <c r="J8" s="27"/>
+      <c r="K8" s="4">
+        <f>(0.1062+0.1066+0.1064)/3</f>
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <f>(0.1647+0.164)/2</f>
+        <v>0.16435</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="4">
+        <f>(0.099+0.0987)/2</f>
+        <v>9.8849999999999993E-2</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(0.1062+0.1091+0.1051)/3</f>
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="D9" s="19">
+        <f>(0.085+0.0874+0.0856)/3</f>
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(0.0097+0.0095+0.0093)/3</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="F9" s="1">
+        <f>(0.1277+0.1276+0.1272)/3</f>
+        <v>0.12749999999999997</v>
+      </c>
+      <c r="G9" s="19">
+        <f>(0.1109+0.1114+0.1119)/3</f>
+        <v>0.1114</v>
+      </c>
+      <c r="H9" s="2">
+        <f>(0.0187+0.0184+0.0187)/3</f>
+        <v>1.8600000000000002E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(0.1408)/1</f>
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="2">
+        <f>(0.0221+0.0222)/2</f>
+        <v>2.2150000000000003E-2</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0.1255</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="36">
+        <v>1.21E-2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54"/>
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(0.1401+0.1378+0.1374)/3</f>
+        <v>0.13843333333333332</v>
+      </c>
+      <c r="D10" s="27">
+        <f>(0.2803+0.2808+0.2771)/3</f>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(0.1026+0.1017+0.1048)/3</f>
+        <v>0.10303333333333332</v>
+      </c>
+      <c r="F10" s="3">
+        <f>(0.1577+0.1582+0.1566)/3</f>
+        <v>0.1575</v>
+      </c>
+      <c r="G10" s="27">
+        <f>(0.3699+0.3739+0.3682)/3</f>
+        <v>0.3706666666666667</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(0.1071+0.1084+0.1071)/3</f>
+        <v>0.10753333333333333</v>
+      </c>
+      <c r="I10" s="3">
+        <f>(0.1756)/1</f>
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="4">
+        <f>(0.0925+0.0919)/2</f>
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0.1578</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="34">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>94</v>
+      </c>
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <v>10.8</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="O16" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="O1:Q2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="O3:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46040921-8328-4A44-AB47-1EFA8DD2E244}">
   <dimension ref="A1:W307"/>
   <sheetViews>
@@ -1592,16 +2420,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -1624,52 +2452,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -7906,7 +8734,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D105">
         <v>0.23</v>
@@ -7930,7 +8758,7 @@
         <v>64</v>
       </c>
       <c r="M105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -7950,7 +8778,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B106">
         <v>0.26</v>
@@ -7980,7 +8808,7 @@
         <v>73</v>
       </c>
       <c r="M106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -8000,7 +8828,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B107">
         <v>0.2</v>
@@ -8030,7 +8858,7 @@
         <v>85</v>
       </c>
       <c r="M107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -14322,17 +15150,17 @@
     </row>
     <row r="305" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S305" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="306" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="307" spans="19:19" x14ac:dyDescent="0.35">
       <c r="S307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -14340,7 +15168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AB26B0-983D-4649-9477-164CC505F25A}">
   <dimension ref="A1:W307"/>
   <sheetViews>
@@ -14352,16 +15180,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
-      </c>
-      <c r="S1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -14385,52 +15213,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -20667,7 +21495,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -20685,7 +21513,7 @@
         <v>570</v>
       </c>
       <c r="M105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -20705,7 +21533,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -20723,7 +21551,7 @@
         <v>546</v>
       </c>
       <c r="M106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -20743,7 +21571,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -20761,7 +21589,7 @@
         <v>553</v>
       </c>
       <c r="M107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -27053,26 +27881,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S305" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S306" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S307" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -27080,7 +27908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3777DB0A-C448-4A5D-A839-56B2B58213FD}">
   <dimension ref="A1:W307"/>
   <sheetViews>
@@ -27092,16 +27920,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>90</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>91</v>
-      </c>
-      <c r="S1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -27125,52 +27953,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -33407,7 +34235,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -33425,7 +34253,7 @@
         <v>3360</v>
       </c>
       <c r="M105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -33445,7 +34273,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -33463,7 +34291,7 @@
         <v>3172</v>
       </c>
       <c r="M106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -33483,7 +34311,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -33501,7 +34329,7 @@
         <v>3227</v>
       </c>
       <c r="M107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -39793,26 +40621,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S305" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S306" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -39820,7 +40648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D20595C-7C71-4AD8-B2FC-61BC3533CF98}">
   <dimension ref="A1:W307"/>
   <sheetViews>
@@ -39832,20 +40660,20 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
       </c>
       <c r="I1">
         <f>COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
         <v>107</v>
-      </c>
-      <c r="S1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -39877,52 +40705,52 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>51</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
       <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
       <c r="T3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
-      </c>
-      <c r="W3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
@@ -46159,7 +46987,7 @@
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G105">
         <v>102</v>
@@ -46177,7 +47005,7 @@
         <v>3281</v>
       </c>
       <c r="M105" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S105">
         <v>102</v>
@@ -46197,7 +47025,7 @@
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G106">
         <v>103</v>
@@ -46215,7 +47043,7 @@
         <v>3285</v>
       </c>
       <c r="M106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S106">
         <v>103</v>
@@ -46235,7 +47063,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G107">
         <v>104</v>
@@ -46253,7 +47081,7 @@
         <v>3161</v>
       </c>
       <c r="M107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S107">
         <v>104</v>
@@ -52545,26 +53373,26 @@
     </row>
     <row r="305" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G305" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S305" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G306" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S306" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G307" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
   <si>
     <t xml:space="preserve">Stage 1a</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t xml:space="preserve">Half Hourly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best case is each customer on an individual ledger with one PK</t>
   </si>
   <si>
     <t xml:space="preserve">Method</t>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst case is all customers on one ledger with new PK per transaction</t>
   </si>
   <si>
     <t xml:space="preserve">Postcode</t>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t xml:space="preserve">Combinations of a-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best case is each customer on an individual ledger with one PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst case is all customers on one ledger with new PK per transaction</t>
   </si>
   <si>
     <t xml:space="preserve">Investigate classification methods: MLP, RF, KNN</t>
@@ -459,14 +459,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
@@ -588,7 +588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -599,10 +599,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -625,6 +621,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,24 +637,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -673,12 +665,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -689,11 +677,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,11 +685,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -713,23 +705,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,11 +830,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -878,7 +858,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -905,15 +885,14 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="3" style="0" width="9.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="9" style="0" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="0" width="9.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="10"/>
   </cols>
@@ -943,65 +922,60 @@
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="11" t="n">
         <f aca="false">(0.4804+0.4479+0.4332)/3</f>
@@ -1011,7 +985,7 @@
         <f aca="false">(0.4581+0.4505+0.4579)/3</f>
         <v>0.4555</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="13" t="n">
         <f aca="false">(0.0224+0.0224+0.0237)/3</f>
         <v>0.0228333333333333</v>
       </c>
@@ -1023,610 +997,602 @@
         <f aca="false">(0.5581+0.6302+0.6051)/3</f>
         <v>0.5978</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="14" t="n">
         <f aca="false">(0.0194+0.0194+0.0191)/3</f>
         <v>0.0193</v>
       </c>
-      <c r="I3" s="14" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="n">
+      <c r="I3" s="11" t="n">
+        <f aca="false">(0.7046+0.7305)/2</f>
+        <v>0.71755</v>
+      </c>
+      <c r="J3" s="12" t="n">
+        <f aca="false">(0.8658+0.6147)/2</f>
+        <v>0.74025</v>
+      </c>
+      <c r="K3" s="14" t="n">
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="15" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="15" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="n">
+      <c r="L3" s="11" t="n">
+        <f aca="false">(0.8586+0.8659)/2</f>
+        <v>0.86225</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <f aca="false">(0.7814+0.8305)/2</f>
+        <v>0.80595</v>
+      </c>
+      <c r="N3" s="14" t="n">
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="18" t="n">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="n">
         <f aca="false">(0.2311+0.2235+0.231)/3</f>
         <v>0.228533333333333</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="17" t="n">
         <f aca="false">(0.2656+0.2412+0.2432)/3</f>
         <v>0.25</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="17" t="n">
         <f aca="false">(0.1181+0.1143+0.1121)/3</f>
         <v>0.114833333333333</v>
       </c>
-      <c r="F4" s="18" t="n">
+      <c r="F4" s="16" t="n">
         <f aca="false">(0.3197+0.3895+0.3044)/3</f>
         <v>0.337866666666667</v>
       </c>
-      <c r="G4" s="19" t="n">
+      <c r="G4" s="17" t="n">
         <f aca="false">(0.3627+0.311+0.3503)/3</f>
         <v>0.341333333333333</v>
       </c>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="18" t="n">
         <f aca="false">(0.1134+0.1125+0.1133)/3</f>
         <v>0.113066666666667</v>
       </c>
-      <c r="I4" s="21" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="20" t="n">
+      <c r="I4" s="16" t="n">
+        <f aca="false">(0.4742+0.4024)/2</f>
+        <v>0.4383</v>
+      </c>
+      <c r="J4" s="17" t="n">
+        <f aca="false">(0.3341+0.2801)/2</f>
+        <v>0.3071</v>
+      </c>
+      <c r="K4" s="18" t="n">
         <f aca="false">(0.1034+0.1005)/2</f>
         <v>0.10195</v>
       </c>
-      <c r="L4" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="20" t="n">
+      <c r="L4" s="16" t="n">
+        <f aca="false">(0.3692+0.4044)/2</f>
+        <v>0.3868</v>
+      </c>
+      <c r="M4" s="17" t="n">
+        <f aca="false">(0.3057+0.3882)/2</f>
+        <v>0.34695</v>
+      </c>
+      <c r="N4" s="18" t="n">
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25" t="n">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <f aca="false">(0.5701+0.5895+0.5812)/3</f>
         <v>0.580266666666667</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <f aca="false">(0.5804+0.5966+0.5493)/3</f>
         <v>0.575433333333333</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
-      <c r="F5" s="26" t="n">
+      <c r="F5" s="22" t="n">
         <f aca="false">(0.6988+0.7072+0.6913)/3</f>
         <v>0.6991</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="23" t="n">
         <f aca="false">(0.7+0.7115+0.7099)/3</f>
         <v>0.707133333333333</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="14" t="n">
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
-      <c r="I5" s="14" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="13" t="n">
+      <c r="I5" s="24" t="n">
+        <f aca="false">(0.7842+0.7941)/2</f>
+        <v>0.78915</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <f aca="false">(0.7934+0.7845)/2</f>
+        <v>0.78895</v>
+      </c>
+      <c r="K5" s="14" t="n">
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="14" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="15" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="13" t="n">
+      <c r="L5" s="25" t="n">
+        <f aca="false">(0.7906+0.7889)/2</f>
+        <v>0.78975</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <f aca="false">(0.8045+0.7897)/2</f>
+        <v>0.7971</v>
+      </c>
+      <c r="N5" s="14" t="n">
         <f aca="false">(0.0252+0.0244)/2</f>
         <v>0.0248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="19" t="n">
+      <c r="A6" s="20"/>
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17" t="n">
         <f aca="false">(0.429+0.4242+0.4323)/3</f>
         <v>0.4285</v>
       </c>
-      <c r="D6" s="29" t="n">
+      <c r="D6" s="27" t="n">
         <f aca="false">(0.4515+0.4418+0.4561)/3</f>
         <v>0.4498</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="17" t="n">
         <f aca="false">(0.1169+0.1121+0.1149)/3</f>
         <v>0.114633333333333</v>
       </c>
-      <c r="F6" s="18" t="n">
+      <c r="F6" s="16" t="n">
         <f aca="false">(0.5249+0.5418+0.5522)/3</f>
         <v>0.539633333333333</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="27" t="n">
         <f aca="false">(0.5438+0.5666+0.5428)/3</f>
         <v>0.551066666666667</v>
       </c>
-      <c r="H6" s="20" t="n">
+      <c r="H6" s="18" t="n">
         <f aca="false">(0.1146+0.1146+0.115)/3</f>
         <v>0.114733333333333</v>
       </c>
-      <c r="I6" s="21" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="n">
+      <c r="I6" s="16" t="n">
+        <f aca="false">(0.6052+0.6316)/2</f>
+        <v>0.6184</v>
+      </c>
+      <c r="J6" s="27" t="n">
+        <f aca="false">(0.6067+0.629)/2</f>
+        <v>0.61785</v>
+      </c>
+      <c r="K6" s="18" t="n">
         <f aca="false">(0.1011+0.1012)/2</f>
         <v>0.10115</v>
       </c>
-      <c r="L6" s="21" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="20" t="n">
+      <c r="L6" s="16" t="n">
+        <f aca="false">(0.6182+0.6173)/2</f>
+        <v>0.61775</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <f aca="false">(0.6306+0.6182)/2</f>
+        <v>0.6244</v>
+      </c>
+      <c r="N6" s="18" t="n">
         <f aca="false">(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>16</v>
+      <c r="A7" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11" t="n">
         <f aca="false">(0.4325+0.4169+0.4658)/3</f>
         <v>0.4384</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <f aca="false">(0.4204+0.448+0.4105)/3</f>
         <v>0.4263</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="25" t="n">
         <f aca="false">(0.4323+0.3849+0.3826)/3</f>
         <v>0.399933333333333</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="23" t="n">
         <f aca="false">(0.4254+0.4457+0.4062)/3</f>
         <v>0.425766666666667</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="29" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="31" t="n">
+      <c r="I7" s="25" t="n">
         <f aca="false">(0.3599+0.3914)/2</f>
         <v>0.37565</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="23" t="n">
         <f aca="false">(0.3398+0.3561)/2</f>
         <v>0.34795</v>
       </c>
-      <c r="K7" s="32" t="n">
+      <c r="K7" s="29" t="n">
         <f aca="false">(0.0309+0.031)/3</f>
         <v>0.0206333333333333</v>
       </c>
-      <c r="L7" s="31" t="n">
+      <c r="L7" s="25" t="n">
         <f aca="false">(0.3481+0.3196)/2</f>
         <v>0.33385</v>
       </c>
-      <c r="M7" s="33" t="n">
-        <f aca="false">(0.3744)/2</f>
-        <v>0.1872</v>
-      </c>
-      <c r="N7" s="32" t="n">
+      <c r="M7" s="23" t="n">
+        <f aca="false">(0.3744+0.3257)/2</f>
+        <v>0.35005</v>
+      </c>
+      <c r="N7" s="29" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18" t="n">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="n">
         <f aca="false">(0.2376+0.2338+0.235)/3</f>
         <v>0.235466666666667</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="17" t="n">
         <f aca="false">(0.2633+0.2577+0.2631)/3</f>
         <v>0.261366666666667</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="18" t="n">
         <f aca="false">(0.1143+0.1132+0.1152)/3</f>
         <v>0.114233333333333</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="16" t="n">
         <f aca="false">(0.265+0.2708+0.2727)/3</f>
         <v>0.2695</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="17" t="n">
         <f aca="false">(0.2735+0.2645+0.2689)/3</f>
         <v>0.268966666666667</v>
       </c>
-      <c r="H8" s="20" t="n">
+      <c r="H8" s="18" t="n">
         <f aca="false">(0.1134+0.1143+0.1151)/3</f>
         <v>0.114266666666667</v>
       </c>
-      <c r="I8" s="18" t="n">
+      <c r="I8" s="16" t="n">
         <f aca="false">(0.232+0.2333)/2</f>
         <v>0.23265</v>
       </c>
-      <c r="J8" s="19" t="n">
+      <c r="J8" s="17" t="n">
         <f aca="false">(0.2377+0.2336)/2</f>
         <v>0.23565</v>
       </c>
-      <c r="K8" s="20" t="n">
+      <c r="K8" s="18" t="n">
         <f aca="false">(0.1066+0.1064)/3</f>
         <v>0.071</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="16" t="n">
         <f aca="false">(0.2254+0.2285)/2</f>
         <v>0.22695</v>
       </c>
-      <c r="M8" s="22" t="n">
-        <f aca="false">(0.2164)/2</f>
-        <v>0.1082</v>
-      </c>
-      <c r="N8" s="20" t="n">
+      <c r="M8" s="17" t="n">
+        <f aca="false">(0.2164+0.292)/2</f>
+        <v>0.2542</v>
+      </c>
+      <c r="N8" s="18" t="n">
         <f aca="false">(0.099+0.0987)/2</f>
         <v>0.09885</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="31" t="n">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="25" t="n">
         <f aca="false">(0.3587+0.3632+0.3573)/3</f>
         <v>0.359733333333333</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="23" t="n">
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="32" t="n">
+      <c r="E9" s="29" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="25" t="n">
         <f aca="false">(0.4789+0.4773+0.4784)/3</f>
         <v>0.4782</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="23" t="n">
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="32" t="n">
+      <c r="H9" s="29" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="35" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="33" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="32" t="n">
+      <c r="I9" s="25" t="n">
+        <f aca="false">(0.5451+0.5452)/2</f>
+        <v>0.54515</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <f aca="false">(0.5451+0.5456)/2</f>
+        <v>0.54535</v>
+      </c>
+      <c r="K9" s="29" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="35" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="33" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="32" t="n">
+      <c r="L9" s="25" t="n">
+        <f aca="false">(0.5542+0.5538)/2</f>
+        <v>0.554</v>
+      </c>
+      <c r="M9" s="23" t="n">
+        <f aca="false">(0.5545+0.5546)/2</f>
+        <v>0.55455</v>
+      </c>
+      <c r="N9" s="29" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="18" t="n">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16" t="n">
         <f aca="false">(0.2334+0.2216+0.2369)/3</f>
         <v>0.230633333333333</v>
       </c>
-      <c r="D10" s="19" t="n">
+      <c r="D10" s="17" t="n">
         <f aca="false">(0.2643+0.2638+0.2651)/3</f>
         <v>0.2644</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="18" t="n">
         <f aca="false">(0.1026+0.1017+0.1048)/3</f>
         <v>0.103033333333333</v>
       </c>
-      <c r="F10" s="18" t="n">
+      <c r="F10" s="16" t="n">
         <f aca="false">(0.3778+0.3786+0.3819)/3</f>
         <v>0.379433333333333</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="17" t="n">
         <f aca="false">(0.3804+0.3778+0.3795)/3</f>
         <v>0.379233333333333</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="18" t="n">
         <f aca="false">(0.1071+0.1084+0.1071)/3</f>
         <v>0.107533333333333</v>
       </c>
-      <c r="I10" s="21" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="20" t="n">
+      <c r="I10" s="16" t="n">
+        <f aca="false">(0.4336+0.4341)/2</f>
+        <v>0.43385</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <f aca="false">(0.4346+0.4346)/2</f>
+        <v>0.4346</v>
+      </c>
+      <c r="K10" s="18" t="n">
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="21" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="22" t="n">
-        <f aca="false">(0)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="20" t="n">
+      <c r="L10" s="16" t="n">
+        <f aca="false">(0.4355+0.4357)/2</f>
+        <v>0.4356</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <f aca="false">(0.4357+0.4357)/2</f>
+        <v>0.4357</v>
+      </c>
+      <c r="N10" s="18" t="n">
         <f aca="false">(0.0952+0.0952)/2</f>
         <v>0.0952</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="O13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="O16" s="38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36"/>
+      <c r="B17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40" t="s">
+      <c r="O17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="O16" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36"/>
+      <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="0" t="s">
+      <c r="O18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="0" t="s">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36"/>
+      <c r="B21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="42" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="40" t="s">
+      <c r="B22" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B25" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36"/>
+      <c r="B26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="42" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40" t="s">
+      <c r="B27" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="H27" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="39" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="H28" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="O3:Q4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -1652,7 +1618,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.45"/>
@@ -1685,464 +1651,464 @@
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="39" t="n">
         <f aca="false">(0.3606+0.3668+0.3843)/3</f>
         <v>0.370566666666667</v>
       </c>
-      <c r="D3" s="45" t="n">
+      <c r="D3" s="40" t="n">
         <f aca="false">(0.3432+0.331+0.3215)/3</f>
         <v>0.3319</v>
       </c>
-      <c r="E3" s="45" t="n">
+      <c r="E3" s="40" t="n">
         <f aca="false">(0.0224+0.0224+0.0237)/3</f>
         <v>0.0228333333333333</v>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F3" s="39" t="n">
         <f aca="false">(0.5904+0.6326+0.6324)/3</f>
         <v>0.618466666666667</v>
       </c>
-      <c r="G3" s="45" t="n">
+      <c r="G3" s="40" t="n">
         <f aca="false">(0.3918+0.4014+0.3884)/3</f>
         <v>0.393866666666667</v>
       </c>
-      <c r="H3" s="46" t="n">
+      <c r="H3" s="41" t="n">
         <f aca="false">(0.0194+0.0194+0.0191)/3</f>
         <v>0.0193</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="39" t="n">
         <f aca="false">(0.7877+0.7969)/2</f>
         <v>0.7923</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46" t="n">
+      <c r="J3" s="40"/>
+      <c r="K3" s="41" t="n">
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="47" t="n">
+      <c r="L3" s="42" t="n">
         <v>0.7585</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46" t="n">
+      <c r="M3" s="40"/>
+      <c r="N3" s="41" t="n">
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="49" t="n">
+      <c r="B4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="44" t="n">
         <f aca="false">(0.2272+0.2116+0.22)/3</f>
         <v>0.2196</v>
       </c>
-      <c r="D4" s="50" t="n">
+      <c r="D4" s="45" t="n">
         <f aca="false">(0.8626+0.8314+0.8503)/3</f>
         <v>0.8481</v>
       </c>
-      <c r="E4" s="50" t="n">
+      <c r="E4" s="45" t="n">
         <f aca="false">(0.1181+0.1143+0.1121)/3</f>
         <v>0.114833333333333</v>
       </c>
-      <c r="F4" s="49" t="n">
+      <c r="F4" s="44" t="n">
         <f aca="false">(0.3011+0.3014+0.3215)/3</f>
         <v>0.308</v>
       </c>
-      <c r="G4" s="50" t="n">
+      <c r="G4" s="45" t="n">
         <f aca="false">(0.9691+0.9503+0.9682)/3</f>
         <v>0.962533333333333</v>
       </c>
-      <c r="H4" s="51" t="n">
+      <c r="H4" s="46" t="n">
         <f aca="false">(0.1134+0.1125+0.1133)/3</f>
         <v>0.113066666666667</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="44" t="n">
         <f aca="false">(0.3189+0.3365)/2</f>
         <v>0.3277</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51" t="n">
+      <c r="J4" s="45"/>
+      <c r="K4" s="46" t="n">
         <f aca="false">(0.1034+0.1005)/2</f>
         <v>0.10195</v>
       </c>
-      <c r="L4" s="50" t="n">
+      <c r="L4" s="45" t="n">
         <f aca="false">(0.3255+0.3285)/2</f>
         <v>0.327</v>
       </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="51" t="n">
+      <c r="M4" s="45"/>
+      <c r="N4" s="46" t="n">
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="45" t="n">
+      <c r="A5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="40" t="n">
         <f aca="false">(0.5514+0.5606+0.5368)/3</f>
         <v>0.5496</v>
       </c>
-      <c r="D5" s="45" t="n">
+      <c r="D5" s="40" t="n">
         <f aca="false">(0.4411+0.4414+0.4382)/3</f>
         <v>0.440233333333333</v>
       </c>
-      <c r="E5" s="45" t="n">
+      <c r="E5" s="40" t="n">
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="39" t="n">
         <f aca="false">(0.6699+0.6706+0.6927)/3</f>
         <v>0.677733333333333</v>
       </c>
-      <c r="G5" s="45" t="n">
+      <c r="G5" s="40" t="n">
         <f aca="false">(0.4393+0.4335+0.4325)/3</f>
         <v>0.4351</v>
       </c>
-      <c r="H5" s="46" t="n">
+      <c r="H5" s="41" t="n">
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
-      <c r="I5" s="44" t="n">
+      <c r="I5" s="39" t="n">
         <f aca="false">(0.8098+0.8098)/2</f>
         <v>0.8098</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46" t="n">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41" t="n">
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="44" t="n">
+      <c r="L5" s="39" t="n">
         <f aca="false">(0.7684+0.755)/2</f>
         <v>0.7617</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="46" t="n">
+      <c r="M5" s="40"/>
+      <c r="N5" s="41" t="n">
         <f aca="false">(0.0252+0.0244)/2</f>
         <v>0.0248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="50" t="n">
+      <c r="A6" s="28"/>
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="45" t="n">
         <f aca="false">(0.4186+0.4008+0.4108)/3</f>
         <v>0.410066666666667</v>
       </c>
-      <c r="D6" s="50" t="n">
+      <c r="D6" s="45" t="n">
         <f aca="false">(0.8625+0.8393+0.8551)/3</f>
         <v>0.8523</v>
       </c>
-      <c r="E6" s="50" t="n">
+      <c r="E6" s="45" t="n">
         <f aca="false">(0.1169+0.1121+0.1149)/3</f>
         <v>0.114633333333333</v>
       </c>
-      <c r="F6" s="49" t="n">
+      <c r="F6" s="44" t="n">
         <f aca="false">(0.5177+0.5266+0.5236)/3</f>
         <v>0.522633333333333</v>
       </c>
-      <c r="G6" s="50" t="n">
+      <c r="G6" s="45" t="n">
         <f aca="false">(0.9399+0.9168+0.9156)/3</f>
         <v>0.9241</v>
       </c>
-      <c r="H6" s="51" t="n">
+      <c r="H6" s="46" t="n">
         <f aca="false">(0.1146+0.1146+0.115)/3</f>
         <v>0.114733333333333</v>
       </c>
-      <c r="I6" s="49" t="n">
+      <c r="I6" s="44" t="n">
         <f aca="false">(0.5984+0.5822)/2</f>
         <v>0.5903</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51" t="n">
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="n">
         <f aca="false">(0.1011+0.1012)/2</f>
         <v>0.10115</v>
       </c>
-      <c r="L6" s="49" t="n">
+      <c r="L6" s="44" t="n">
         <f aca="false">(0.6002+0.6068)/2</f>
         <v>0.6035</v>
       </c>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51" t="n">
+      <c r="M6" s="45"/>
+      <c r="N6" s="46" t="n">
         <f aca="false">(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>16</v>
+      <c r="A7" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="39" t="n">
         <f aca="false">(0.3225+0.3037)/2</f>
         <v>0.3131</v>
       </c>
-      <c r="D7" s="45" t="n">
+      <c r="D7" s="40" t="n">
         <f aca="false">(0.2421+0.2415+0.2214)/3</f>
         <v>0.235</v>
       </c>
-      <c r="E7" s="46" t="n">
+      <c r="E7" s="41" t="n">
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="47" t="n">
         <f aca="false">(0.3343+0.3376+0.3375)/3</f>
         <v>0.336466666666667</v>
       </c>
-      <c r="G7" s="53" t="n">
+      <c r="G7" s="48" t="n">
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="H7" s="49" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="52" t="n">
+      <c r="I7" s="47" t="n">
         <f aca="false">(0.3418+0.3334+0.3179)/3</f>
         <v>0.331033333333333</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54" t="n">
+      <c r="J7" s="48"/>
+      <c r="K7" s="49" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
-      <c r="L7" s="52" t="n">
+      <c r="L7" s="47" t="n">
         <f aca="false">(0.2997+0.3176+0.3301)/3</f>
         <v>0.3158</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54" t="n">
+      <c r="M7" s="48"/>
+      <c r="N7" s="49" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30"/>
-      <c r="B8" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="49" t="n">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="44" t="n">
         <f aca="false">(0.1988+0.1939+0.2009)/3</f>
         <v>0.197866666666667</v>
       </c>
-      <c r="D8" s="50" t="n">
+      <c r="D8" s="45" t="n">
         <f aca="false">(0.4076+0.4322+0.4131)/3</f>
         <v>0.417633333333333</v>
       </c>
-      <c r="E8" s="51" t="n">
+      <c r="E8" s="46" t="n">
         <f aca="false">(0.1143+0.1132+0.1152)/3</f>
         <v>0.114233333333333</v>
       </c>
-      <c r="F8" s="49" t="n">
+      <c r="F8" s="44" t="n">
         <f aca="false">(0.1904+0.192+0.1935)/3</f>
         <v>0.191966666666667</v>
       </c>
-      <c r="G8" s="50" t="n">
+      <c r="G8" s="45" t="n">
         <f aca="false">(0.3899+0.4101+0.4039)/3</f>
         <v>0.4013</v>
       </c>
-      <c r="H8" s="51" t="n">
+      <c r="H8" s="46" t="n">
         <f aca="false">(0.1134+0.1143+0.1151)/3</f>
         <v>0.114266666666667</v>
       </c>
-      <c r="I8" s="49" t="n">
+      <c r="I8" s="44" t="n">
         <f aca="false">(0.1659+0.1608+0.1658)/3</f>
         <v>0.164166666666667</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51" t="n">
+      <c r="J8" s="45"/>
+      <c r="K8" s="46" t="n">
         <f aca="false">(0.1062+0.1066+0.1064)/3</f>
         <v>0.1064</v>
       </c>
-      <c r="L8" s="49" t="n">
+      <c r="L8" s="44" t="n">
         <f aca="false">(0.1647+0.164)/2</f>
         <v>0.16435</v>
       </c>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51" t="n">
+      <c r="M8" s="45"/>
+      <c r="N8" s="46" t="n">
         <f aca="false">(0.099+0.0987)/2</f>
         <v>0.09885</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="52" t="n">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="47" t="n">
         <f aca="false">(0.1062+0.1091+0.1051)/3</f>
         <v>0.1068</v>
       </c>
-      <c r="D9" s="53" t="n">
+      <c r="D9" s="48" t="n">
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="54" t="n">
+      <c r="E9" s="49" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="52" t="n">
+      <c r="F9" s="47" t="n">
         <f aca="false">(0.1277+0.1276+0.1272)/3</f>
         <v>0.1275</v>
       </c>
-      <c r="G9" s="53" t="n">
+      <c r="G9" s="48" t="n">
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="54" t="n">
+      <c r="H9" s="49" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="52" t="n">
+      <c r="I9" s="47" t="n">
         <f aca="false">(0.1408)/1</f>
         <v>0.1408</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54" t="n">
+      <c r="J9" s="48"/>
+      <c r="K9" s="49" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="55" t="n">
+      <c r="L9" s="50" t="n">
         <v>0.1255</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="56" t="n">
+      <c r="M9" s="48"/>
+      <c r="N9" s="51" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="49" t="n">
+      <c r="A10" s="28"/>
+      <c r="B10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="44" t="n">
         <f aca="false">(0.1401+0.1378+0.1374)/3</f>
         <v>0.138433333333333</v>
       </c>
-      <c r="D10" s="50" t="n">
+      <c r="D10" s="45" t="n">
         <f aca="false">(0.2803+0.2808+0.2771)/3</f>
         <v>0.2794</v>
       </c>
-      <c r="E10" s="51" t="n">
+      <c r="E10" s="46" t="n">
         <f aca="false">(0.1026+0.1017+0.1048)/3</f>
         <v>0.103033333333333</v>
       </c>
-      <c r="F10" s="49" t="n">
+      <c r="F10" s="44" t="n">
         <f aca="false">(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="G10" s="50" t="n">
+      <c r="G10" s="45" t="n">
         <f aca="false">(0.3699+0.3739+0.3682)/3</f>
         <v>0.370666666666667</v>
       </c>
-      <c r="H10" s="51" t="n">
+      <c r="H10" s="46" t="n">
         <f aca="false">(0.1071+0.1084+0.1071)/3</f>
         <v>0.107533333333333</v>
       </c>
-      <c r="I10" s="49" t="n">
+      <c r="I10" s="44" t="n">
         <f aca="false">(0.1756)/1</f>
         <v>0.1756</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51" t="n">
+      <c r="J10" s="45"/>
+      <c r="K10" s="46" t="n">
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="57" t="n">
+      <c r="L10" s="52" t="n">
         <v>0.1578</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="58" t="n">
+      <c r="M10" s="45"/>
+      <c r="N10" s="53" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,15 +2121,15 @@
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
-        <v>19</v>
+      <c r="A12" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>79</v>
@@ -2174,154 +2140,154 @@
       <c r="H12" s="0" t="n">
         <v>10.8</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="40"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41"/>
-      <c r="B16" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="O16" s="43" t="s">
-        <v>22</v>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="O16" s="38" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="43" t="s">
-        <v>22</v>
+      <c r="O17" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36"/>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41"/>
-      <c r="B18" s="0" t="s">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="B20" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36"/>
+      <c r="B21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="42" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="40" t="s">
+      <c r="B22" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41" t="s">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B23" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B25" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36"/>
+      <c r="B26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="42" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40" t="s">
+      <c r="B27" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
+      <c r="H27" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="39" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41" t="s">
+      <c r="H28" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B30" s="34" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2325,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
   </cols>
@@ -2379,19 +2345,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="53" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.246372705070837</v>
       </c>
-      <c r="H2" s="53" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.299719963743936</v>
       </c>
-      <c r="N2" s="53" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0522741810074534</v>
       </c>
-      <c r="T2" s="53" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0539992181013351</v>
       </c>
@@ -15131,7 +15097,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -15148,23 +15114,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="53" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.327147963466075</v>
       </c>
-      <c r="H2" s="53" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.319366602303163</v>
       </c>
-      <c r="N2" s="53" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.104029611169128</v>
       </c>
-      <c r="T2" s="53" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0365467584821904</v>
       </c>
-      <c r="U2" s="53"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -27880,7 +27846,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -27897,23 +27863,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="53" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.353749402826351</v>
       </c>
-      <c r="H2" s="53" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.279436534237502</v>
       </c>
-      <c r="N2" s="53" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.100521589720816</v>
       </c>
-      <c r="T2" s="53" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0494590627578899</v>
       </c>
-      <c r="U2" s="53"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -40629,7 +40595,7 @@
       <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -40650,7 +40616,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="53" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.351121061743667</v>
       </c>
@@ -40658,7 +40624,7 @@
         <f aca="false">COUNTIF(B4:B103,"=0")</f>
         <v>23</v>
       </c>
-      <c r="H2" s="53" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.278690339903548</v>
       </c>
@@ -40666,15 +40632,15 @@
         <f aca="false">COUNTIF(H4:H103,"=0")</f>
         <v>10</v>
       </c>
-      <c r="N2" s="53" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0802869852466762</v>
       </c>
-      <c r="T2" s="53" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0566054178796812</v>
       </c>
-      <c r="U2" s="53"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t xml:space="preserve">Stage 1a</t>
   </si>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">CNN</t>
   </si>
   <si>
-    <t xml:space="preserve">RDF</t>
+    <t xml:space="preserve">RFC</t>
   </si>
   <si>
     <t xml:space="preserve">KNN</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigate classification methods: MLP, CNN, RF, KNN</t>
+    <t xml:space="preserve">Investigate classification methods: MLP, CNN, RFC, KNN</t>
   </si>
   <si>
     <t xml:space="preserve">What's the likelihood one can see a transaction and pick the customer or postcode?</t>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t xml:space="preserve">Worst case is all customers on one ledger with new PK per transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF</t>
   </si>
   <si>
     <t xml:space="preserve">Investigate classification methods: MLP, RF, KNN</t>
@@ -438,7 +441,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,31 +451,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
-        <bgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF92D050"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
     <fill>
@@ -588,7 +585,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -625,7 +622,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,10 +631,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,11 +662,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -689,10 +686,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,8 +694,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -741,8 +734,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -757,7 +754,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,6 +774,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,19 +790,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,7 +831,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -850,7 +851,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -884,8 +885,8 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,126 +979,126 @@
         <v>11</v>
       </c>
       <c r="C3" s="11" t="n">
-        <f aca="false">(0.4804+0.4479+0.4332)/3</f>
-        <v>0.453833333333333</v>
+        <f aca="false">(0.4604+0.4579+0.4532)/3</f>
+        <v>0.457166666666667</v>
       </c>
       <c r="D3" s="12" t="n">
-        <f aca="false">(0.4581+0.4505+0.4579)/3</f>
-        <v>0.4555</v>
-      </c>
-      <c r="E3" s="13" t="n">
+        <f aca="false">(0.4781+0.4705+0.4879)/3</f>
+        <v>0.478833333333333</v>
+      </c>
+      <c r="E3" s="12" t="n">
         <f aca="false">(0.0224+0.0224+0.0237)/3</f>
         <v>0.0228333333333333</v>
       </c>
       <c r="F3" s="11" t="n">
-        <f aca="false">(0.7251+0.649+0.6612)/3</f>
-        <v>0.678433333333333</v>
+        <f aca="false">(0.6451+0.649+0.6312)/3</f>
+        <v>0.641766666666667</v>
       </c>
       <c r="G3" s="12" t="n">
-        <f aca="false">(0.5581+0.6302+0.6051)/3</f>
-        <v>0.5978</v>
-      </c>
-      <c r="H3" s="14" t="n">
+        <f aca="false">(0.6481+0.6702+0.6651)/3</f>
+        <v>0.661133333333333</v>
+      </c>
+      <c r="H3" s="13" t="n">
         <f aca="false">(0.0194+0.0194+0.0191)/3</f>
         <v>0.0193</v>
       </c>
       <c r="I3" s="11" t="n">
-        <f aca="false">(0.7046+0.7305)/2</f>
-        <v>0.71755</v>
+        <f aca="false">(0.7546+0.7505)/2</f>
+        <v>0.75255</v>
       </c>
       <c r="J3" s="12" t="n">
-        <f aca="false">(0.8658+0.6147)/2</f>
-        <v>0.74025</v>
-      </c>
-      <c r="K3" s="14" t="n">
-        <f aca="false">(0.0181+0.0175)/2</f>
-        <v>0.0178</v>
+        <f aca="false">(0.7658+0.7747)/2</f>
+        <v>0.77025</v>
+      </c>
+      <c r="K3" s="13" t="n">
+        <f aca="false">(0.0181+0.0185)/2</f>
+        <v>0.0183</v>
       </c>
       <c r="L3" s="11" t="n">
-        <f aca="false">(0.8586+0.8659)/2</f>
-        <v>0.86225</v>
+        <f aca="false">(0.7386+0.7359)/2</f>
+        <v>0.73725</v>
       </c>
       <c r="M3" s="12" t="n">
-        <f aca="false">(0.7814+0.8305)/2</f>
-        <v>0.80595</v>
-      </c>
-      <c r="N3" s="14" t="n">
-        <f aca="false">(0.0195+0.0186)/2</f>
-        <v>0.01905</v>
+        <f aca="false">(0.7614+0.7605)/2</f>
+        <v>0.76095</v>
+      </c>
+      <c r="N3" s="13" t="n">
+        <f aca="false">(0.0185+0.0186)/2</f>
+        <v>0.01855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <f aca="false">(0.2311+0.2235+0.231)/3</f>
-        <v>0.228533333333333</v>
-      </c>
-      <c r="D4" s="17" t="n">
+      <c r="C4" s="15" t="n">
+        <f aca="false">(0.2211+0.2235+0.231)/3</f>
+        <v>0.2252</v>
+      </c>
+      <c r="D4" s="16" t="n">
         <f aca="false">(0.2656+0.2412+0.2432)/3</f>
         <v>0.25</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="16" t="n">
         <f aca="false">(0.1181+0.1143+0.1121)/3</f>
         <v>0.114833333333333</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <f aca="false">(0.3197+0.3895+0.3044)/3</f>
-        <v>0.337866666666667</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="F4" s="15" t="n">
+        <f aca="false">(0.3197+0.3195+0.3044)/3</f>
+        <v>0.314533333333333</v>
+      </c>
+      <c r="G4" s="16" t="n">
         <f aca="false">(0.3627+0.311+0.3503)/3</f>
         <v>0.341333333333333</v>
       </c>
-      <c r="H4" s="18" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">(0.1134+0.1125+0.1133)/3</f>
         <v>0.113066666666667</v>
       </c>
-      <c r="I4" s="16" t="n">
-        <f aca="false">(0.4742+0.4024)/2</f>
-        <v>0.4383</v>
-      </c>
-      <c r="J4" s="17" t="n">
-        <f aca="false">(0.3341+0.2801)/2</f>
-        <v>0.3071</v>
-      </c>
-      <c r="K4" s="18" t="n">
+      <c r="I4" s="15" t="n">
+        <f aca="false">(0.4042+0.4024)/2</f>
+        <v>0.4033</v>
+      </c>
+      <c r="J4" s="16" t="n">
+        <f aca="false">(0.4341+0.4301)/2</f>
+        <v>0.4321</v>
+      </c>
+      <c r="K4" s="17" t="n">
         <f aca="false">(0.1034+0.1005)/2</f>
         <v>0.10195</v>
       </c>
-      <c r="L4" s="16" t="n">
-        <f aca="false">(0.3692+0.4044)/2</f>
-        <v>0.3868</v>
-      </c>
-      <c r="M4" s="17" t="n">
-        <f aca="false">(0.3057+0.3882)/2</f>
-        <v>0.34695</v>
-      </c>
-      <c r="N4" s="18" t="n">
+      <c r="L4" s="15" t="n">
+        <f aca="false">(0.3692+0.3644)/2</f>
+        <v>0.3668</v>
+      </c>
+      <c r="M4" s="16" t="n">
+        <f aca="false">(0.3857+0.3882)/2</f>
+        <v>0.38695</v>
+      </c>
+      <c r="N4" s="17" t="n">
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="21" t="n">
         <f aca="false">(0.5701+0.5895+0.5812)/3</f>
         <v>0.580266666666667</v>
       </c>
-      <c r="D5" s="13" t="n">
-        <f aca="false">(0.5804+0.5966+0.5493)/3</f>
-        <v>0.575433333333333</v>
-      </c>
-      <c r="E5" s="13" t="n">
+      <c r="D5" s="12" t="n">
+        <f aca="false">(0.5804+0.5966+0.5993)/3</f>
+        <v>0.5921</v>
+      </c>
+      <c r="E5" s="12" t="n">
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
@@ -1106,10 +1107,10 @@
         <v>0.6991</v>
       </c>
       <c r="G5" s="23" t="n">
-        <f aca="false">(0.7+0.7115+0.7099)/3</f>
-        <v>0.707133333333333</v>
-      </c>
-      <c r="H5" s="14" t="n">
+        <f aca="false">(0.71+0.7115+0.7099)/3</f>
+        <v>0.710466666666667</v>
+      </c>
+      <c r="H5" s="13" t="n">
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
@@ -1118,82 +1119,82 @@
         <v>0.78915</v>
       </c>
       <c r="J5" s="23" t="n">
-        <f aca="false">(0.7934+0.7845)/2</f>
-        <v>0.78895</v>
-      </c>
-      <c r="K5" s="14" t="n">
+        <f aca="false">(0.7934+0.7945)/2</f>
+        <v>0.79395</v>
+      </c>
+      <c r="K5" s="13" t="n">
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="25" t="n">
-        <f aca="false">(0.7906+0.7889)/2</f>
-        <v>0.78975</v>
+      <c r="L5" s="24" t="n">
+        <f aca="false">(0.8406+0.8389)/2</f>
+        <v>0.83975</v>
       </c>
       <c r="M5" s="23" t="n">
-        <f aca="false">(0.8045+0.7897)/2</f>
-        <v>0.7971</v>
-      </c>
-      <c r="N5" s="14" t="n">
+        <f aca="false">(0.8445+0.8597)/2</f>
+        <v>0.8521</v>
+      </c>
+      <c r="N5" s="13" t="n">
         <f aca="false">(0.0252+0.0244)/2</f>
         <v>0.0248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <f aca="false">(0.429+0.4242+0.4323)/3</f>
         <v>0.4285</v>
       </c>
-      <c r="D6" s="27" t="n">
-        <f aca="false">(0.4515+0.4418+0.4561)/3</f>
-        <v>0.4498</v>
-      </c>
-      <c r="E6" s="17" t="n">
+      <c r="D6" s="26" t="n">
+        <f aca="false">(0.4515+0.4618+0.4561)/3</f>
+        <v>0.456466666666667</v>
+      </c>
+      <c r="E6" s="16" t="n">
         <f aca="false">(0.1169+0.1121+0.1149)/3</f>
         <v>0.114633333333333</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">(0.5249+0.5418+0.5522)/3</f>
         <v>0.539633333333333</v>
       </c>
-      <c r="G6" s="27" t="n">
-        <f aca="false">(0.5438+0.5666+0.5428)/3</f>
-        <v>0.551066666666667</v>
-      </c>
-      <c r="H6" s="18" t="n">
+      <c r="G6" s="26" t="n">
+        <f aca="false">(0.5538+0.5666+0.5528)/3</f>
+        <v>0.557733333333333</v>
+      </c>
+      <c r="H6" s="17" t="n">
         <f aca="false">(0.1146+0.1146+0.115)/3</f>
         <v>0.114733333333333</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="15" t="n">
         <f aca="false">(0.6052+0.6316)/2</f>
         <v>0.6184</v>
       </c>
-      <c r="J6" s="27" t="n">
-        <f aca="false">(0.6067+0.629)/2</f>
-        <v>0.61785</v>
-      </c>
-      <c r="K6" s="18" t="n">
+      <c r="J6" s="26" t="n">
+        <f aca="false">(0.6267+0.629)/2</f>
+        <v>0.62785</v>
+      </c>
+      <c r="K6" s="17" t="n">
         <f aca="false">(0.1011+0.1012)/2</f>
         <v>0.10115</v>
       </c>
-      <c r="L6" s="16" t="n">
+      <c r="L6" s="15" t="n">
         <f aca="false">(0.6182+0.6173)/2</f>
         <v>0.61775</v>
       </c>
-      <c r="M6" s="17" t="n">
-        <f aca="false">(0.6306+0.6182)/2</f>
-        <v>0.6244</v>
-      </c>
-      <c r="N6" s="18" t="n">
+      <c r="M6" s="26" t="n">
+        <f aca="false">(0.6306+0.6382)/2</f>
+        <v>0.6344</v>
+      </c>
+      <c r="N6" s="17" t="n">
         <f aca="false">(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1203,15 +1204,15 @@
         <f aca="false">(0.4325+0.4169+0.4658)/3</f>
         <v>0.4384</v>
       </c>
-      <c r="D7" s="13" t="n">
-        <f aca="false">(0.4204+0.448+0.4105)/3</f>
-        <v>0.4263</v>
-      </c>
-      <c r="E7" s="14" t="n">
+      <c r="D7" s="12" t="n">
+        <f aca="false">(0.4404+0.448+0.4405)/3</f>
+        <v>0.442966666666667</v>
+      </c>
+      <c r="E7" s="13" t="n">
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="27" t="n">
         <f aca="false">(0.4323+0.3849+0.3826)/3</f>
         <v>0.399933333333333</v>
       </c>
@@ -1219,31 +1220,31 @@
         <f aca="false">(0.4254+0.4457+0.4062)/3</f>
         <v>0.425766666666667</v>
       </c>
-      <c r="H7" s="29" t="n">
+      <c r="H7" s="28" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="25" t="n">
-        <f aca="false">(0.3599+0.3914)/2</f>
-        <v>0.37565</v>
+      <c r="I7" s="27" t="n">
+        <f aca="false">(0.3599+0.3714)/2</f>
+        <v>0.36565</v>
       </c>
       <c r="J7" s="23" t="n">
-        <f aca="false">(0.3398+0.3561)/2</f>
-        <v>0.34795</v>
-      </c>
-      <c r="K7" s="29" t="n">
-        <f aca="false">(0.0309+0.031)/3</f>
-        <v>0.0206333333333333</v>
-      </c>
-      <c r="L7" s="25" t="n">
+        <f aca="false">(0.3698+0.3561)/2</f>
+        <v>0.36295</v>
+      </c>
+      <c r="K7" s="28" t="n">
+        <f aca="false">(0.0259+0.025)/2</f>
+        <v>0.02545</v>
+      </c>
+      <c r="L7" s="27" t="n">
         <f aca="false">(0.3481+0.3196)/2</f>
         <v>0.33385</v>
       </c>
       <c r="M7" s="23" t="n">
-        <f aca="false">(0.3744+0.3257)/2</f>
-        <v>0.35005</v>
-      </c>
-      <c r="N7" s="29" t="n">
+        <f aca="false">(0.3444+0.3257)/2</f>
+        <v>0.33505</v>
+      </c>
+      <c r="N7" s="28" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -1252,55 +1253,55 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="15" t="n">
         <f aca="false">(0.2376+0.2338+0.235)/3</f>
         <v>0.235466666666667</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="16" t="n">
         <f aca="false">(0.2633+0.2577+0.2631)/3</f>
         <v>0.261366666666667</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="17" t="n">
         <f aca="false">(0.1143+0.1132+0.1152)/3</f>
         <v>0.114233333333333</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="15" t="n">
         <f aca="false">(0.265+0.2708+0.2727)/3</f>
         <v>0.2695</v>
       </c>
-      <c r="G8" s="17" t="n">
-        <f aca="false">(0.2735+0.2645+0.2689)/3</f>
-        <v>0.268966666666667</v>
-      </c>
-      <c r="H8" s="18" t="n">
+      <c r="G8" s="16" t="n">
+        <f aca="false">(0.2735+0.2845+0.2889)/3</f>
+        <v>0.2823</v>
+      </c>
+      <c r="H8" s="17" t="n">
         <f aca="false">(0.1134+0.1143+0.1151)/3</f>
         <v>0.114266666666667</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="15" t="n">
         <f aca="false">(0.232+0.2333)/2</f>
         <v>0.23265</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="16" t="n">
         <f aca="false">(0.2377+0.2336)/2</f>
         <v>0.23565</v>
       </c>
-      <c r="K8" s="18" t="n">
-        <f aca="false">(0.1066+0.1064)/3</f>
-        <v>0.071</v>
-      </c>
-      <c r="L8" s="16" t="n">
+      <c r="K8" s="17" t="n">
+        <f aca="false">(0.1066+0.1064)/2</f>
+        <v>0.1065</v>
+      </c>
+      <c r="L8" s="15" t="n">
         <f aca="false">(0.2254+0.2285)/2</f>
         <v>0.22695</v>
       </c>
-      <c r="M8" s="17" t="n">
+      <c r="M8" s="16" t="n">
         <f aca="false">(0.2164+0.292)/2</f>
         <v>0.2542</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="17" t="n">
         <f aca="false">(0.099+0.0987)/2</f>
         <v>0.09885</v>
       </c>
@@ -1309,13 +1310,13 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="27" t="n">
         <f aca="false">(0.3587+0.3632+0.3573)/3</f>
         <v>0.359733333333333</v>
       </c>
@@ -1323,11 +1324,11 @@
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="28" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="27" t="n">
         <f aca="false">(0.4789+0.4773+0.4784)/3</f>
         <v>0.4782</v>
       </c>
@@ -1335,11 +1336,11 @@
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="29" t="n">
+      <c r="H9" s="28" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="25" t="n">
+      <c r="I9" s="27" t="n">
         <f aca="false">(0.5451+0.5452)/2</f>
         <v>0.54515</v>
       </c>
@@ -1347,19 +1348,19 @@
         <f aca="false">(0.5451+0.5456)/2</f>
         <v>0.54535</v>
       </c>
-      <c r="K9" s="29" t="n">
+      <c r="K9" s="28" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="25" t="n">
-        <f aca="false">(0.5542+0.5538)/2</f>
-        <v>0.554</v>
+      <c r="L9" s="27" t="n">
+        <f aca="false">(0.5042+0.508)/2</f>
+        <v>0.5061</v>
       </c>
       <c r="M9" s="23" t="n">
-        <f aca="false">(0.5545+0.5546)/2</f>
-        <v>0.55455</v>
-      </c>
-      <c r="N9" s="29" t="n">
+        <f aca="false">(0.5145+0.5146)/2</f>
+        <v>0.51455</v>
+      </c>
+      <c r="N9" s="28" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
       </c>
@@ -1368,55 +1369,55 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="15" t="n">
         <f aca="false">(0.2334+0.2216+0.2369)/3</f>
         <v>0.230633333333333</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="16" t="n">
         <f aca="false">(0.2643+0.2638+0.2651)/3</f>
         <v>0.2644</v>
       </c>
-      <c r="E10" s="18" t="n">
-        <f aca="false">(0.1026+0.1017+0.1048)/3</f>
-        <v>0.103033333333333</v>
-      </c>
-      <c r="F10" s="16" t="n">
+      <c r="E10" s="17" t="n">
+        <f aca="false">(0.1046+0.1047+0.1048)/3</f>
+        <v>0.1047</v>
+      </c>
+      <c r="F10" s="15" t="n">
         <f aca="false">(0.3778+0.3786+0.3819)/3</f>
         <v>0.379433333333333</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">(0.3804+0.3778+0.3795)/3</f>
         <v>0.379233333333333</v>
       </c>
-      <c r="H10" s="18" t="n">
-        <f aca="false">(0.1071+0.1084+0.1071)/3</f>
-        <v>0.107533333333333</v>
-      </c>
-      <c r="I10" s="16" t="n">
+      <c r="H10" s="17" t="n">
+        <f aca="false">(0.1071+0.1064+0.1071)/3</f>
+        <v>0.106866666666667</v>
+      </c>
+      <c r="I10" s="15" t="n">
         <f aca="false">(0.4336+0.4341)/2</f>
         <v>0.43385</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="16" t="n">
         <f aca="false">(0.4346+0.4346)/2</f>
         <v>0.4346</v>
       </c>
-      <c r="K10" s="18" t="n">
-        <f aca="false">(0.0925+0.0919)/2</f>
-        <v>0.0922</v>
-      </c>
-      <c r="L10" s="16" t="n">
-        <f aca="false">(0.4355+0.4357)/2</f>
-        <v>0.4356</v>
-      </c>
-      <c r="M10" s="17" t="n">
-        <f aca="false">(0.4357+0.4357)/2</f>
-        <v>0.4357</v>
-      </c>
-      <c r="N10" s="18" t="n">
+      <c r="K10" s="17" t="n">
+        <f aca="false">(0.0975+0.0979)/2</f>
+        <v>0.0977</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <f aca="false">(0.3855+0.3857)/2</f>
+        <v>0.3856</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <f aca="false">(0.3957+0.3957)/2</f>
+        <v>0.3957</v>
+      </c>
+      <c r="N10" s="17" t="n">
         <f aca="false">(0.0952+0.0952)/2</f>
         <v>0.0952</v>
       </c>
@@ -1425,63 +1426,63 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="O16" s="38" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="O16" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -1489,11 +1490,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -1501,21 +1502,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1523,7 +1524,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1531,27 +1532,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1559,10 +1560,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1570,18 +1571,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1614,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +1706,7 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1759,8 +1760,8 @@
       <c r="Q3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="44" t="n">
@@ -1810,10 +1811,10 @@
       <c r="Q4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="40" t="n">
@@ -1860,8 +1861,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="45" t="n">
@@ -1908,8 +1909,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="s">
-        <v>14</v>
+      <c r="A7" s="47" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -1926,33 +1927,33 @@
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="47" t="n">
+      <c r="F7" s="48" t="n">
         <f aca="false">(0.3343+0.3376+0.3375)/3</f>
         <v>0.336466666666667</v>
       </c>
-      <c r="G7" s="48" t="n">
+      <c r="G7" s="49" t="n">
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="49" t="n">
+      <c r="H7" s="50" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="47" t="n">
+      <c r="I7" s="48" t="n">
         <f aca="false">(0.3418+0.3334+0.3179)/3</f>
         <v>0.331033333333333</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49" t="n">
+      <c r="J7" s="49"/>
+      <c r="K7" s="50" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
-      <c r="L7" s="47" t="n">
+      <c r="L7" s="48" t="n">
         <f aca="false">(0.2997+0.3176+0.3301)/3</f>
         <v>0.3158</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49" t="n">
+      <c r="M7" s="49"/>
+      <c r="N7" s="50" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -1961,8 +1962,8 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="44" t="n">
@@ -2012,50 +2013,50 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="48" t="n">
         <f aca="false">(0.1062+0.1091+0.1051)/3</f>
         <v>0.1068</v>
       </c>
-      <c r="D9" s="48" t="n">
+      <c r="D9" s="49" t="n">
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="49" t="n">
+      <c r="E9" s="50" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="47" t="n">
+      <c r="F9" s="48" t="n">
         <f aca="false">(0.1277+0.1276+0.1272)/3</f>
         <v>0.1275</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="49" t="n">
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="49" t="n">
+      <c r="H9" s="50" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="47" t="n">
+      <c r="I9" s="48" t="n">
         <f aca="false">(0.1408)/1</f>
         <v>0.1408</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49" t="n">
+      <c r="J9" s="49"/>
+      <c r="K9" s="50" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="50" t="n">
+      <c r="L9" s="51" t="n">
         <v>0.1255</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="51" t="n">
+      <c r="M9" s="49"/>
+      <c r="N9" s="52" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -2063,8 +2064,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="44" t="n">
@@ -2100,11 +2101,11 @@
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="52" t="n">
+      <c r="L10" s="53" t="n">
         <v>0.1578</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="53" t="n">
+      <c r="N10" s="54" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
@@ -2121,14 +2122,14 @@
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -2140,53 +2141,53 @@
       <c r="H12" s="0" t="n">
         <v>10.8</v>
       </c>
-      <c r="L12" s="34"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="O16" s="38" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="O16" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -2194,11 +2195,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="37" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -2206,21 +2207,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="34" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2228,7 +2229,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2236,27 +2237,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -2264,10 +2265,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="33" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2275,18 +2276,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="33" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2332,84 +2333,84 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.246372705070837</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.299719963743936</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0522741810074534</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0539992181013351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,7 +8647,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -8670,7 +8671,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -8690,7 +8691,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -8720,7 +8721,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -8740,7 +8741,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -8770,7 +8771,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -15062,17 +15063,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -15101,85 +15102,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.327147963466075</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.319366602303163</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.104029611169128</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0365467584821904</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21416,7 +21417,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -21434,7 +21435,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -21454,7 +21455,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -21472,7 +21473,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -21492,7 +21493,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -21510,7 +21511,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -27802,26 +27803,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -27850,85 +27851,85 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.353749402826351</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.279436534237502</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.100521589720816</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0494590627578899</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34165,7 +34166,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -34183,7 +34184,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -34203,7 +34204,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -34221,7 +34222,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -34241,7 +34242,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -34259,7 +34260,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -40551,26 +40552,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -40599,24 +40600,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.351121061743667</v>
       </c>
@@ -40624,7 +40625,7 @@
         <f aca="false">COUNTIF(B4:B103,"=0")</f>
         <v>23</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.278690339903548</v>
       </c>
@@ -40632,64 +40633,64 @@
         <f aca="false">COUNTIF(H4:H103,"=0")</f>
         <v>10</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0802869852466762</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="49" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0566054178796812</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46926,7 +46927,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -46944,7 +46945,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -46964,7 +46965,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -46982,7 +46983,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -47002,7 +47003,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -47020,7 +47021,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -53312,26 +53313,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -585,7 +585,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -670,7 +670,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,10 +691,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,7 +882,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,53 +1196,53 @@
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <f aca="false">(0.4325+0.4169+0.4658)/3</f>
-        <v>0.4384</v>
+      <c r="C7" s="22" t="n">
+        <f aca="false">(0.6112+0.6304+0.6373)/3</f>
+        <v>0.6263</v>
       </c>
       <c r="D7" s="12" t="n">
-        <f aca="false">(0.4404+0.448+0.4405)/3</f>
-        <v>0.442966666666667</v>
+        <f aca="false">(0.6441+0.6473+0.653)/3</f>
+        <v>0.648133333333333</v>
       </c>
       <c r="E7" s="13" t="n">
-        <f aca="false">(0.0195+0.0203+0.02)/3</f>
-        <v>0.0199333333333333</v>
-      </c>
-      <c r="F7" s="27" t="n">
-        <f aca="false">(0.4323+0.3849+0.3826)/3</f>
-        <v>0.399933333333333</v>
+        <f aca="false">(0.0218+0.0203+0.0221)/3</f>
+        <v>0.0214</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <f aca="false">(0.6396+0.6221+0.6312)/3</f>
+        <v>0.630966666666667</v>
       </c>
       <c r="G7" s="23" t="n">
-        <f aca="false">(0.4254+0.4457+0.4062)/3</f>
-        <v>0.425766666666667</v>
-      </c>
-      <c r="H7" s="28" t="n">
-        <f aca="false">(0.0209+0.0207+0.0214)/3</f>
-        <v>0.021</v>
-      </c>
-      <c r="I7" s="27" t="n">
-        <f aca="false">(0.3599+0.3714)/2</f>
-        <v>0.36565</v>
+        <f aca="false">(0.6344+0.6545+0.6652)/3</f>
+        <v>0.651366666666667</v>
+      </c>
+      <c r="H7" s="27" t="n">
+        <f aca="false">(0.0264+0.0266+0.0259)/3</f>
+        <v>0.0263</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <f aca="false">(0.5581+0.5766)/2</f>
+        <v>0.56735</v>
       </c>
       <c r="J7" s="23" t="n">
-        <f aca="false">(0.3698+0.3561)/2</f>
-        <v>0.36295</v>
-      </c>
-      <c r="K7" s="28" t="n">
-        <f aca="false">(0.0259+0.025)/2</f>
+        <f aca="false">(0.5855+0.5623)/2</f>
+        <v>0.5739</v>
+      </c>
+      <c r="K7" s="27" t="n">
+        <f aca="false">(0.0254+0.0255)/2</f>
         <v>0.02545</v>
       </c>
-      <c r="L7" s="27" t="n">
-        <f aca="false">(0.3481+0.3196)/2</f>
-        <v>0.33385</v>
+      <c r="L7" s="21" t="n">
+        <f aca="false">(0.5497+0.5899)/2</f>
+        <v>0.5698</v>
       </c>
       <c r="M7" s="23" t="n">
-        <f aca="false">(0.3444+0.3257)/2</f>
-        <v>0.33505</v>
-      </c>
-      <c r="N7" s="28" t="n">
-        <f aca="false">(0.0209+0.0214)/2</f>
-        <v>0.02115</v>
+        <f aca="false">(0.5392+0.5216)/2</f>
+        <v>0.5304</v>
+      </c>
+      <c r="N7" s="27" t="n">
+        <f aca="false">(0.0269+0.0266)/2</f>
+        <v>0.02675</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -1254,56 +1250,56 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
-        <f aca="false">(0.2376+0.2338+0.235)/3</f>
-        <v>0.235466666666667</v>
+        <f aca="false">(0.3817+0.3833+0.3718)/3</f>
+        <v>0.378933333333333</v>
       </c>
       <c r="D8" s="16" t="n">
-        <f aca="false">(0.2633+0.2577+0.2631)/3</f>
-        <v>0.261366666666667</v>
+        <f aca="false">(0.407+0.4018+0.412)/3</f>
+        <v>0.406933333333333</v>
       </c>
       <c r="E8" s="17" t="n">
-        <f aca="false">(0.1143+0.1132+0.1152)/3</f>
-        <v>0.114233333333333</v>
+        <f aca="false">(0.1191+0.1188+0.1179)/3</f>
+        <v>0.1186</v>
       </c>
       <c r="F8" s="15" t="n">
-        <f aca="false">(0.265+0.2708+0.2727)/3</f>
-        <v>0.2695</v>
+        <f aca="false">(0.3664+0.3685+0.3734)/3</f>
+        <v>0.369433333333333</v>
       </c>
       <c r="G8" s="16" t="n">
-        <f aca="false">(0.2735+0.2845+0.2889)/3</f>
-        <v>0.2823</v>
+        <f aca="false">(0.3681+0.3662+0.3614)/3</f>
+        <v>0.365233333333333</v>
       </c>
       <c r="H8" s="17" t="n">
-        <f aca="false">(0.1134+0.1143+0.1151)/3</f>
-        <v>0.114266666666667</v>
+        <f aca="false">(0.1166+0.1165+0.117)/3</f>
+        <v>0.1167</v>
       </c>
       <c r="I8" s="15" t="n">
-        <f aca="false">(0.232+0.2333)/2</f>
-        <v>0.23265</v>
+        <f aca="false">(0.3306+0.3313)/2</f>
+        <v>0.33095</v>
       </c>
       <c r="J8" s="16" t="n">
-        <f aca="false">(0.2377+0.2336)/2</f>
-        <v>0.23565</v>
+        <f aca="false">(0.3347+0.3299)/2</f>
+        <v>0.3323</v>
       </c>
       <c r="K8" s="17" t="n">
-        <f aca="false">(0.1066+0.1064)/2</f>
-        <v>0.1065</v>
+        <f aca="false">(0.104+0.1046)/2</f>
+        <v>0.1043</v>
       </c>
       <c r="L8" s="15" t="n">
-        <f aca="false">(0.2254+0.2285)/2</f>
-        <v>0.22695</v>
+        <f aca="false">(0.338+0.34)/2</f>
+        <v>0.339</v>
       </c>
       <c r="M8" s="16" t="n">
-        <f aca="false">(0.2164+0.292)/2</f>
-        <v>0.2542</v>
+        <f aca="false">(0.3302+0.3276)/2</f>
+        <v>0.3289</v>
       </c>
       <c r="N8" s="17" t="n">
-        <f aca="false">(0.099+0.0987)/2</f>
-        <v>0.09885</v>
+        <f aca="false">(0.103+0.103)/2</f>
+        <v>0.103</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -1316,7 +1312,7 @@
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">(0.3587+0.3632+0.3573)/3</f>
         <v>0.359733333333333</v>
       </c>
@@ -1324,11 +1320,11 @@
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="27" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="27" t="n">
+      <c r="F9" s="21" t="n">
         <f aca="false">(0.4789+0.4773+0.4784)/3</f>
         <v>0.4782</v>
       </c>
@@ -1336,11 +1332,11 @@
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="28" t="n">
+      <c r="H9" s="27" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="21" t="n">
         <f aca="false">(0.5451+0.5452)/2</f>
         <v>0.54515</v>
       </c>
@@ -1348,11 +1344,11 @@
         <f aca="false">(0.5451+0.5456)/2</f>
         <v>0.54535</v>
       </c>
-      <c r="K9" s="28" t="n">
+      <c r="K9" s="27" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="27" t="n">
+      <c r="L9" s="21" t="n">
         <f aca="false">(0.5042+0.508)/2</f>
         <v>0.5061</v>
       </c>
@@ -1360,7 +1356,7 @@
         <f aca="false">(0.5145+0.5146)/2</f>
         <v>0.51455</v>
       </c>
-      <c r="N9" s="28" t="n">
+      <c r="N9" s="27" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
       </c>
@@ -1426,63 +1422,63 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="O16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="O16" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -1490,11 +1486,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -1502,21 +1498,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1524,7 +1520,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1532,27 +1528,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1560,10 +1556,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1571,18 +1567,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1616,7 +1612,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="M7:M8 C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1706,254 +1702,254 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="38" t="n">
         <f aca="false">(0.3606+0.3668+0.3843)/3</f>
         <v>0.370566666666667</v>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="39" t="n">
         <f aca="false">(0.3432+0.331+0.3215)/3</f>
         <v>0.3319</v>
       </c>
-      <c r="E3" s="40" t="n">
+      <c r="E3" s="39" t="n">
         <f aca="false">(0.0224+0.0224+0.0237)/3</f>
         <v>0.0228333333333333</v>
       </c>
-      <c r="F3" s="39" t="n">
+      <c r="F3" s="38" t="n">
         <f aca="false">(0.5904+0.6326+0.6324)/3</f>
         <v>0.618466666666667</v>
       </c>
-      <c r="G3" s="40" t="n">
+      <c r="G3" s="39" t="n">
         <f aca="false">(0.3918+0.4014+0.3884)/3</f>
         <v>0.393866666666667</v>
       </c>
-      <c r="H3" s="41" t="n">
+      <c r="H3" s="40" t="n">
         <f aca="false">(0.0194+0.0194+0.0191)/3</f>
         <v>0.0193</v>
       </c>
-      <c r="I3" s="39" t="n">
+      <c r="I3" s="38" t="n">
         <f aca="false">(0.7877+0.7969)/2</f>
         <v>0.7923</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41" t="n">
+      <c r="J3" s="39"/>
+      <c r="K3" s="40" t="n">
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="41" t="n">
         <v>0.7585</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41" t="n">
+      <c r="M3" s="39"/>
+      <c r="N3" s="40" t="n">
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="44" t="n">
+      <c r="C4" s="43" t="n">
         <f aca="false">(0.2272+0.2116+0.22)/3</f>
         <v>0.2196</v>
       </c>
-      <c r="D4" s="45" t="n">
+      <c r="D4" s="44" t="n">
         <f aca="false">(0.8626+0.8314+0.8503)/3</f>
         <v>0.8481</v>
       </c>
-      <c r="E4" s="45" t="n">
+      <c r="E4" s="44" t="n">
         <f aca="false">(0.1181+0.1143+0.1121)/3</f>
         <v>0.114833333333333</v>
       </c>
-      <c r="F4" s="44" t="n">
+      <c r="F4" s="43" t="n">
         <f aca="false">(0.3011+0.3014+0.3215)/3</f>
         <v>0.308</v>
       </c>
-      <c r="G4" s="45" t="n">
+      <c r="G4" s="44" t="n">
         <f aca="false">(0.9691+0.9503+0.9682)/3</f>
         <v>0.962533333333333</v>
       </c>
-      <c r="H4" s="46" t="n">
+      <c r="H4" s="45" t="n">
         <f aca="false">(0.1134+0.1125+0.1133)/3</f>
         <v>0.113066666666667</v>
       </c>
-      <c r="I4" s="44" t="n">
+      <c r="I4" s="43" t="n">
         <f aca="false">(0.3189+0.3365)/2</f>
         <v>0.3277</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="n">
+      <c r="J4" s="44"/>
+      <c r="K4" s="45" t="n">
         <f aca="false">(0.1034+0.1005)/2</f>
         <v>0.10195</v>
       </c>
-      <c r="L4" s="45" t="n">
+      <c r="L4" s="44" t="n">
         <f aca="false">(0.3255+0.3285)/2</f>
         <v>0.327</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="46" t="n">
+      <c r="M4" s="44"/>
+      <c r="N4" s="45" t="n">
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="n">
+      <c r="C5" s="39" t="n">
         <f aca="false">(0.5514+0.5606+0.5368)/3</f>
         <v>0.5496</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="39" t="n">
         <f aca="false">(0.4411+0.4414+0.4382)/3</f>
         <v>0.440233333333333</v>
       </c>
-      <c r="E5" s="40" t="n">
+      <c r="E5" s="39" t="n">
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
-      <c r="F5" s="39" t="n">
+      <c r="F5" s="38" t="n">
         <f aca="false">(0.6699+0.6706+0.6927)/3</f>
         <v>0.677733333333333</v>
       </c>
-      <c r="G5" s="40" t="n">
+      <c r="G5" s="39" t="n">
         <f aca="false">(0.4393+0.4335+0.4325)/3</f>
         <v>0.4351</v>
       </c>
-      <c r="H5" s="41" t="n">
+      <c r="H5" s="40" t="n">
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
-      <c r="I5" s="39" t="n">
+      <c r="I5" s="38" t="n">
         <f aca="false">(0.8098+0.8098)/2</f>
         <v>0.8098</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41" t="n">
+      <c r="J5" s="39"/>
+      <c r="K5" s="40" t="n">
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="39" t="n">
+      <c r="L5" s="38" t="n">
         <f aca="false">(0.7684+0.755)/2</f>
         <v>0.7617</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="41" t="n">
+      <c r="M5" s="39"/>
+      <c r="N5" s="40" t="n">
         <f aca="false">(0.0252+0.0244)/2</f>
         <v>0.0248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="44" t="n">
         <f aca="false">(0.4186+0.4008+0.4108)/3</f>
         <v>0.410066666666667</v>
       </c>
-      <c r="D6" s="45" t="n">
+      <c r="D6" s="44" t="n">
         <f aca="false">(0.8625+0.8393+0.8551)/3</f>
         <v>0.8523</v>
       </c>
-      <c r="E6" s="45" t="n">
+      <c r="E6" s="44" t="n">
         <f aca="false">(0.1169+0.1121+0.1149)/3</f>
         <v>0.114633333333333</v>
       </c>
-      <c r="F6" s="44" t="n">
+      <c r="F6" s="43" t="n">
         <f aca="false">(0.5177+0.5266+0.5236)/3</f>
         <v>0.522633333333333</v>
       </c>
-      <c r="G6" s="45" t="n">
+      <c r="G6" s="44" t="n">
         <f aca="false">(0.9399+0.9168+0.9156)/3</f>
         <v>0.9241</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="45" t="n">
         <f aca="false">(0.1146+0.1146+0.115)/3</f>
         <v>0.114733333333333</v>
       </c>
-      <c r="I6" s="44" t="n">
+      <c r="I6" s="43" t="n">
         <f aca="false">(0.5984+0.5822)/2</f>
         <v>0.5903</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="n">
+      <c r="J6" s="44"/>
+      <c r="K6" s="45" t="n">
         <f aca="false">(0.1011+0.1012)/2</f>
         <v>0.10115</v>
       </c>
-      <c r="L6" s="44" t="n">
+      <c r="L6" s="43" t="n">
         <f aca="false">(0.6002+0.6068)/2</f>
         <v>0.6035</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46" t="n">
+      <c r="M6" s="44"/>
+      <c r="N6" s="45" t="n">
         <f aca="false">(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="38" t="n">
         <f aca="false">(0.3225+0.3037)/2</f>
         <v>0.3131</v>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="39" t="n">
         <f aca="false">(0.2421+0.2415+0.2214)/3</f>
         <v>0.235</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="40" t="n">
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="48" t="n">
+      <c r="F7" s="47" t="n">
         <f aca="false">(0.3343+0.3376+0.3375)/3</f>
         <v>0.336466666666667</v>
       </c>
-      <c r="G7" s="49" t="n">
+      <c r="G7" s="48" t="n">
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="50" t="n">
+      <c r="H7" s="49" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="48" t="n">
+      <c r="I7" s="47" t="n">
         <f aca="false">(0.3418+0.3334+0.3179)/3</f>
         <v>0.331033333333333</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50" t="n">
+      <c r="J7" s="48"/>
+      <c r="K7" s="49" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
-      <c r="L7" s="48" t="n">
+      <c r="L7" s="47" t="n">
         <f aca="false">(0.2997+0.3176+0.3301)/3</f>
         <v>0.3158</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50" t="n">
+      <c r="M7" s="48"/>
+      <c r="N7" s="49" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -1962,49 +1958,49 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44" t="n">
+      <c r="C8" s="43" t="n">
         <f aca="false">(0.1988+0.1939+0.2009)/3</f>
         <v>0.197866666666667</v>
       </c>
-      <c r="D8" s="45" t="n">
+      <c r="D8" s="44" t="n">
         <f aca="false">(0.4076+0.4322+0.4131)/3</f>
         <v>0.417633333333333</v>
       </c>
-      <c r="E8" s="46" t="n">
+      <c r="E8" s="45" t="n">
         <f aca="false">(0.1143+0.1132+0.1152)/3</f>
         <v>0.114233333333333</v>
       </c>
-      <c r="F8" s="44" t="n">
+      <c r="F8" s="43" t="n">
         <f aca="false">(0.1904+0.192+0.1935)/3</f>
         <v>0.191966666666667</v>
       </c>
-      <c r="G8" s="45" t="n">
+      <c r="G8" s="44" t="n">
         <f aca="false">(0.3899+0.4101+0.4039)/3</f>
         <v>0.4013</v>
       </c>
-      <c r="H8" s="46" t="n">
+      <c r="H8" s="45" t="n">
         <f aca="false">(0.1134+0.1143+0.1151)/3</f>
         <v>0.114266666666667</v>
       </c>
-      <c r="I8" s="44" t="n">
+      <c r="I8" s="43" t="n">
         <f aca="false">(0.1659+0.1608+0.1658)/3</f>
         <v>0.164166666666667</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46" t="n">
+      <c r="J8" s="44"/>
+      <c r="K8" s="45" t="n">
         <f aca="false">(0.1062+0.1066+0.1064)/3</f>
         <v>0.1064</v>
       </c>
-      <c r="L8" s="44" t="n">
+      <c r="L8" s="43" t="n">
         <f aca="false">(0.1647+0.164)/2</f>
         <v>0.16435</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="46" t="n">
+      <c r="M8" s="44"/>
+      <c r="N8" s="45" t="n">
         <f aca="false">(0.099+0.0987)/2</f>
         <v>0.09885</v>
       </c>
@@ -2013,50 +2009,50 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="48" t="n">
+      <c r="C9" s="47" t="n">
         <f aca="false">(0.1062+0.1091+0.1051)/3</f>
         <v>0.1068</v>
       </c>
-      <c r="D9" s="49" t="n">
+      <c r="D9" s="48" t="n">
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="49" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="48" t="n">
+      <c r="F9" s="47" t="n">
         <f aca="false">(0.1277+0.1276+0.1272)/3</f>
         <v>0.1275</v>
       </c>
-      <c r="G9" s="49" t="n">
+      <c r="G9" s="48" t="n">
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="50" t="n">
+      <c r="H9" s="49" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="48" t="n">
+      <c r="I9" s="47" t="n">
         <f aca="false">(0.1408)/1</f>
         <v>0.1408</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50" t="n">
+      <c r="J9" s="48"/>
+      <c r="K9" s="49" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="51" t="n">
+      <c r="L9" s="50" t="n">
         <v>0.1255</v>
       </c>
-      <c r="M9" s="49"/>
-      <c r="N9" s="52" t="n">
+      <c r="M9" s="48"/>
+      <c r="N9" s="51" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -2064,48 +2060,48 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="44" t="n">
+      <c r="C10" s="43" t="n">
         <f aca="false">(0.1401+0.1378+0.1374)/3</f>
         <v>0.138433333333333</v>
       </c>
-      <c r="D10" s="45" t="n">
+      <c r="D10" s="44" t="n">
         <f aca="false">(0.2803+0.2808+0.2771)/3</f>
         <v>0.2794</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="45" t="n">
         <f aca="false">(0.1026+0.1017+0.1048)/3</f>
         <v>0.103033333333333</v>
       </c>
-      <c r="F10" s="44" t="n">
+      <c r="F10" s="43" t="n">
         <f aca="false">(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="G10" s="45" t="n">
+      <c r="G10" s="44" t="n">
         <f aca="false">(0.3699+0.3739+0.3682)/3</f>
         <v>0.370666666666667</v>
       </c>
-      <c r="H10" s="46" t="n">
+      <c r="H10" s="45" t="n">
         <f aca="false">(0.1071+0.1084+0.1071)/3</f>
         <v>0.107533333333333</v>
       </c>
-      <c r="I10" s="44" t="n">
+      <c r="I10" s="43" t="n">
         <f aca="false">(0.1756)/1</f>
         <v>0.1756</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46" t="n">
+      <c r="J10" s="44"/>
+      <c r="K10" s="45" t="n">
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="53" t="n">
+      <c r="L10" s="52" t="n">
         <v>0.1578</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="54" t="n">
+      <c r="M10" s="44"/>
+      <c r="N10" s="53" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
@@ -2122,14 +2118,14 @@
       <c r="H11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -2141,53 +2137,53 @@
       <c r="H12" s="0" t="n">
         <v>10.8</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="O16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="O16" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -2195,11 +2191,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -2207,21 +2203,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2229,7 +2225,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2237,27 +2233,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -2265,10 +2261,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2276,18 +2272,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2323,7 +2319,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M7:M8 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2346,19 +2342,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.246372705070837</v>
       </c>
-      <c r="H2" s="49" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.299719963743936</v>
       </c>
-      <c r="N2" s="49" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0522741810074534</v>
       </c>
-      <c r="T2" s="49" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0539992181013351</v>
       </c>
@@ -15095,7 +15091,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M7:M8 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15115,23 +15111,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.327147963466075</v>
       </c>
-      <c r="H2" s="49" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.319366602303163</v>
       </c>
-      <c r="N2" s="49" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.104029611169128</v>
       </c>
-      <c r="T2" s="49" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0365467584821904</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -27844,7 +27840,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="M7:M8 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27864,23 +27860,23 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.353749402826351</v>
       </c>
-      <c r="H2" s="49" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.279436534237502</v>
       </c>
-      <c r="N2" s="49" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.100521589720816</v>
       </c>
-      <c r="T2" s="49" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0494590627578899</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -40593,7 +40589,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
+      <selection pane="topLeft" activeCell="H303" activeCellId="1" sqref="M7:M8 H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40617,7 +40613,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="49" t="n">
+      <c r="B2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.351121061743667</v>
       </c>
@@ -40625,7 +40621,7 @@
         <f aca="false">COUNTIF(B4:B103,"=0")</f>
         <v>23</v>
       </c>
-      <c r="H2" s="49" t="n">
+      <c r="H2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.278690339903548</v>
       </c>
@@ -40633,15 +40629,15 @@
         <f aca="false">COUNTIF(H4:H103,"=0")</f>
         <v>10</v>
       </c>
-      <c r="N2" s="49" t="n">
+      <c r="N2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0802869852466762</v>
       </c>
-      <c r="T2" s="49" t="n">
+      <c r="T2" s="48" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0566054178796812</v>
       </c>
-      <c r="U2" s="49"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
-    <t xml:space="preserve">Stage 1a</t>
+    <t xml:space="preserve">Classification</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly</t>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">Combinations of a-c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 1a</t>
   </si>
   <si>
     <t xml:space="preserve">Best case is each customer on an individual ledger with one PK</t>
@@ -441,7 +444,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,20 +459,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF70AD47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
@@ -585,7 +576,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,7 +613,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,15 +621,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -646,15 +637,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,7 +653,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,19 +661,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,11 +673,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,27 +709,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -758,47 +721,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,7 +762,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -855,7 +790,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -879,10 +814,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M7:M8"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,11 +1033,11 @@
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="11" t="n">
         <f aca="false">(0.6988+0.7072+0.6913)/3</f>
         <v>0.6991</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="22" t="n">
         <f aca="false">(0.71+0.7115+0.7099)/3</f>
         <v>0.710466666666667</v>
       </c>
@@ -1110,11 +1045,11 @@
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="21" t="n">
         <f aca="false">(0.7842+0.7941)/2</f>
         <v>0.78915</v>
       </c>
-      <c r="J5" s="23" t="n">
+      <c r="J5" s="22" t="n">
         <f aca="false">(0.7934+0.7945)/2</f>
         <v>0.79395</v>
       </c>
@@ -1122,11 +1057,11 @@
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="24" t="n">
+      <c r="L5" s="21" t="n">
         <f aca="false">(0.8406+0.8389)/2</f>
         <v>0.83975</v>
       </c>
-      <c r="M5" s="23" t="n">
+      <c r="M5" s="22" t="n">
         <f aca="false">(0.8445+0.8597)/2</f>
         <v>0.8521</v>
       </c>
@@ -1137,14 +1072,14 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="16" t="n">
         <f aca="false">(0.429+0.4242+0.4323)/3</f>
         <v>0.4285</v>
       </c>
-      <c r="D6" s="26" t="n">
+      <c r="D6" s="16" t="n">
         <f aca="false">(0.4515+0.4618+0.4561)/3</f>
         <v>0.456466666666667</v>
       </c>
@@ -1156,7 +1091,7 @@
         <f aca="false">(0.5249+0.5418+0.5522)/3</f>
         <v>0.539633333333333</v>
       </c>
-      <c r="G6" s="26" t="n">
+      <c r="G6" s="16" t="n">
         <f aca="false">(0.5538+0.5666+0.5528)/3</f>
         <v>0.557733333333333</v>
       </c>
@@ -1168,7 +1103,7 @@
         <f aca="false">(0.6052+0.6316)/2</f>
         <v>0.6184</v>
       </c>
-      <c r="J6" s="26" t="n">
+      <c r="J6" s="16" t="n">
         <f aca="false">(0.6267+0.629)/2</f>
         <v>0.62785</v>
       </c>
@@ -1180,7 +1115,7 @@
         <f aca="false">(0.6182+0.6173)/2</f>
         <v>0.61775</v>
       </c>
-      <c r="M6" s="26" t="n">
+      <c r="M6" s="16" t="n">
         <f aca="false">(0.6306+0.6382)/2</f>
         <v>0.6344</v>
       </c>
@@ -1196,7 +1131,7 @@
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">(0.6112+0.6304+0.6373)/3</f>
         <v>0.6263</v>
       </c>
@@ -1212,11 +1147,11 @@
         <f aca="false">(0.6396+0.6221+0.6312)/3</f>
         <v>0.630966666666667</v>
       </c>
-      <c r="G7" s="23" t="n">
+      <c r="G7" s="22" t="n">
         <f aca="false">(0.6344+0.6545+0.6652)/3</f>
         <v>0.651366666666667</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="24" t="n">
         <f aca="false">(0.0264+0.0266+0.0259)/3</f>
         <v>0.0263</v>
       </c>
@@ -1224,11 +1159,11 @@
         <f aca="false">(0.5581+0.5766)/2</f>
         <v>0.56735</v>
       </c>
-      <c r="J7" s="23" t="n">
+      <c r="J7" s="22" t="n">
         <f aca="false">(0.5855+0.5623)/2</f>
         <v>0.5739</v>
       </c>
-      <c r="K7" s="27" t="n">
+      <c r="K7" s="24" t="n">
         <f aca="false">(0.0254+0.0255)/2</f>
         <v>0.02545</v>
       </c>
@@ -1236,11 +1171,11 @@
         <f aca="false">(0.5497+0.5899)/2</f>
         <v>0.5698</v>
       </c>
-      <c r="M7" s="23" t="n">
+      <c r="M7" s="22" t="n">
         <f aca="false">(0.5392+0.5216)/2</f>
         <v>0.5304</v>
       </c>
-      <c r="N7" s="27" t="n">
+      <c r="N7" s="24" t="n">
         <f aca="false">(0.0269+0.0266)/2</f>
         <v>0.02675</v>
       </c>
@@ -1250,7 +1185,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -1316,11 +1251,11 @@
         <f aca="false">(0.3587+0.3632+0.3573)/3</f>
         <v>0.359733333333333</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="22" t="n">
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="27" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
@@ -1328,11 +1263,11 @@
         <f aca="false">(0.4789+0.4773+0.4784)/3</f>
         <v>0.4782</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="G9" s="22" t="n">
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="24" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
@@ -1340,11 +1275,11 @@
         <f aca="false">(0.5451+0.5452)/2</f>
         <v>0.54515</v>
       </c>
-      <c r="J9" s="23" t="n">
+      <c r="J9" s="22" t="n">
         <f aca="false">(0.5451+0.5456)/2</f>
         <v>0.54535</v>
       </c>
-      <c r="K9" s="27" t="n">
+      <c r="K9" s="24" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
@@ -1352,11 +1287,11 @@
         <f aca="false">(0.5042+0.508)/2</f>
         <v>0.5061</v>
       </c>
-      <c r="M9" s="23" t="n">
+      <c r="M9" s="22" t="n">
         <f aca="false">(0.5145+0.5146)/2</f>
         <v>0.51455</v>
       </c>
-      <c r="N9" s="27" t="n">
+      <c r="N9" s="24" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
       </c>
@@ -1366,7 +1301,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="15" t="n">
@@ -1422,63 +1357,63 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="O16" s="36" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="O16" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="33" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -1486,11 +1421,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -1498,21 +1433,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1520,7 +1455,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -1528,27 +1463,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -1556,10 +1491,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -1567,21 +1502,24 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
@@ -1612,7 +1550,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="M7:M8 C3"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1625,7 +1563,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1649,7 +1587,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -1702,254 +1640,254 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="38" t="n">
+      <c r="C3" s="11" t="n">
         <f aca="false">(0.3606+0.3668+0.3843)/3</f>
         <v>0.370566666666667</v>
       </c>
-      <c r="D3" s="39" t="n">
+      <c r="D3" s="12" t="n">
         <f aca="false">(0.3432+0.331+0.3215)/3</f>
         <v>0.3319</v>
       </c>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="12" t="n">
         <f aca="false">(0.0224+0.0224+0.0237)/3</f>
         <v>0.0228333333333333</v>
       </c>
-      <c r="F3" s="38" t="n">
+      <c r="F3" s="11" t="n">
         <f aca="false">(0.5904+0.6326+0.6324)/3</f>
         <v>0.618466666666667</v>
       </c>
-      <c r="G3" s="39" t="n">
+      <c r="G3" s="12" t="n">
         <f aca="false">(0.3918+0.4014+0.3884)/3</f>
         <v>0.393866666666667</v>
       </c>
-      <c r="H3" s="40" t="n">
+      <c r="H3" s="13" t="n">
         <f aca="false">(0.0194+0.0194+0.0191)/3</f>
         <v>0.0193</v>
       </c>
-      <c r="I3" s="38" t="n">
+      <c r="I3" s="11" t="n">
         <f aca="false">(0.7877+0.7969)/2</f>
         <v>0.7923</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40" t="n">
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="n">
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="41" t="n">
+      <c r="L3" s="34" t="n">
         <v>0.7585</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40" t="n">
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="n">
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="O3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43" t="n">
+      <c r="C4" s="15" t="n">
         <f aca="false">(0.2272+0.2116+0.22)/3</f>
         <v>0.2196</v>
       </c>
-      <c r="D4" s="44" t="n">
+      <c r="D4" s="16" t="n">
         <f aca="false">(0.8626+0.8314+0.8503)/3</f>
         <v>0.8481</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="16" t="n">
         <f aca="false">(0.1181+0.1143+0.1121)/3</f>
         <v>0.114833333333333</v>
       </c>
-      <c r="F4" s="43" t="n">
+      <c r="F4" s="15" t="n">
         <f aca="false">(0.3011+0.3014+0.3215)/3</f>
         <v>0.308</v>
       </c>
-      <c r="G4" s="44" t="n">
+      <c r="G4" s="16" t="n">
         <f aca="false">(0.9691+0.9503+0.9682)/3</f>
         <v>0.962533333333333</v>
       </c>
-      <c r="H4" s="45" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">(0.1134+0.1125+0.1133)/3</f>
         <v>0.113066666666667</v>
       </c>
-      <c r="I4" s="43" t="n">
+      <c r="I4" s="15" t="n">
         <f aca="false">(0.3189+0.3365)/2</f>
         <v>0.3277</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45" t="n">
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="n">
         <f aca="false">(0.1034+0.1005)/2</f>
         <v>0.10195</v>
       </c>
-      <c r="L4" s="44" t="n">
+      <c r="L4" s="16" t="n">
         <f aca="false">(0.3255+0.3285)/2</f>
         <v>0.327</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45" t="n">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17" t="n">
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="12" t="n">
         <f aca="false">(0.5514+0.5606+0.5368)/3</f>
         <v>0.5496</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="12" t="n">
         <f aca="false">(0.4411+0.4414+0.4382)/3</f>
         <v>0.440233333333333</v>
       </c>
-      <c r="E5" s="39" t="n">
+      <c r="E5" s="12" t="n">
         <f aca="false">(0.026+0.0242+0.0238)/3</f>
         <v>0.0246666666666667</v>
       </c>
-      <c r="F5" s="38" t="n">
+      <c r="F5" s="11" t="n">
         <f aca="false">(0.6699+0.6706+0.6927)/3</f>
         <v>0.677733333333333</v>
       </c>
-      <c r="G5" s="39" t="n">
+      <c r="G5" s="12" t="n">
         <f aca="false">(0.4393+0.4335+0.4325)/3</f>
         <v>0.4351</v>
       </c>
-      <c r="H5" s="40" t="n">
+      <c r="H5" s="13" t="n">
         <f aca="false">(0.0238+0.0237+0.0242)/3</f>
         <v>0.0239</v>
       </c>
-      <c r="I5" s="38" t="n">
+      <c r="I5" s="11" t="n">
         <f aca="false">(0.8098+0.8098)/2</f>
         <v>0.8098</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="40" t="n">
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="n">
         <f aca="false">(0.0234+0.0232)/2</f>
         <v>0.0233</v>
       </c>
-      <c r="L5" s="38" t="n">
+      <c r="L5" s="11" t="n">
         <f aca="false">(0.7684+0.755)/2</f>
         <v>0.7617</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40" t="n">
+      <c r="M5" s="12"/>
+      <c r="N5" s="13" t="n">
         <f aca="false">(0.0252+0.0244)/2</f>
         <v>0.0248</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="16" t="n">
         <f aca="false">(0.4186+0.4008+0.4108)/3</f>
         <v>0.410066666666667</v>
       </c>
-      <c r="D6" s="44" t="n">
+      <c r="D6" s="16" t="n">
         <f aca="false">(0.8625+0.8393+0.8551)/3</f>
         <v>0.8523</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="16" t="n">
         <f aca="false">(0.1169+0.1121+0.1149)/3</f>
         <v>0.114633333333333</v>
       </c>
-      <c r="F6" s="43" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">(0.5177+0.5266+0.5236)/3</f>
         <v>0.522633333333333</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="16" t="n">
         <f aca="false">(0.9399+0.9168+0.9156)/3</f>
         <v>0.9241</v>
       </c>
-      <c r="H6" s="45" t="n">
+      <c r="H6" s="17" t="n">
         <f aca="false">(0.1146+0.1146+0.115)/3</f>
         <v>0.114733333333333</v>
       </c>
-      <c r="I6" s="43" t="n">
+      <c r="I6" s="15" t="n">
         <f aca="false">(0.5984+0.5822)/2</f>
         <v>0.5903</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45" t="n">
+      <c r="J6" s="16"/>
+      <c r="K6" s="17" t="n">
         <f aca="false">(0.1011+0.1012)/2</f>
         <v>0.10115</v>
       </c>
-      <c r="L6" s="43" t="n">
+      <c r="L6" s="15" t="n">
         <f aca="false">(0.6002+0.6068)/2</f>
         <v>0.6035</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45" t="n">
+      <c r="M6" s="16"/>
+      <c r="N6" s="17" t="n">
         <f aca="false">(0.0999+0.1007)/2</f>
         <v>0.1003</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>49</v>
+      <c r="A7" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">(0.3225+0.3037)/2</f>
         <v>0.3131</v>
       </c>
-      <c r="D7" s="39" t="n">
+      <c r="D7" s="12" t="n">
         <f aca="false">(0.2421+0.2415+0.2214)/3</f>
         <v>0.235</v>
       </c>
-      <c r="E7" s="40" t="n">
+      <c r="E7" s="13" t="n">
         <f aca="false">(0.0195+0.0203+0.02)/3</f>
         <v>0.0199333333333333</v>
       </c>
-      <c r="F7" s="47" t="n">
+      <c r="F7" s="21" t="n">
         <f aca="false">(0.3343+0.3376+0.3375)/3</f>
         <v>0.336466666666667</v>
       </c>
-      <c r="G7" s="48" t="n">
+      <c r="G7" s="22" t="n">
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="49" t="n">
+      <c r="H7" s="24" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
-      <c r="I7" s="47" t="n">
+      <c r="I7" s="21" t="n">
         <f aca="false">(0.3418+0.3334+0.3179)/3</f>
         <v>0.331033333333333</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49" t="n">
+      <c r="J7" s="22"/>
+      <c r="K7" s="24" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
-      <c r="L7" s="47" t="n">
+      <c r="L7" s="21" t="n">
         <f aca="false">(0.2997+0.3176+0.3301)/3</f>
         <v>0.3158</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49" t="n">
+      <c r="M7" s="22"/>
+      <c r="N7" s="24" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -1958,49 +1896,49 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="15" t="n">
         <f aca="false">(0.1988+0.1939+0.2009)/3</f>
         <v>0.197866666666667</v>
       </c>
-      <c r="D8" s="44" t="n">
+      <c r="D8" s="16" t="n">
         <f aca="false">(0.4076+0.4322+0.4131)/3</f>
         <v>0.417633333333333</v>
       </c>
-      <c r="E8" s="45" t="n">
+      <c r="E8" s="17" t="n">
         <f aca="false">(0.1143+0.1132+0.1152)/3</f>
         <v>0.114233333333333</v>
       </c>
-      <c r="F8" s="43" t="n">
+      <c r="F8" s="15" t="n">
         <f aca="false">(0.1904+0.192+0.1935)/3</f>
         <v>0.191966666666667</v>
       </c>
-      <c r="G8" s="44" t="n">
+      <c r="G8" s="16" t="n">
         <f aca="false">(0.3899+0.4101+0.4039)/3</f>
         <v>0.4013</v>
       </c>
-      <c r="H8" s="45" t="n">
+      <c r="H8" s="17" t="n">
         <f aca="false">(0.1134+0.1143+0.1151)/3</f>
         <v>0.114266666666667</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="15" t="n">
         <f aca="false">(0.1659+0.1608+0.1658)/3</f>
         <v>0.164166666666667</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45" t="n">
+      <c r="J8" s="16"/>
+      <c r="K8" s="17" t="n">
         <f aca="false">(0.1062+0.1066+0.1064)/3</f>
         <v>0.1064</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="15" t="n">
         <f aca="false">(0.1647+0.164)/2</f>
         <v>0.16435</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45" t="n">
+      <c r="M8" s="16"/>
+      <c r="N8" s="17" t="n">
         <f aca="false">(0.099+0.0987)/2</f>
         <v>0.09885</v>
       </c>
@@ -2009,50 +1947,50 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">(0.1062+0.1091+0.1051)/3</f>
         <v>0.1068</v>
       </c>
-      <c r="D9" s="48" t="n">
+      <c r="D9" s="22" t="n">
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="49" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
-      <c r="F9" s="47" t="n">
+      <c r="F9" s="21" t="n">
         <f aca="false">(0.1277+0.1276+0.1272)/3</f>
         <v>0.1275</v>
       </c>
-      <c r="G9" s="48" t="n">
+      <c r="G9" s="22" t="n">
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="49" t="n">
+      <c r="H9" s="24" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
-      <c r="I9" s="47" t="n">
+      <c r="I9" s="21" t="n">
         <f aca="false">(0.1408)/1</f>
         <v>0.1408</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49" t="n">
+      <c r="J9" s="22"/>
+      <c r="K9" s="24" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="50" t="n">
+      <c r="L9" s="36" t="n">
         <v>0.1255</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="51" t="n">
+      <c r="M9" s="22"/>
+      <c r="N9" s="37" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -2060,130 +1998,112 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="15" t="n">
         <f aca="false">(0.1401+0.1378+0.1374)/3</f>
         <v>0.138433333333333</v>
       </c>
-      <c r="D10" s="44" t="n">
+      <c r="D10" s="16" t="n">
         <f aca="false">(0.2803+0.2808+0.2771)/3</f>
         <v>0.2794</v>
       </c>
-      <c r="E10" s="45" t="n">
+      <c r="E10" s="17" t="n">
         <f aca="false">(0.1026+0.1017+0.1048)/3</f>
         <v>0.103033333333333</v>
       </c>
-      <c r="F10" s="43" t="n">
+      <c r="F10" s="15" t="n">
         <f aca="false">(0.1577+0.1582+0.1566)/3</f>
         <v>0.1575</v>
       </c>
-      <c r="G10" s="44" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">(0.3699+0.3739+0.3682)/3</f>
         <v>0.370666666666667</v>
       </c>
-      <c r="H10" s="45" t="n">
+      <c r="H10" s="17" t="n">
         <f aca="false">(0.1071+0.1084+0.1071)/3</f>
         <v>0.107533333333333</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="15" t="n">
         <f aca="false">(0.1756)/1</f>
         <v>0.1756</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45" t="n">
+      <c r="J10" s="16"/>
+      <c r="K10" s="17" t="n">
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="52" t="n">
+      <c r="L10" s="38" t="n">
         <v>0.1578</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="53" t="n">
+      <c r="M10" s="16"/>
+      <c r="N10" s="39" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="36" t="s">
+      <c r="O13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="O16" s="36" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="O16" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O17" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="33" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -2191,11 +2111,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="36" t="s">
+      <c r="O18" s="33" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -2203,21 +2123,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="30" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2225,7 +2145,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2233,27 +2153,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
+      <c r="A24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -2261,10 +2181,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2272,18 +2192,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2319,7 +2239,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M7:M8 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,84 +2249,84 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.246372705070837</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.299719963743936</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0522741810074534</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0539992181013351</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,7 +8563,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -8667,7 +8587,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -8687,7 +8607,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -8717,7 +8637,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -8737,7 +8657,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -8767,7 +8687,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -15059,17 +14979,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -15091,92 +15011,92 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="M7:M8 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.327147963466075</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.319366602303163</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.104029611169128</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0365467584821904</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21413,7 +21333,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -21431,7 +21351,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -21451,7 +21371,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -21469,7 +21389,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -21489,7 +21409,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -21507,7 +21427,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -27799,26 +27719,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -27840,92 +27760,92 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="M7:M8 T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.353749402826351</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.279436534237502</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.100521589720816</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0494590627578899</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34162,7 +34082,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -34180,7 +34100,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -34200,7 +34120,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -34218,7 +34138,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -34238,7 +34158,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -34256,7 +34176,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -40548,26 +40468,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -40589,31 +40509,31 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H303" activeCellId="1" sqref="M7:M8 H303"/>
+      <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="48" t="n">
+      <c r="B2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
         <v>0.351121061743667</v>
       </c>
@@ -40621,7 +40541,7 @@
         <f aca="false">COUNTIF(B4:B103,"=0")</f>
         <v>23</v>
       </c>
-      <c r="H2" s="48" t="n">
+      <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
         <v>0.278690339903548</v>
       </c>
@@ -40629,64 +40549,64 @@
         <f aca="false">COUNTIF(H4:H103,"=0")</f>
         <v>10</v>
       </c>
-      <c r="N2" s="48" t="n">
+      <c r="N2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
         <v>0.0802869852466762</v>
       </c>
-      <c r="T2" s="48" t="n">
+      <c r="T2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(T4:T303)</f>
         <v>0.0566054178796812</v>
       </c>
-      <c r="U2" s="48"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46923,7 +46843,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -46941,7 +46861,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -46961,7 +46881,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -46979,7 +46899,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -46999,7 +46919,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -47017,7 +46937,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -53309,26 +53229,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -48,13 +48,13 @@
     <t xml:space="preserve">Case</t>
   </si>
   <si>
-    <t xml:space="preserve">1 L / C</t>
+    <t xml:space="preserve">LPC</t>
   </si>
   <si>
-    <t xml:space="preserve">1 L / P</t>
+    <t xml:space="preserve">LPP</t>
   </si>
   <si>
-    <t xml:space="preserve">1 L</t>
+    <t xml:space="preserve">AOL</t>
   </si>
   <si>
     <t xml:space="preserve">MLP</t>
@@ -96,10 +96,10 @@
     <t xml:space="preserve">Blockchain data analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2</t>
+    <t xml:space="preserve">Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigate classification methods: MLP, CNN, RFC, KNN</t>
+    <t xml:space="preserve">Investigate classification methods: MLP, CNN, RFC, KNN.</t>
   </si>
   <si>
     <t xml:space="preserve">What's the likelihood one can see a transaction and pick the customer or postcode?</t>
@@ -117,19 +117,19 @@
     <t xml:space="preserve">Include off-chain weather data</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage 2 measures the chance an attacker can find the customer's location from their dataset and solar data</t>
+    <t xml:space="preserve">Stage 2 measures the chance an attacker can find the customer's location from their dataset and solar data.</t>
   </si>
   <si>
     <t xml:space="preserve">2a</t>
   </si>
   <si>
-    <t xml:space="preserve">Investigate approaches to combine a user data set with solar data to reveal postcode.</t>
+    <t xml:space="preserve">Investigate classification methods with additional solar data added: CNN, RFC.</t>
   </si>
   <si>
     <t xml:space="preserve">2b</t>
   </si>
   <si>
-    <t xml:space="preserve">Explore whether solar data has an impact on stage 1 analysis.</t>
+    <t xml:space="preserve">Investigate whether separate cointegration and correlation analysis can link.</t>
   </si>
   <si>
     <t xml:space="preserve">Stage 3</t>
@@ -138,13 +138,13 @@
     <t xml:space="preserve">Obfuscation methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2</t>
+    <t xml:space="preserve">Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2.</t>
   </si>
   <si>
     <t xml:space="preserve">3a</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple PKs efficiency</t>
+    <t xml:space="preserve">Multiple PKs and ledgers efficiency.</t>
   </si>
   <si>
     <t xml:space="preserve">1 to n at reasonable intervals</t>
@@ -153,10 +153,58 @@
     <t xml:space="preserve">3b</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple customers per ledger efficiency</t>
+    <t xml:space="preserve">Transaction obfuscation: random delays and combinations.</t>
   </si>
   <si>
     <t xml:space="preserve">3c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine best of a and b for a final test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best case is each customer on an individual ledger with one PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 L / C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 L / P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst case is all customers on one ledger with new PK per transaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate classification methods: MLP, RF, KNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 2 measures the chance an attacker can find the customer's location from their dataset and solar data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate approaches to combine a user data set with solar data to reveal postcode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore whether solar data has an impact on stage 1 analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple PKs efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple customers per ledger efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">Timestamp obfuscation: random transaction delays and combinations</t>
@@ -166,21 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Combinations of a-c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best case is each customer on an individual ledger with one PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst case is all customers on one ledger with new PK per transaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigate classification methods: MLP, RF, KNN</t>
   </si>
   <si>
     <t xml:space="preserve">MLP postcode weekly best</t>
@@ -444,7 +477,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +488,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -576,7 +615,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -689,6 +728,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -709,11 +772,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,19 +784,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,7 +829,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF6F9D4"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -814,10 +877,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="F12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1363,165 +1426,287 @@
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28" t="n">
+        <f aca="false">(0.6684+0.6912)/2</f>
+        <v>0.6798</v>
+      </c>
+      <c r="D12" s="28" t="n">
+        <f aca="false">(0.6967+0.6607)/2</f>
+        <v>0.6787</v>
+      </c>
+      <c r="E12" s="28" t="n">
+        <f aca="false">(0.0302+0.0307)/2</f>
+        <v>0.03045</v>
+      </c>
+      <c r="F12" s="29" t="n">
+        <f aca="false">(0.7336)/1</f>
+        <v>0.7336</v>
+      </c>
+      <c r="G12" s="28" t="n">
+        <f aca="false">(0.7158)/1</f>
+        <v>0.7158</v>
+      </c>
+      <c r="H12" s="30" t="n">
+        <f aca="false">(0.0282+0.0286)/2</f>
+        <v>0.0284</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="31" t="n">
+        <f aca="false">(0.5605+0.5406)/2</f>
+        <v>0.55055</v>
+      </c>
+      <c r="D13" s="31" t="n">
+        <f aca="false">(0.5246+0.5207)/2</f>
+        <v>0.52265</v>
+      </c>
+      <c r="E13" s="31" t="n">
+        <f aca="false">(0.1216+0.1192)/2</f>
+        <v>0.1204</v>
+      </c>
+      <c r="F13" s="32" t="n">
+        <f aca="false">(0.6049)/1</f>
+        <v>0.6049</v>
+      </c>
+      <c r="G13" s="31" t="n">
+        <f aca="false">(0.5747)/1</f>
+        <v>0.5747</v>
+      </c>
+      <c r="H13" s="33" t="n">
+        <f aca="false">(0.1194+0.1194)/2</f>
+        <v>0.1194</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="29" t="n">
+        <f aca="false">(0.7298+0.7055)/2</f>
+        <v>0.71765</v>
+      </c>
+      <c r="D14" s="28" t="n">
+        <f aca="false">(0.7841+0.8337)/2</f>
+        <v>0.8089</v>
+      </c>
+      <c r="E14" s="30" t="n">
+        <f aca="false">(0.0282+0.0285)/2</f>
+        <v>0.02835</v>
+      </c>
+      <c r="F14" s="29" t="n">
+        <f aca="false">(0.7581+0.7598)/2</f>
+        <v>0.75895</v>
+      </c>
+      <c r="G14" s="28" t="n">
+        <f aca="false">(0.7847+0.7562)/2</f>
+        <v>0.77045</v>
+      </c>
+      <c r="H14" s="30" t="n">
+        <f aca="false">(0.037+0.0369)/2</f>
+        <v>0.03695</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19"/>
+      <c r="B15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32" t="n">
+        <f aca="false">(0.5823+0.5715)/2</f>
+        <v>0.5769</v>
+      </c>
+      <c r="D15" s="31" t="n">
+        <f aca="false">(0.5692+0.5583)/2</f>
+        <v>0.56375</v>
+      </c>
+      <c r="E15" s="33" t="n">
+        <f aca="false">(0.1638+0.1647)/2</f>
+        <v>0.16425</v>
+      </c>
+      <c r="F15" s="32" t="n">
+        <f aca="false">(0.5205+0.5217)/2</f>
+        <v>0.5211</v>
+      </c>
+      <c r="G15" s="31" t="n">
+        <f aca="false">(0.5214+0.5275)/2</f>
+        <v>0.52445</v>
+      </c>
+      <c r="H15" s="33" t="n">
+        <f aca="false">(0.1307+0.1299)/2</f>
+        <v>0.1303</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O18" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B20" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="37"/>
+      <c r="B21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="O16" s="33" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="O21" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31"/>
-      <c r="B17" s="0" t="s">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="37"/>
+      <c r="B22" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="0" t="s">
+      <c r="Q22" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31"/>
-      <c r="B18" s="0" t="s">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="37"/>
+      <c r="B23" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="0" t="s">
+      <c r="Q23" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B25" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30" t="s">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37"/>
+      <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="37"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B30" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30" t="s">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="37"/>
+      <c r="B31" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H32" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B33" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B34" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1531,6 +1716,8 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1550,7 +1737,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="1" sqref="F12:G13 I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1563,7 +1750,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1587,7 +1774,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -1600,40 +1787,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1679,7 +1866,7 @@
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="34" t="n">
+      <c r="L3" s="40" t="n">
         <v>0.7585</v>
       </c>
       <c r="M3" s="12"/>
@@ -1687,11 +1874,11 @@
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
+      <c r="O3" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
@@ -1740,9 +1927,9 @@
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
@@ -1844,7 +2031,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -1986,11 +2173,11 @@
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="36" t="n">
+      <c r="L9" s="42" t="n">
         <v>0.1255</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="37" t="n">
+      <c r="N9" s="43" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -2035,11 +2222,11 @@
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="44" t="n">
         <v>0.1578</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="39" t="n">
+      <c r="N10" s="45" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
@@ -2054,56 +2241,56 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="O16" s="33" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="O16" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="39" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -2111,11 +2298,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="33" t="s">
+      <c r="O18" s="39" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -2123,88 +2310,88 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30" t="s">
-        <v>30</v>
+      <c r="A21" s="37"/>
+      <c r="B21" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="37" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31"/>
+      <c r="A24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31"/>
-      <c r="B26" s="30" t="s">
-        <v>37</v>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>39</v>
+      <c r="B27" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>42</v>
+      <c r="B28" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>44</v>
+      <c r="B29" s="35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>46</v>
+      <c r="A30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2426,7 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F12:G13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2249,16 +2436,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2281,52 +2468,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8563,7 +8750,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -8587,7 +8774,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -8607,7 +8794,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -8637,7 +8824,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -8657,7 +8844,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -8687,7 +8874,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -14979,17 +15166,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -15011,23 +15198,23 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F12:G13 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15051,52 +15238,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21333,7 +21520,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -21351,7 +21538,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -21371,7 +21558,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -21389,7 +21576,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -21409,7 +21596,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -21427,7 +21614,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -27719,26 +27906,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -27760,23 +27947,23 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="F12:G13 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27800,52 +27987,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34082,7 +34269,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -34100,7 +34287,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -34120,7 +34307,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -34138,7 +34325,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -34158,7 +34345,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -34176,7 +34363,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -40468,26 +40655,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -40509,27 +40696,27 @@
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
+      <selection pane="topLeft" activeCell="H303" activeCellId="1" sqref="F12:G13 H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40561,52 +40748,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46843,7 +47030,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -46861,7 +47048,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -46881,7 +47068,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -46899,7 +47086,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -46919,7 +47106,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -46937,7 +47124,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -53229,26 +53416,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -873,14 +873,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="F12:G13"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1427,286 +1427,334 @@
       <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C14" s="28" t="n">
         <f aca="false">(0.6684+0.6912)/2</f>
         <v>0.6798</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D14" s="28" t="n">
         <f aca="false">(0.6967+0.6607)/2</f>
         <v>0.6787</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E14" s="28" t="n">
         <f aca="false">(0.0302+0.0307)/2</f>
         <v>0.03045</v>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F14" s="29" t="n">
         <f aca="false">(0.7336)/1</f>
         <v>0.7336</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G14" s="28" t="n">
         <f aca="false">(0.7158)/1</f>
         <v>0.7158</v>
       </c>
-      <c r="H12" s="30" t="n">
+      <c r="H14" s="30" t="n">
         <f aca="false">(0.0282+0.0286)/2</f>
         <v>0.0284</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="23" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="31" t="n">
+      <c r="C15" s="31" t="n">
         <f aca="false">(0.5605+0.5406)/2</f>
         <v>0.55055</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D15" s="31" t="n">
         <f aca="false">(0.5246+0.5207)/2</f>
         <v>0.52265</v>
       </c>
-      <c r="E13" s="31" t="n">
+      <c r="E15" s="31" t="n">
         <f aca="false">(0.1216+0.1192)/2</f>
         <v>0.1204</v>
       </c>
-      <c r="F13" s="32" t="n">
+      <c r="F15" s="32" t="n">
         <f aca="false">(0.6049)/1</f>
         <v>0.6049</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G15" s="31" t="n">
         <f aca="false">(0.5747)/1</f>
         <v>0.5747</v>
       </c>
-      <c r="H13" s="33" t="n">
+      <c r="H15" s="33" t="n">
         <f aca="false">(0.1194+0.1194)/2</f>
         <v>0.1194</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C16" s="29" t="n">
         <f aca="false">(0.7298+0.7055)/2</f>
         <v>0.71765</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D16" s="28" t="n">
         <f aca="false">(0.7841+0.8337)/2</f>
         <v>0.8089</v>
       </c>
-      <c r="E14" s="30" t="n">
+      <c r="E16" s="30" t="n">
         <f aca="false">(0.0282+0.0285)/2</f>
         <v>0.02835</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F16" s="29" t="n">
         <f aca="false">(0.7581+0.7598)/2</f>
         <v>0.75895</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G16" s="28" t="n">
         <f aca="false">(0.7847+0.7562)/2</f>
         <v>0.77045</v>
       </c>
-      <c r="H14" s="30" t="n">
+      <c r="H16" s="30" t="n">
         <f aca="false">(0.037+0.0369)/2</f>
         <v>0.03695</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="25" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19"/>
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="32" t="n">
+      <c r="C17" s="32" t="n">
         <f aca="false">(0.5823+0.5715)/2</f>
         <v>0.5769</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D17" s="31" t="n">
         <f aca="false">(0.5692+0.5583)/2</f>
         <v>0.56375</v>
       </c>
-      <c r="E15" s="33" t="n">
+      <c r="E17" s="33" t="n">
         <f aca="false">(0.1638+0.1647)/2</f>
         <v>0.16425</v>
       </c>
-      <c r="F15" s="32" t="n">
+      <c r="F17" s="32" t="n">
         <f aca="false">(0.5205+0.5217)/2</f>
         <v>0.5211</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G17" s="31" t="n">
         <f aca="false">(0.5214+0.5275)/2</f>
         <v>0.52445</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H17" s="33" t="n">
         <f aca="false">(0.1307+0.1299)/2</f>
         <v>0.1303</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B22" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="O21" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37"/>
-      <c r="B23" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="B23" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
       <c r="O23" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="37"/>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37"/>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="0" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="37"/>
+      <c r="B28" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="37"/>
-      <c r="B31" s="36" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="37"/>
+      <c r="B33" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B36" s="35" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1716,8 +1764,11 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1730,14 +1781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="1" sqref="F12:G13 I12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2419,14 +2470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F12:G13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2455,7 +2506,7 @@
       </c>
       <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
-        <v>0.299719963743936</v>
+        <v>0.299719963743937</v>
       </c>
       <c r="N2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(N4:N303)</f>
@@ -15191,14 +15242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="F12:G13 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15220,7 +15271,7 @@
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(B4:B303)</f>
-        <v>0.327147963466075</v>
+        <v>0.327147963466074</v>
       </c>
       <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
@@ -27940,14 +27991,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="F12:G13 T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40689,14 +40740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H303" activeCellId="1" sqref="F12:G13 H303"/>
+      <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40730,7 +40781,7 @@
       </c>
       <c r="H2" s="22" t="n">
         <f aca="false">_xlfn.STDEV.P(H4:H303)</f>
-        <v>0.278690339903548</v>
+        <v>0.278690339903549</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=0")</f>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="128">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">KNN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best of k=[1, 50]</t>
   </si>
   <si>
     <t xml:space="preserve">Plan</t>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">RDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best of k=[1, 50]</t>
   </si>
   <si>
     <t xml:space="preserve">Stage 1 establishes the likelihood to extract a user's dataset of transactions for stage 2</t>
@@ -420,7 +420,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -460,6 +460,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -477,7 +484,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,12 +495,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F9D4"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -615,7 +616,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,6 +713,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,39 +725,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,7 +769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,11 +781,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -784,19 +793,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,7 +838,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -877,10 +886,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1048576"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1138,7 +1147,7 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="24" t="n">
         <f aca="false">(0.429+0.4242+0.4323)/3</f>
         <v>0.4285</v>
       </c>
@@ -1214,7 +1223,7 @@
         <f aca="false">(0.6344+0.6545+0.6652)/3</f>
         <v>0.651366666666667</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="25" t="n">
         <f aca="false">(0.0264+0.0266+0.0259)/3</f>
         <v>0.0263</v>
       </c>
@@ -1226,7 +1235,7 @@
         <f aca="false">(0.5855+0.5623)/2</f>
         <v>0.5739</v>
       </c>
-      <c r="K7" s="24" t="n">
+      <c r="K7" s="25" t="n">
         <f aca="false">(0.0254+0.0255)/2</f>
         <v>0.02545</v>
       </c>
@@ -1238,7 +1247,7 @@
         <f aca="false">(0.5392+0.5216)/2</f>
         <v>0.5304</v>
       </c>
-      <c r="N7" s="24" t="n">
+      <c r="N7" s="25" t="n">
         <f aca="false">(0.0269+0.0266)/2</f>
         <v>0.02675</v>
       </c>
@@ -1248,7 +1257,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -1318,7 +1327,7 @@
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
@@ -1330,7 +1339,7 @@
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="25" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
@@ -1342,7 +1351,7 @@
         <f aca="false">(0.5451+0.5456)/2</f>
         <v>0.54535</v>
       </c>
-      <c r="K9" s="24" t="n">
+      <c r="K9" s="25" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
@@ -1354,12 +1363,9 @@
         <f aca="false">(0.5145+0.5146)/2</f>
         <v>0.51455</v>
       </c>
-      <c r="N9" s="24" t="n">
+      <c r="N9" s="25" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,16 +1421,13 @@
         <f aca="false">(0.0952+0.0952)/2</f>
         <v>0.0952</v>
       </c>
-      <c r="O10" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1441,8 +1444,8 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -1469,8 +1472,8 @@
       <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
@@ -1479,64 +1482,65 @@
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="29" t="n">
         <f aca="false">(0.6684+0.6912)/2</f>
         <v>0.6798</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="29" t="n">
         <f aca="false">(0.6967+0.6607)/2</f>
         <v>0.6787</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="29" t="n">
         <f aca="false">(0.0302+0.0307)/2</f>
         <v>0.03045</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <f aca="false">(0.7336)/1</f>
         <v>0.7336</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G14" s="29" t="n">
         <f aca="false">(0.7158)/1</f>
         <v>0.7158</v>
       </c>
-      <c r="H14" s="30" t="n">
+      <c r="H14" s="31" t="n">
         <f aca="false">(0.0282+0.0286)/2</f>
         <v>0.0284</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="J14" s="32"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="33" t="n">
         <f aca="false">(0.5605+0.5406)/2</f>
         <v>0.55055</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D15" s="33" t="n">
         <f aca="false">(0.5246+0.5207)/2</f>
         <v>0.52265</v>
       </c>
-      <c r="E15" s="31" t="n">
+      <c r="E15" s="33" t="n">
         <f aca="false">(0.1216+0.1192)/2</f>
         <v>0.1204</v>
       </c>
-      <c r="F15" s="32" t="n">
+      <c r="F15" s="34" t="n">
         <f aca="false">(0.6049)/1</f>
         <v>0.6049</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="33" t="n">
         <f aca="false">(0.5747)/1</f>
         <v>0.5747</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="35" t="n">
         <f aca="false">(0.1194+0.1194)/2</f>
         <v>0.1194</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -1545,216 +1549,402 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="30" t="n">
         <f aca="false">(0.7298+0.7055)/2</f>
         <v>0.71765</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="29" t="n">
         <f aca="false">(0.7841+0.8337)/2</f>
         <v>0.8089</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="31" t="n">
         <f aca="false">(0.0282+0.0285)/2</f>
         <v>0.02835</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <f aca="false">(0.7581+0.7598)/2</f>
         <v>0.75895</v>
       </c>
-      <c r="G16" s="28" t="n">
+      <c r="G16" s="29" t="n">
         <f aca="false">(0.7847+0.7562)/2</f>
         <v>0.77045</v>
       </c>
-      <c r="H16" s="30" t="n">
+      <c r="H16" s="31" t="n">
         <f aca="false">(0.037+0.0369)/2</f>
         <v>0.03695</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="32" t="n">
+      <c r="C17" s="34" t="n">
         <f aca="false">(0.5823+0.5715)/2</f>
         <v>0.5769</v>
       </c>
-      <c r="D17" s="31" t="n">
+      <c r="D17" s="33" t="n">
         <f aca="false">(0.5692+0.5583)/2</f>
         <v>0.56375</v>
       </c>
-      <c r="E17" s="33" t="n">
+      <c r="E17" s="35" t="n">
         <f aca="false">(0.1638+0.1647)/2</f>
         <v>0.16425</v>
       </c>
-      <c r="F17" s="32" t="n">
+      <c r="F17" s="34" t="n">
         <f aca="false">(0.5205+0.5217)/2</f>
         <v>0.5211</v>
       </c>
-      <c r="G17" s="31" t="n">
+      <c r="G17" s="33" t="n">
         <f aca="false">(0.5214+0.5275)/2</f>
         <v>0.52445</v>
       </c>
-      <c r="H17" s="33" t="n">
+      <c r="H17" s="35" t="n">
         <f aca="false">(0.1307+0.1299)/2</f>
         <v>0.1303</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29" t="n">
+        <f aca="false">C14-C5</f>
+        <v>0.099533333333333</v>
+      </c>
+      <c r="D21" s="29" t="n">
+        <f aca="false">D14-D5</f>
+        <v>0.0866</v>
+      </c>
+      <c r="E21" s="29" t="n">
+        <f aca="false">E14-E5</f>
+        <v>0.0057833333333333</v>
+      </c>
+      <c r="F21" s="30" t="n">
+        <f aca="false">F14-F5</f>
+        <v>0.0345</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <f aca="false">G14-G5</f>
+        <v>0.00533333333333297</v>
+      </c>
+      <c r="H21" s="31" t="n">
+        <f aca="false">H14-H5</f>
+        <v>0.0045</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="33" t="n">
+        <f aca="false">C15-C6</f>
+        <v>0.12205</v>
+      </c>
+      <c r="D22" s="33" t="n">
+        <f aca="false">D15-D6</f>
+        <v>0.066183333333333</v>
+      </c>
+      <c r="E22" s="33" t="n">
+        <f aca="false">E15-E6</f>
+        <v>0.005766666666667</v>
+      </c>
+      <c r="F22" s="34" t="n">
+        <f aca="false">F15-F6</f>
+        <v>0.0652666666666669</v>
+      </c>
+      <c r="G22" s="33" t="n">
+        <f aca="false">G15-G6</f>
+        <v>0.0169666666666669</v>
+      </c>
+      <c r="H22" s="35" t="n">
+        <f aca="false">H15-H6</f>
+        <v>0.004666666666667</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="30" t="n">
+        <f aca="false">C16-C7</f>
+        <v>0.0913499999999999</v>
+      </c>
+      <c r="D23" s="29" t="n">
+        <f aca="false">D16-D7</f>
+        <v>0.160766666666667</v>
+      </c>
+      <c r="E23" s="31" t="n">
+        <f aca="false">E16-E7</f>
+        <v>0.00695</v>
+      </c>
+      <c r="F23" s="30" t="n">
+        <f aca="false">F16-F7</f>
+        <v>0.127983333333333</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <f aca="false">G16-G7</f>
+        <v>0.119083333333333</v>
+      </c>
+      <c r="H23" s="31" t="n">
+        <f aca="false">H16-H7</f>
+        <v>0.01065</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="34" t="n">
+        <f aca="false">C17-C8</f>
+        <v>0.197966666666667</v>
+      </c>
+      <c r="D24" s="33" t="n">
+        <f aca="false">D17-D8</f>
+        <v>0.156816666666667</v>
+      </c>
+      <c r="E24" s="35" t="n">
+        <f aca="false">E17-E8</f>
+        <v>0.04565</v>
+      </c>
+      <c r="F24" s="34" t="n">
+        <f aca="false">F17-F8</f>
+        <v>0.151666666666667</v>
+      </c>
+      <c r="G24" s="33" t="n">
+        <f aca="false">G17-G8</f>
+        <v>0.159216666666667</v>
+      </c>
+      <c r="H24" s="35" t="n">
+        <f aca="false">H17-H8</f>
+        <v>0.0136</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="B27" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="O27" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="39" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="B29" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="O30" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39"/>
+      <c r="B31" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="O23" s="39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="0" t="s">
+      <c r="O31" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="39"/>
+      <c r="B32" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="0" t="s">
+      <c r="O32" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+      <c r="B34" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="38" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="39"/>
+      <c r="B35" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36" t="s">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="39" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
+      <c r="B36" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="B37" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37" t="s">
+      <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="38" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39"/>
+      <c r="B40" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36" t="s">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
+      <c r="B41" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="H41" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
+      <c r="B42" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="35" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
+      <c r="B43" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -1769,6 +1959,11 @@
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1801,7 +1996,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1825,7 +2020,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
@@ -1838,40 +2033,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1917,7 +2112,7 @@
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="40" t="n">
+      <c r="L3" s="42" t="n">
         <v>0.7585</v>
       </c>
       <c r="M3" s="12"/>
@@ -1925,11 +2120,11 @@
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="O3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
@@ -1978,9 +2173,9 @@
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
@@ -2082,7 +2277,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
@@ -2107,7 +2302,7 @@
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="H7" s="25" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
@@ -2116,7 +2311,7 @@
         <v>0.331033333333333</v>
       </c>
       <c r="J7" s="22"/>
-      <c r="K7" s="24" t="n">
+      <c r="K7" s="25" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
@@ -2125,7 +2320,7 @@
         <v>0.3158</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="24" t="n">
+      <c r="N7" s="25" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -2135,7 +2330,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -2199,7 +2394,7 @@
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="25" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
@@ -2211,7 +2406,7 @@
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="24" t="n">
+      <c r="H9" s="25" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
@@ -2220,19 +2415,19 @@
         <v>0.1408</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="K9" s="24" t="n">
+      <c r="K9" s="25" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="42" t="n">
+      <c r="L9" s="44" t="n">
         <v>0.1255</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="43" t="n">
+      <c r="N9" s="45" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,175 +2468,175 @@
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="44" t="n">
+      <c r="L10" s="46" t="n">
         <v>0.1578</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="45" t="n">
+      <c r="N10" s="47" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="B13" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="O13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="39" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="O16" s="39" t="s">
-        <v>20</v>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="O16" s="41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="39" t="s">
-        <v>20</v>
+      <c r="O17" s="41" t="s">
+        <v>19</v>
       </c>
       <c r="Q17" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="0" t="s">
+      <c r="O18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="B20" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
-        <v>31</v>
+      <c r="A22" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
-        <v>33</v>
+      <c r="A23" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="37" t="s">
         <v>59</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="37" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -420,7 +420,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,13 +457,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
       <charset val="1"/>
     </font>
     <font>
@@ -616,7 +609,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -713,10 +706,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,23 +714,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -749,19 +726,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,7 +734,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,7 +854,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,7 +1112,7 @@
       <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="21" t="n">
         <f aca="false">(0.429+0.4242+0.4323)/3</f>
         <v>0.4285</v>
       </c>
@@ -1223,7 +1188,7 @@
         <f aca="false">(0.6344+0.6545+0.6652)/3</f>
         <v>0.651366666666667</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="24" t="n">
         <f aca="false">(0.0264+0.0266+0.0259)/3</f>
         <v>0.0263</v>
       </c>
@@ -1235,7 +1200,7 @@
         <f aca="false">(0.5855+0.5623)/2</f>
         <v>0.5739</v>
       </c>
-      <c r="K7" s="25" t="n">
+      <c r="K7" s="24" t="n">
         <f aca="false">(0.0254+0.0255)/2</f>
         <v>0.02545</v>
       </c>
@@ -1247,7 +1212,7 @@
         <f aca="false">(0.5392+0.5216)/2</f>
         <v>0.5304</v>
       </c>
-      <c r="N7" s="25" t="n">
+      <c r="N7" s="24" t="n">
         <f aca="false">(0.0269+0.0266)/2</f>
         <v>0.02675</v>
       </c>
@@ -1257,7 +1222,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -1327,7 +1292,7 @@
         <f aca="false">(0.3498+0.3479+0.3496)/3</f>
         <v>0.3491</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
@@ -1339,7 +1304,7 @@
         <f aca="false">(0.4779+0.4776+0.4793)/3</f>
         <v>0.478266666666667</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="24" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
@@ -1351,7 +1316,7 @@
         <f aca="false">(0.5451+0.5456)/2</f>
         <v>0.54535</v>
       </c>
-      <c r="K9" s="25" t="n">
+      <c r="K9" s="24" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
@@ -1363,7 +1328,7 @@
         <f aca="false">(0.5145+0.5146)/2</f>
         <v>0.51455</v>
       </c>
-      <c r="N9" s="25" t="n">
+      <c r="N9" s="24" t="n">
         <f aca="false">(0.0239+0.0239)/2</f>
         <v>0.0239</v>
       </c>
@@ -1423,11 +1388,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1444,8 +1409,8 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -1472,8 +1437,8 @@
       <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
@@ -1482,65 +1447,65 @@
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="12" t="n">
         <f aca="false">(0.6684+0.6912)/2</f>
         <v>0.6798</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="12" t="n">
         <f aca="false">(0.6967+0.6607)/2</f>
         <v>0.6787</v>
       </c>
-      <c r="E14" s="29" t="n">
+      <c r="E14" s="12" t="n">
         <f aca="false">(0.0302+0.0307)/2</f>
         <v>0.03045</v>
       </c>
-      <c r="F14" s="30" t="n">
-        <f aca="false">(0.7336)/1</f>
-        <v>0.7336</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <f aca="false">(0.7158)/1</f>
-        <v>0.7158</v>
-      </c>
-      <c r="H14" s="31" t="n">
+      <c r="F14" s="11" t="n">
+        <f aca="false">(0.7636)/1</f>
+        <v>0.7636</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">(0.7658)/1</f>
+        <v>0.7658</v>
+      </c>
+      <c r="H14" s="13" t="n">
         <f aca="false">(0.0282+0.0286)/2</f>
         <v>0.0284</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
       <c r="B15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="33" t="n">
+      <c r="C15" s="16" t="n">
         <f aca="false">(0.5605+0.5406)/2</f>
         <v>0.55055</v>
       </c>
-      <c r="D15" s="33" t="n">
+      <c r="D15" s="16" t="n">
         <f aca="false">(0.5246+0.5207)/2</f>
         <v>0.52265</v>
       </c>
-      <c r="E15" s="33" t="n">
+      <c r="E15" s="16" t="n">
         <f aca="false">(0.1216+0.1192)/2</f>
         <v>0.1204</v>
       </c>
-      <c r="F15" s="34" t="n">
-        <f aca="false">(0.6049)/1</f>
-        <v>0.6049</v>
-      </c>
-      <c r="G15" s="33" t="n">
-        <f aca="false">(0.5747)/1</f>
-        <v>0.5747</v>
-      </c>
-      <c r="H15" s="35" t="n">
+      <c r="F15" s="15" t="n">
+        <f aca="false">(0.6249)/1</f>
+        <v>0.6249</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <f aca="false">(0.5947)/1</f>
+        <v>0.5947</v>
+      </c>
+      <c r="H15" s="17" t="n">
         <f aca="false">(0.1194+0.1194)/2</f>
         <v>0.1194</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -1549,68 +1514,68 @@
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">(0.7298+0.7055)/2</f>
         <v>0.71765</v>
       </c>
-      <c r="D16" s="29" t="n">
-        <f aca="false">(0.7841+0.8337)/2</f>
-        <v>0.8089</v>
-      </c>
-      <c r="E16" s="31" t="n">
+      <c r="D16" s="12" t="n">
+        <f aca="false">(0.7541+0.7637)/2</f>
+        <v>0.7589</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <f aca="false">(0.0282+0.0285)/2</f>
         <v>0.02835</v>
       </c>
-      <c r="F16" s="30" t="n">
-        <f aca="false">(0.7581+0.7598)/2</f>
-        <v>0.75895</v>
-      </c>
-      <c r="G16" s="29" t="n">
-        <f aca="false">(0.7847+0.7562)/2</f>
-        <v>0.77045</v>
-      </c>
-      <c r="H16" s="31" t="n">
+      <c r="F16" s="11" t="n">
+        <f aca="false">(0.7281+0.7298)/2</f>
+        <v>0.72895</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">(0.7447+0.7462)/2</f>
+        <v>0.74545</v>
+      </c>
+      <c r="H16" s="13" t="n">
         <f aca="false">(0.037+0.0369)/2</f>
         <v>0.03695</v>
       </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="34" t="n">
+      <c r="C17" s="15" t="n">
         <f aca="false">(0.5823+0.5715)/2</f>
         <v>0.5769</v>
       </c>
-      <c r="D17" s="33" t="n">
-        <f aca="false">(0.5692+0.5583)/2</f>
-        <v>0.56375</v>
-      </c>
-      <c r="E17" s="35" t="n">
-        <f aca="false">(0.1638+0.1647)/2</f>
-        <v>0.16425</v>
-      </c>
-      <c r="F17" s="34" t="n">
+      <c r="D17" s="16" t="n">
+        <f aca="false">(0.5892+0.5783)/2</f>
+        <v>0.58375</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <f aca="false">(0.1438+0.1447)/2</f>
+        <v>0.14425</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <f aca="false">(0.5205+0.5217)/2</f>
         <v>0.5211</v>
       </c>
-      <c r="G17" s="33" t="n">
+      <c r="G17" s="16" t="n">
         <f aca="false">(0.5214+0.5275)/2</f>
         <v>0.52445</v>
       </c>
-      <c r="H17" s="35" t="n">
+      <c r="H17" s="17" t="n">
         <f aca="false">(0.1307+0.1299)/2</f>
         <v>0.1303</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1627,8 +1592,8 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -1655,8 +1620,8 @@
       <c r="H20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
@@ -1665,64 +1630,64 @@
       <c r="B21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29" t="n">
+      <c r="C21" s="12" t="n">
         <f aca="false">C14-C5</f>
         <v>0.099533333333333</v>
       </c>
-      <c r="D21" s="29" t="n">
+      <c r="D21" s="12" t="n">
         <f aca="false">D14-D5</f>
         <v>0.0866</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="E21" s="12" t="n">
         <f aca="false">E14-E5</f>
         <v>0.0057833333333333</v>
       </c>
-      <c r="F21" s="30" t="n">
+      <c r="F21" s="11" t="n">
         <f aca="false">F14-F5</f>
-        <v>0.0345</v>
-      </c>
-      <c r="G21" s="29" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="G21" s="12" t="n">
         <f aca="false">G14-G5</f>
-        <v>0.00533333333333297</v>
-      </c>
-      <c r="H21" s="31" t="n">
+        <v>0.055333333333333</v>
+      </c>
+      <c r="H21" s="13" t="n">
         <f aca="false">H14-H5</f>
         <v>0.0045</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
       <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">C15-C6</f>
         <v>0.12205</v>
       </c>
-      <c r="D22" s="33" t="n">
+      <c r="D22" s="16" t="n">
         <f aca="false">D15-D6</f>
         <v>0.066183333333333</v>
       </c>
-      <c r="E22" s="33" t="n">
+      <c r="E22" s="16" t="n">
         <f aca="false">E15-E6</f>
         <v>0.005766666666667</v>
       </c>
-      <c r="F22" s="34" t="n">
+      <c r="F22" s="15" t="n">
         <f aca="false">F15-F6</f>
-        <v>0.0652666666666669</v>
-      </c>
-      <c r="G22" s="33" t="n">
+        <v>0.0852666666666669</v>
+      </c>
+      <c r="G22" s="16" t="n">
         <f aca="false">G15-G6</f>
-        <v>0.0169666666666669</v>
-      </c>
-      <c r="H22" s="35" t="n">
+        <v>0.0369666666666669</v>
+      </c>
+      <c r="H22" s="17" t="n">
         <f aca="false">H15-H6</f>
         <v>0.004666666666667</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
@@ -1731,126 +1696,126 @@
       <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="11" t="n">
         <f aca="false">C16-C7</f>
         <v>0.0913499999999999</v>
       </c>
-      <c r="D23" s="29" t="n">
+      <c r="D23" s="12" t="n">
         <f aca="false">D16-D7</f>
-        <v>0.160766666666667</v>
-      </c>
-      <c r="E23" s="31" t="n">
+        <v>0.110766666666667</v>
+      </c>
+      <c r="E23" s="13" t="n">
         <f aca="false">E16-E7</f>
         <v>0.00695</v>
       </c>
-      <c r="F23" s="30" t="n">
+      <c r="F23" s="11" t="n">
         <f aca="false">F16-F7</f>
-        <v>0.127983333333333</v>
-      </c>
-      <c r="G23" s="29" t="n">
+        <v>0.097983333333333</v>
+      </c>
+      <c r="G23" s="12" t="n">
         <f aca="false">G16-G7</f>
-        <v>0.119083333333333</v>
-      </c>
-      <c r="H23" s="31" t="n">
+        <v>0.094083333333333</v>
+      </c>
+      <c r="H23" s="13" t="n">
         <f aca="false">H16-H7</f>
         <v>0.01065</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="n">
+      <c r="C24" s="15" t="n">
         <f aca="false">C17-C8</f>
         <v>0.197966666666667</v>
       </c>
-      <c r="D24" s="33" t="n">
+      <c r="D24" s="16" t="n">
         <f aca="false">D17-D8</f>
-        <v>0.156816666666667</v>
-      </c>
-      <c r="E24" s="35" t="n">
+        <v>0.176816666666667</v>
+      </c>
+      <c r="E24" s="17" t="n">
         <f aca="false">E17-E8</f>
-        <v>0.04565</v>
-      </c>
-      <c r="F24" s="34" t="n">
+        <v>0.02565</v>
+      </c>
+      <c r="F24" s="15" t="n">
         <f aca="false">F17-F8</f>
         <v>0.151666666666667</v>
       </c>
-      <c r="G24" s="33" t="n">
+      <c r="G24" s="16" t="n">
         <f aca="false">G17-G8</f>
         <v>0.159216666666667</v>
       </c>
-      <c r="H24" s="35" t="n">
+      <c r="H24" s="17" t="n">
         <f aca="false">H17-H8</f>
         <v>0.0136</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="O30" s="41" t="s">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="O30" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="34" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="0" t="s">
@@ -1858,11 +1823,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="O32" s="41" t="s">
+      <c r="O32" s="34" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="0" t="s">
@@ -1870,21 +1835,21 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -1892,7 +1857,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -1900,27 +1865,27 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
+      <c r="A38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="30" t="s">
         <v>38</v>
       </c>
       <c r="H41" s="0" t="s">
@@ -1928,18 +1893,18 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="30" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2112,7 +2077,7 @@
         <f aca="false">(0.0181+0.0175)/2</f>
         <v>0.0178</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="35" t="n">
         <v>0.7585</v>
       </c>
       <c r="M3" s="12"/>
@@ -2120,11 +2085,11 @@
         <f aca="false">(0.0195+0.0186)/2</f>
         <v>0.01905</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
@@ -2173,9 +2138,9 @@
         <f aca="false">(0.0985+0.0986)/2</f>
         <v>0.09855</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
@@ -2302,7 +2267,7 @@
         <f aca="false">(0.2274+0.2273+0.2291)/3</f>
         <v>0.227933333333333</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="24" t="n">
         <f aca="false">(0.0209+0.0207+0.0214)/3</f>
         <v>0.021</v>
       </c>
@@ -2311,7 +2276,7 @@
         <v>0.331033333333333</v>
       </c>
       <c r="J7" s="22"/>
-      <c r="K7" s="25" t="n">
+      <c r="K7" s="24" t="n">
         <f aca="false">(0.0319+0.0309+0.031)/3</f>
         <v>0.0312666666666667</v>
       </c>
@@ -2320,7 +2285,7 @@
         <v>0.3158</v>
       </c>
       <c r="M7" s="22"/>
-      <c r="N7" s="25" t="n">
+      <c r="N7" s="24" t="n">
         <f aca="false">(0.0209+0.0214)/2</f>
         <v>0.02115</v>
       </c>
@@ -2330,7 +2295,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="n">
@@ -2394,7 +2359,7 @@
         <f aca="false">(0.085+0.0874+0.0856)/3</f>
         <v>0.086</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="24" t="n">
         <f aca="false">(0.0097+0.0095+0.0093)/3</f>
         <v>0.0095</v>
       </c>
@@ -2406,7 +2371,7 @@
         <f aca="false">(0.1109+0.1114+0.1119)/3</f>
         <v>0.1114</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="24" t="n">
         <f aca="false">(0.0187+0.0184+0.0187)/3</f>
         <v>0.0186</v>
       </c>
@@ -2415,15 +2380,15 @@
         <v>0.1408</v>
       </c>
       <c r="J9" s="22"/>
-      <c r="K9" s="25" t="n">
+      <c r="K9" s="24" t="n">
         <f aca="false">(0.0221+0.0222)/2</f>
         <v>0.02215</v>
       </c>
-      <c r="L9" s="44" t="n">
+      <c r="L9" s="37" t="n">
         <v>0.1255</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="45" t="n">
+      <c r="N9" s="38" t="n">
         <v>0.0121</v>
       </c>
       <c r="O9" s="0" t="s">
@@ -2468,11 +2433,11 @@
         <f aca="false">(0.0925+0.0919)/2</f>
         <v>0.0922</v>
       </c>
-      <c r="L10" s="46" t="n">
+      <c r="L10" s="39" t="n">
         <v>0.1578</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="47" t="n">
+      <c r="N10" s="40" t="n">
         <v>0.0837</v>
       </c>
       <c r="O10" s="0" t="s">
@@ -2480,63 +2445,63 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="37"/>
-      <c r="M12" s="38"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="O16" s="41" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="O16" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="34" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="0" t="s">
@@ -2544,11 +2509,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="34" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="0" t="s">
@@ -2556,21 +2521,21 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2578,7 +2543,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="32" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2586,27 +2551,27 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
+      <c r="A24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="30" t="s">
         <v>58</v>
       </c>
       <c r="H27" s="0" t="s">
@@ -2614,10 +2579,10 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="30" t="s">
         <v>59</v>
       </c>
       <c r="H28" s="0" t="s">
@@ -2625,18 +2590,18 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="30" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">KNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELTA</t>
   </si>
   <si>
     <t xml:space="preserve">Plan</t>
@@ -821,6 +824,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1141,11 +1145,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55332178"/>
-        <c:axId val="10970441"/>
+        <c:axId val="18701851"/>
+        <c:axId val="97005762"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55332178"/>
+        <c:axId val="18701851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10970441"/>
+        <c:crossAx val="97005762"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10970441"/>
+        <c:axId val="97005762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1256,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1274,7 +1278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55332178"/>
+        <c:crossAx val="18701851"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1298,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1312,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>806400</xdr:colOff>
+      <xdr:colOff>805680</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1323,7 +1327,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5249880" y="9319320"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1343,8 +1347,8 @@
   </sheetPr>
   <dimension ref="A1:Q316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K36" activeCellId="0" sqref="K36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1899,6 +1903,11 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
     </row>
@@ -1927,6 +1936,15 @@
       <c r="H13" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
     </row>
@@ -1961,7 +1979,9 @@
         <f aca="false">(0.0282+0.0286)/2</f>
         <v>0.0284</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
@@ -1994,6 +2014,9 @@
         <f aca="false">(0.1194+0.1194)/2</f>
         <v>0.1194</v>
       </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
@@ -2027,6 +2050,15 @@
       <c r="H16" s="13" t="n">
         <f aca="false">(0.037+0.0369)/2</f>
         <v>0.03695</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>0.7456</v>
+      </c>
+      <c r="J16" s="22" t="n">
+        <v>0.7261</v>
+      </c>
+      <c r="K16" s="24" t="n">
+        <v>0.0508</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -2060,6 +2092,15 @@
         <f aca="false">(0.1307+0.1299)/2</f>
         <v>0.1303</v>
       </c>
+      <c r="I17" s="15" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="J17" s="16" t="n">
+        <v>0.4777</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>0.1255</v>
+      </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
     </row>
@@ -2069,7 +2110,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
@@ -2082,6 +2123,11 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
     </row>
@@ -2110,6 +2156,15 @@
       <c r="H20" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
     </row>
@@ -2143,6 +2198,18 @@
       <c r="H21" s="13" t="n">
         <f aca="false">H14-H5</f>
         <v>0.0045</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <f aca="false">I14-I5</f>
+        <v>-0.78915</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <f aca="false">J14-J5</f>
+        <v>-0.79395</v>
+      </c>
+      <c r="K21" s="13" t="n">
+        <f aca="false">K14-K5</f>
+        <v>-0.0233</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -2176,6 +2243,18 @@
         <f aca="false">H15-H6</f>
         <v>0.00466666666666667</v>
       </c>
+      <c r="I22" s="15" t="n">
+        <f aca="false">I15-I6</f>
+        <v>-0.6184</v>
+      </c>
+      <c r="J22" s="16" t="n">
+        <f aca="false">J15-J6</f>
+        <v>-0.62785</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <f aca="false">K15-K6</f>
+        <v>-0.10115</v>
+      </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
     </row>
@@ -2209,6 +2288,18 @@
       <c r="H23" s="13" t="n">
         <f aca="false">H16-H7</f>
         <v>0.01065</v>
+      </c>
+      <c r="I23" s="11" t="n">
+        <f aca="false">I16-I7</f>
+        <v>0.17825</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <f aca="false">J16-J7</f>
+        <v>0.1522</v>
+      </c>
+      <c r="K23" s="13" t="n">
+        <f aca="false">K16-K7</f>
+        <v>0.02535</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -2241,6 +2332,18 @@
       <c r="H24" s="17" t="n">
         <f aca="false">H17-H8</f>
         <v>0.0136</v>
+      </c>
+      <c r="I24" s="15" t="n">
+        <f aca="false">I17-I8</f>
+        <v>0.14805</v>
+      </c>
+      <c r="J24" s="16" t="n">
+        <f aca="false">J17-J8</f>
+        <v>0.1454</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <f aca="false">K17-K8</f>
+        <v>0.0212</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
@@ -2257,29 +2360,29 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
@@ -2289,77 +2392,77 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30" s="33"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="32"/>
       <c r="B31" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="32"/>
       <c r="B32" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L32" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="32"/>
       <c r="B35" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L35" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,65 +2470,65 @@
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32"/>
       <c r="B40" s="31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2539,7 @@
         <v>91</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" s="0" t="n">
         <f aca="false">AVERAGE(A47:A316)</f>
@@ -2467,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">AVERAGE(B47:B316)</f>
@@ -6407,7 +6510,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6420,11 +6523,13 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
   </mergeCells>
@@ -6446,7 +6551,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6457,16 +6562,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,52 +6594,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12771,7 +12876,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -12795,7 +12900,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -12815,7 +12920,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -12845,7 +12950,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -12865,7 +12970,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -12895,7 +13000,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -19187,17 +19292,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -19218,7 +19323,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19226,16 +19331,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19259,52 +19364,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25541,7 +25646,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -25559,7 +25664,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -25579,7 +25684,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -25597,7 +25702,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -25617,7 +25722,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -25635,7 +25740,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -31927,26 +32032,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -31967,7 +32072,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -31975,16 +32080,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32008,52 +32113,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38290,7 +38395,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -38308,7 +38413,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -38328,7 +38433,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -38346,7 +38451,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -38366,7 +38471,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -38384,7 +38489,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -44676,26 +44781,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -44716,7 +44821,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
@@ -44724,20 +44829,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44769,52 +44874,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="V3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="W3" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51051,7 +51156,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -51069,7 +51174,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -51089,7 +51194,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -51107,7 +51212,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -51127,7 +51232,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -51145,7 +51250,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -57437,26 +57542,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -789,7 +789,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1145,11 +1145,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="18701851"/>
-        <c:axId val="97005762"/>
+        <c:axId val="80438760"/>
+        <c:axId val="7501312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="18701851"/>
+        <c:axId val="80438760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97005762"/>
+        <c:crossAx val="7501312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97005762"/>
+        <c:axId val="7501312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18701851"/>
+        <c:crossAx val="80438760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,9 +1316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>805680</xdr:colOff>
+      <xdr:colOff>804240</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1327,7 +1327,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5249880" y="9319320"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1979,9 +1979,15 @@
         <f aca="false">(0.0282+0.0286)/2</f>
         <v>0.0284</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
+      <c r="I14" s="11" t="n">
+        <v>0.8233</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>0.8349</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>0.0331</v>
+      </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
     </row>
@@ -2014,9 +2020,15 @@
         <f aca="false">(0.1194+0.1194)/2</f>
         <v>0.1194</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
+      <c r="I15" s="15" t="n">
+        <v>0.6614</v>
+      </c>
+      <c r="J15" s="16" t="n">
+        <v>0.6506</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <v>0.1055</v>
+      </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
     </row>
@@ -2052,10 +2064,10 @@
         <v>0.03695</v>
       </c>
       <c r="I16" s="21" t="n">
-        <v>0.7456</v>
+        <v>0.7056</v>
       </c>
       <c r="J16" s="22" t="n">
-        <v>0.7261</v>
+        <v>0.7161</v>
       </c>
       <c r="K16" s="24" t="n">
         <v>0.0508</v>
@@ -2201,15 +2213,15 @@
       </c>
       <c r="I21" s="11" t="n">
         <f aca="false">I14-I5</f>
-        <v>-0.78915</v>
+        <v>0.03415</v>
       </c>
       <c r="J21" s="12" t="n">
         <f aca="false">J14-J5</f>
-        <v>-0.79395</v>
+        <v>0.0409499999999999</v>
       </c>
       <c r="K21" s="13" t="n">
         <f aca="false">K14-K5</f>
-        <v>-0.0233</v>
+        <v>0.0098</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -2245,15 +2257,15 @@
       </c>
       <c r="I22" s="15" t="n">
         <f aca="false">I15-I6</f>
-        <v>-0.6184</v>
+        <v>0.0429999999999999</v>
       </c>
       <c r="J22" s="16" t="n">
         <f aca="false">J15-J6</f>
-        <v>-0.62785</v>
+        <v>0.02275</v>
       </c>
       <c r="K22" s="17" t="n">
         <f aca="false">K15-K6</f>
-        <v>-0.10115</v>
+        <v>0.00435000000000001</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -2291,11 +2303,11 @@
       </c>
       <c r="I23" s="11" t="n">
         <f aca="false">I16-I7</f>
-        <v>0.17825</v>
+        <v>0.13825</v>
       </c>
       <c r="J23" s="12" t="n">
         <f aca="false">J16-J7</f>
-        <v>0.1522</v>
+        <v>0.1422</v>
       </c>
       <c r="K23" s="13" t="n">
         <f aca="false">K16-K7</f>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -1145,11 +1145,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80438760"/>
-        <c:axId val="7501312"/>
+        <c:axId val="75475290"/>
+        <c:axId val="49332515"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80438760"/>
+        <c:axId val="75475290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7501312"/>
+        <c:crossAx val="49332515"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,7 +1213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7501312"/>
+        <c:axId val="49332515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80438760"/>
+        <c:crossAx val="75475290"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,13 +1312,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>87480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>804240</xdr:colOff>
+      <xdr:colOff>801720</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1326,8 +1326,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5249880" y="9319320"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:off x="5249880" y="9319680"/>
+        <a:ext cx="5754960" cy="3234960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:Q316"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1703,8 +1703,8 @@
         <v>0.5698</v>
       </c>
       <c r="M7" s="22" t="n">
-        <f aca="false">(0.5392+0.5216)/2</f>
-        <v>0.5304</v>
+        <f aca="false">(0.5692+0.5616)/2</f>
+        <v>0.5654</v>
       </c>
       <c r="N7" s="24" t="n">
         <f aca="false">(0.0269+0.0266)/2</f>
@@ -1908,8 +1908,11 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="L12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -1945,8 +1948,15 @@
       <c r="K13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
+      <c r="L13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
@@ -1988,8 +1998,15 @@
       <c r="K14" s="13" t="n">
         <v>0.0331</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
+      <c r="L14" s="11" t="n">
+        <v>0.8181</v>
+      </c>
+      <c r="M14" s="12" t="n">
+        <v>0.8268</v>
+      </c>
+      <c r="N14" s="13" t="n">
+        <v>0.035</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
@@ -2029,8 +2046,15 @@
       <c r="K15" s="17" t="n">
         <v>0.1055</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
+      <c r="L15" s="15" t="n">
+        <v>0.6485</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>0.6698</v>
+      </c>
+      <c r="N15" s="17" t="n">
+        <v>0.1057</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
@@ -2064,16 +2088,23 @@
         <v>0.03695</v>
       </c>
       <c r="I16" s="21" t="n">
-        <v>0.7056</v>
+        <v>0.6656</v>
       </c>
       <c r="J16" s="22" t="n">
-        <v>0.7161</v>
+        <v>0.6761</v>
       </c>
       <c r="K16" s="24" t="n">
         <v>0.0508</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="21" t="n">
+        <v>0.6762</v>
+      </c>
+      <c r="M16" s="22" t="n">
+        <v>0.6881</v>
+      </c>
+      <c r="N16" s="24" t="n">
+        <v>0.0517</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
@@ -2113,8 +2144,15 @@
       <c r="K17" s="17" t="n">
         <v>0.1255</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="L17" s="15" t="n">
+        <v>0.4852</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>0.4851</v>
+      </c>
+      <c r="N17" s="17" t="n">
+        <v>0.1148</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L18" s="27"/>
@@ -2140,8 +2178,11 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="L19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
@@ -2177,8 +2218,15 @@
       <c r="K20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
+      <c r="L20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="19" t="s">
@@ -2223,8 +2271,18 @@
         <f aca="false">K14-K5</f>
         <v>0.0098</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="L21" s="11" t="n">
+        <f aca="false">L14-L5</f>
+        <v>-0.0216500000000001</v>
+      </c>
+      <c r="M21" s="12" t="n">
+        <f aca="false">M14-M5</f>
+        <v>-0.0253</v>
+      </c>
+      <c r="N21" s="13" t="n">
+        <f aca="false">N14-N5</f>
+        <v>0.0102</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
@@ -2267,8 +2325,18 @@
         <f aca="false">K15-K6</f>
         <v>0.00435000000000001</v>
       </c>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
+      <c r="L22" s="15" t="n">
+        <f aca="false">L15-L6</f>
+        <v>0.0307499999999999</v>
+      </c>
+      <c r="M22" s="16" t="n">
+        <f aca="false">M15-M6</f>
+        <v>0.0354</v>
+      </c>
+      <c r="N22" s="17" t="n">
+        <f aca="false">N15-N6</f>
+        <v>0.0054</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
@@ -2303,18 +2371,28 @@
       </c>
       <c r="I23" s="11" t="n">
         <f aca="false">I16-I7</f>
-        <v>0.13825</v>
+        <v>0.0982499999999999</v>
       </c>
       <c r="J23" s="12" t="n">
         <f aca="false">J16-J7</f>
-        <v>0.1422</v>
+        <v>0.1022</v>
       </c>
       <c r="K23" s="13" t="n">
         <f aca="false">K16-K7</f>
         <v>0.02535</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="L23" s="11" t="n">
+        <f aca="false">L16-L7</f>
+        <v>0.1064</v>
+      </c>
+      <c r="M23" s="12" t="n">
+        <f aca="false">M16-M7</f>
+        <v>0.1227</v>
+      </c>
+      <c r="N23" s="13" t="n">
+        <f aca="false">N16-N7</f>
+        <v>0.02495</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
@@ -2357,8 +2435,18 @@
         <f aca="false">K17-K8</f>
         <v>0.0212</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
+      <c r="L24" s="15" t="n">
+        <f aca="false">L17-L8</f>
+        <v>0.1462</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <f aca="false">M17-M8</f>
+        <v>0.1562</v>
+      </c>
+      <c r="N24" s="17" t="n">
+        <f aca="false">N17-N8</f>
+        <v>0.0118</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="28"/>
@@ -6522,7 +6610,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6536,12 +6624,14 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
   </mergeCells>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -101,13 +101,7 @@
     <t xml:space="preserve">Investigate classification methods: MLP, CNN, RFC, KNN.</t>
   </si>
   <si>
-    <t xml:space="preserve">What's the likelihood one can see a transaction and pick the customer or postcode?</t>
-  </si>
-  <si>
     <t xml:space="preserve">For identifying customer and postcode. On best and worst case scenarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's the likelihood one can see a set of transactions and guess the likelihood?</t>
   </si>
   <si>
     <t xml:space="preserve">Stage 2</t>
@@ -140,6 +134,12 @@
     <t xml:space="preserve">Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2.</t>
   </si>
   <si>
+    <t xml:space="preserve">RMSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
     <t xml:space="preserve">3a</t>
   </si>
   <si>
@@ -149,16 +149,25 @@
     <t xml:space="preserve">1 to n at reasonable intervals</t>
   </si>
   <si>
+    <t xml:space="preserve">Lin Reg</t>
+  </si>
+  <si>
     <t xml:space="preserve">3b</t>
   </si>
   <si>
     <t xml:space="preserve">Transaction obfuscation: random delays and combinations.</t>
   </si>
   <si>
+    <t xml:space="preserve">RF Reg</t>
+  </si>
+  <si>
     <t xml:space="preserve">3c</t>
   </si>
   <si>
     <t xml:space="preserve">Combine best of a and b for a final test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP Reg</t>
   </si>
   <si>
     <t xml:space="preserve">Correl</t>
@@ -470,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -548,6 +557,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -576,7 +592,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -717,6 +733,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,7 +813,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1145,11 +1169,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="75475290"/>
-        <c:axId val="49332515"/>
+        <c:axId val="91744696"/>
+        <c:axId val="17809391"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75475290"/>
+        <c:axId val="91744696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1229,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49332515"/>
+        <c:crossAx val="17809391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1213,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49332515"/>
+        <c:axId val="17809391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75475290"/>
+        <c:crossAx val="91744696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,13 +1336,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>87480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>801720</xdr:colOff>
+      <xdr:colOff>801000</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1326,8 +1350,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5249880" y="9319680"/>
-        <a:ext cx="5754960" cy="3234960"/>
+        <a:off x="5249880" y="9293400"/>
+        <a:ext cx="5754240" cy="3234240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1347,8 +1371,8 @@
   </sheetPr>
   <dimension ref="A1:Q316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2510,34 +2534,28 @@
       <c r="L31" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="32"/>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="32"/>
       <c r="B35" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L35" s="34" t="s">
         <v>20</v>
@@ -2545,10 +2563,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L36" s="34" t="s">
         <v>20</v>
@@ -2556,10 +2574,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L37" s="34" t="s">
         <v>20</v>
@@ -2570,19 +2588,26 @@
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32"/>
       <c r="B40" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="35"/>
+      <c r="M40" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N40" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
         <v>38</v>
       </c>
@@ -2592,43 +2617,70 @@
       <c r="H41" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="L41" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="35" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="N41" s="35" t="n">
+        <v>0.7053</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="35" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="N42" s="35" t="n">
+        <v>0.8166</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="35" t="n">
+        <v>0.1113</v>
+      </c>
+      <c r="N43" s="35" t="n">
+        <v>0.8507</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,7 +2691,7 @@
         <v>91</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E47" s="0" t="n">
         <f aca="false">AVERAGE(A47:A316)</f>
@@ -2670,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E48" s="0" t="n">
         <f aca="false">AVERAGE(B47:B316)</f>
@@ -6653,7 +6705,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6664,16 +6716,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,52 +6748,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12978,7 +13030,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -13002,7 +13054,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -13022,7 +13074,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -13052,7 +13104,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -13072,7 +13124,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -13102,7 +13154,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -19394,17 +19446,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -19425,7 +19477,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19433,16 +19485,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19466,52 +19518,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25748,7 +25800,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -25766,7 +25818,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -25786,7 +25838,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -25804,7 +25856,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -25824,7 +25876,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -25842,7 +25894,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -32134,26 +32186,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -32174,7 +32226,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -32182,16 +32234,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32215,52 +32267,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38497,7 +38549,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -38515,7 +38567,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -38535,7 +38587,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -38553,7 +38605,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -38573,7 +38625,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -38591,7 +38643,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -44883,26 +44935,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -44923,7 +44975,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
@@ -44931,20 +44983,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44976,52 +45028,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51258,7 +51310,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -51276,7 +51328,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -51296,7 +51348,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -51314,7 +51366,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -51334,7 +51386,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -51352,7 +51404,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -57644,26 +57696,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="122">
   <si>
     <t xml:space="preserve">Classification</t>
   </si>
@@ -131,6 +131,9 @@
     <t xml:space="preserve">Obfuscation methods</t>
   </si>
   <si>
+    <t xml:space="preserve">Results of reconstructing usage from net export</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stage 3 investigates methods to increase privacy and reduce the effectiveness of stage 1 and 2.</t>
   </si>
   <si>
@@ -143,10 +146,7 @@
     <t xml:space="preserve">3a</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple PKs and ledgers efficiency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 to n at reasonable intervals</t>
+    <t xml:space="preserve">Multiple PKs per customer: 2, 4, 6, 8, &amp; 10</t>
   </si>
   <si>
     <t xml:space="preserve">Lin Reg</t>
@@ -155,19 +155,28 @@
     <t xml:space="preserve">3b</t>
   </si>
   <si>
-    <t xml:space="preserve">Transaction obfuscation: random delays and combinations.</t>
+    <t xml:space="preserve">Combine ledgers with i) Natural split per postcode, ii) fixed split from all separate to all combined.</t>
   </si>
   <si>
     <t xml:space="preserve">RF Reg</t>
   </si>
   <si>
+    <t xml:space="preserve">Look at distribution of performance for the natural split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP Reg</t>
+  </si>
+  <si>
     <t xml:space="preserve">3c</t>
   </si>
   <si>
-    <t xml:space="preserve">Combine best of a and b for a final test.</t>
+    <t xml:space="preserve">Combine a) and b) if time</t>
   </si>
   <si>
-    <t xml:space="preserve">MLP Reg</t>
+    <t xml:space="preserve">3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net export transactions</t>
   </si>
   <si>
     <t xml:space="preserve">Correl</t>
@@ -813,7 +822,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -859,7 +868,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$E$52:$E$151</c:f>
+              <c:f>Overall!$E$53:$E$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1169,11 +1178,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="91744696"/>
-        <c:axId val="17809391"/>
+        <c:axId val="8498036"/>
+        <c:axId val="64981609"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91744696"/>
+        <c:axId val="8498036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1238,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17809391"/>
+        <c:crossAx val="64981609"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1237,7 +1246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17809391"/>
+        <c:axId val="64981609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1311,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91744696"/>
+        <c:crossAx val="8498036"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,13 +1344,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>801000</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>800280</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -1350,8 +1359,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5249880" y="9293400"/>
-        <a:ext cx="5754240" cy="3234240"/>
+        <a:off x="5249880" y="9451440"/>
+        <a:ext cx="5753520" cy="3233520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1369,10 +1378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q316"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,15 +2270,15 @@
       </c>
       <c r="C21" s="12" t="n">
         <f aca="false">C14-C5</f>
-        <v>0.0995333333333332</v>
+        <v>0.099533333333333</v>
       </c>
       <c r="D21" s="12" t="n">
         <f aca="false">D14-D5</f>
-        <v>0.0866000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="E21" s="12" t="n">
         <f aca="false">E14-E5</f>
-        <v>0.00578333333333333</v>
+        <v>0.0057833333333333</v>
       </c>
       <c r="F21" s="11" t="n">
         <f aca="false">F14-F5</f>
@@ -2277,7 +2286,7 @@
       </c>
       <c r="G21" s="12" t="n">
         <f aca="false">G14-G5</f>
-        <v>0.0553333333333333</v>
+        <v>0.055333333333333</v>
       </c>
       <c r="H21" s="13" t="n">
         <f aca="false">H14-H5</f>
@@ -2289,7 +2298,7 @@
       </c>
       <c r="J21" s="12" t="n">
         <f aca="false">J14-J5</f>
-        <v>0.0409499999999999</v>
+        <v>0.04095</v>
       </c>
       <c r="K21" s="13" t="n">
         <f aca="false">K14-K5</f>
@@ -2319,23 +2328,23 @@
       </c>
       <c r="D22" s="16" t="n">
         <f aca="false">D15-D6</f>
-        <v>0.0661833333333334</v>
+        <v>0.066183333333333</v>
       </c>
       <c r="E22" s="16" t="n">
         <f aca="false">E15-E6</f>
-        <v>0.00576666666666668</v>
+        <v>0.005766666666667</v>
       </c>
       <c r="F22" s="15" t="n">
         <f aca="false">F15-F6</f>
-        <v>0.0852666666666667</v>
+        <v>0.0852666666666669</v>
       </c>
       <c r="G22" s="16" t="n">
         <f aca="false">G15-G6</f>
-        <v>0.0369666666666667</v>
+        <v>0.0369666666666669</v>
       </c>
       <c r="H22" s="17" t="n">
         <f aca="false">H15-H6</f>
-        <v>0.00466666666666667</v>
+        <v>0.004666666666667</v>
       </c>
       <c r="I22" s="15" t="n">
         <f aca="false">I15-I6</f>
@@ -2351,7 +2360,7 @@
       </c>
       <c r="L22" s="15" t="n">
         <f aca="false">L15-L6</f>
-        <v>0.0307499999999999</v>
+        <v>0.0307500000000001</v>
       </c>
       <c r="M22" s="16" t="n">
         <f aca="false">M15-M6</f>
@@ -2371,7 +2380,7 @@
       </c>
       <c r="C23" s="11" t="n">
         <f aca="false">C16-C7</f>
-        <v>0.09135</v>
+        <v>0.0913499999999999</v>
       </c>
       <c r="D23" s="12" t="n">
         <f aca="false">D16-D7</f>
@@ -2383,11 +2392,11 @@
       </c>
       <c r="F23" s="11" t="n">
         <f aca="false">F16-F7</f>
-        <v>0.0979833333333333</v>
+        <v>0.0979833333333331</v>
       </c>
       <c r="G23" s="12" t="n">
         <f aca="false">G16-G7</f>
-        <v>0.0940833333333333</v>
+        <v>0.094083333333333</v>
       </c>
       <c r="H23" s="13" t="n">
         <f aca="false">H16-H7</f>
@@ -2395,7 +2404,7 @@
       </c>
       <c r="I23" s="11" t="n">
         <f aca="false">I16-I7</f>
-        <v>0.0982499999999999</v>
+        <v>0.0982500000000001</v>
       </c>
       <c r="J23" s="12" t="n">
         <f aca="false">J16-J7</f>
@@ -2586,35 +2595,35 @@
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="32"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>34</v>
+      </c>
+      <c r="L39" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32"/>
       <c r="B40" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N40" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="0" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="36" t="s">
@@ -2645,14 +2654,12 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="L43" s="36" t="s">
         <v>46</v>
-      </c>
-      <c r="L43" s="36" t="s">
-        <v>47</v>
       </c>
       <c r="M43" s="35" t="n">
         <v>0.1113</v>
@@ -2661,770 +2668,767 @@
         <v>0.8507</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="32" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="32" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32" t="s">
+      <c r="B45" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="32" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="B47" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="D47" s="32"/>
+      <c r="E47" s="32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <f aca="false">AVERAGE(A47:A316)</f>
-        <v>26.1925925925926</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <f aca="false">MEDIAN(A47:A316)</f>
-        <v>17</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <f aca="false">MODE(A47:A316)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(A47:A316)</f>
-        <v>27.1709257183037</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <f aca="false">A47+1</f>
-        <v>45</v>
+      <c r="F47" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E48" s="0" t="n">
-        <f aca="false">AVERAGE(B47:B316)</f>
-        <v>56.0851851851852</v>
+        <f aca="false">AVERAGE(A48:A317)</f>
+        <v>26.1925925925926</v>
       </c>
       <c r="F48" s="0" t="n">
-        <f aca="false">MEDIAN(B47:B316)</f>
-        <v>64</v>
+        <f aca="false">MEDIAN(A48:A317)</f>
+        <v>17</v>
       </c>
       <c r="G48" s="0" t="n">
-        <f aca="false">MODE(B47:B316)</f>
-        <v>76</v>
+        <f aca="false">MODE(A48:A317)</f>
+        <v>0</v>
       </c>
       <c r="H48" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(B47:B316)</f>
-        <v>30.651266709414</v>
+        <f aca="false">_xlfn.STDEV.P(A48:A317)</f>
+        <v>27.1709257183037</v>
       </c>
       <c r="J48" s="0" t="n">
         <f aca="false">A48+1</f>
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">AVERAGE(B48:B317)</f>
+        <v>56.0851851851852</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">MEDIAN(B48:B317)</f>
+        <v>64</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">MODE(B48:B317)</f>
+        <v>76</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B48:B317)</f>
+        <v>30.651266709414</v>
       </c>
       <c r="J49" s="0" t="n">
         <f aca="false">A49+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J50" s="0" t="n">
         <f aca="false">A50+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J51" s="0" t="n">
         <f aca="false">A51+1</f>
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D52)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J52" s="0" t="n">
         <f aca="false">A52+1</f>
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D53)-SUM($E$52:E52)</f>
-        <v>11</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D53)</f>
+        <v>22</v>
       </c>
       <c r="J53" s="0" t="n">
         <f aca="false">A53+1</f>
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D54)-SUM($E$52:E53)</f>
-        <v>13</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D54)-SUM($E$53:E53)</f>
+        <v>11</v>
       </c>
       <c r="J54" s="0" t="n">
         <f aca="false">A54+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D55)-SUM($E$52:E54)</f>
-        <v>10</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D55)-SUM($E$53:E54)</f>
+        <v>13</v>
       </c>
       <c r="J55" s="0" t="n">
         <f aca="false">A55+1</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D56)-SUM($E$52:E55)</f>
-        <v>11</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D56)-SUM($E$53:E55)</f>
+        <v>10</v>
       </c>
       <c r="J56" s="0" t="n">
         <f aca="false">A56+1</f>
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E57" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D57)-SUM($E$52:E56)</f>
-        <v>8</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D57)-SUM($E$53:E56)</f>
+        <v>11</v>
       </c>
       <c r="J57" s="0" t="n">
         <f aca="false">A57+1</f>
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D58)-SUM($E$52:E57)</f>
-        <v>4</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D58)-SUM($E$53:E57)</f>
+        <v>8</v>
       </c>
       <c r="J58" s="0" t="n">
         <f aca="false">A58+1</f>
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D59)-SUM($E$52:E58)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D59)-SUM($E$53:E58)</f>
+        <v>4</v>
       </c>
       <c r="J59" s="0" t="n">
         <f aca="false">A59+1</f>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D60)-SUM($E$52:E59)</f>
-        <v>8</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D60)-SUM($E$53:E59)</f>
+        <v>5</v>
       </c>
       <c r="J60" s="0" t="n">
         <f aca="false">A60+1</f>
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D61)-SUM($E$52:E60)</f>
-        <v>6</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D61)-SUM($E$53:E60)</f>
+        <v>8</v>
       </c>
       <c r="J61" s="0" t="n">
         <f aca="false">A61+1</f>
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D62)-SUM($E$52:E61)</f>
-        <v>7</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D62)-SUM($E$53:E61)</f>
+        <v>6</v>
       </c>
       <c r="J62" s="0" t="n">
         <f aca="false">A62+1</f>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D63)-SUM($E$52:E62)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D63)-SUM($E$53:E62)</f>
+        <v>7</v>
       </c>
       <c r="J63" s="0" t="n">
         <f aca="false">A63+1</f>
-        <v>97</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D64)-SUM($E$52:E63)</f>
-        <v>8</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D64)-SUM($E$53:E63)</f>
+        <v>5</v>
       </c>
       <c r="J64" s="0" t="n">
         <f aca="false">A64+1</f>
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D65)-SUM($E$52:E64)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D65)-SUM($E$53:E64)</f>
+        <v>8</v>
       </c>
       <c r="J65" s="0" t="n">
         <f aca="false">A65+1</f>
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D66)-SUM($E$52:E65)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D66)-SUM($E$53:E65)</f>
         <v>2</v>
       </c>
       <c r="J66" s="0" t="n">
         <f aca="false">A66+1</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D67)-SUM($E$52:E66)</f>
-        <v>9</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D67)-SUM($E$53:E66)</f>
+        <v>2</v>
       </c>
       <c r="J67" s="0" t="n">
         <f aca="false">A67+1</f>
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D68)-SUM($E$52:E67)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D68)-SUM($E$53:E67)</f>
+        <v>9</v>
       </c>
       <c r="J68" s="0" t="n">
         <f aca="false">A68+1</f>
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D69)-SUM($E$52:E68)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D69)-SUM($E$53:E68)</f>
+        <v>3</v>
       </c>
       <c r="J69" s="0" t="n">
         <f aca="false">A69+1</f>
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D70)-SUM($E$52:E69)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D70)-SUM($E$53:E69)</f>
+        <v>5</v>
       </c>
       <c r="J70" s="0" t="n">
         <f aca="false">A70+1</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D71)-SUM($E$52:E70)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D71)-SUM($E$53:E70)</f>
+        <v>3</v>
       </c>
       <c r="J71" s="0" t="n">
         <f aca="false">A71+1</f>
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D72)-SUM($E$52:E71)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D72)-SUM($E$53:E71)</f>
         <v>5</v>
       </c>
       <c r="J72" s="0" t="n">
         <f aca="false">A72+1</f>
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D73)-SUM($E$52:E72)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D73)-SUM($E$53:E72)</f>
         <v>5</v>
       </c>
       <c r="J73" s="0" t="n">
         <f aca="false">A73+1</f>
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D74)-SUM($E$52:E73)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D74)-SUM($E$53:E73)</f>
         <v>5</v>
       </c>
       <c r="J74" s="0" t="n">
         <f aca="false">A74+1</f>
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D75)-SUM($E$52:E74)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D75)-SUM($E$53:E74)</f>
+        <v>5</v>
       </c>
       <c r="J75" s="0" t="n">
         <f aca="false">A75+1</f>
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D76)-SUM($E$52:E75)</f>
-        <v>6</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D76)-SUM($E$53:E75)</f>
+        <v>3</v>
       </c>
       <c r="J76" s="0" t="n">
         <f aca="false">A76+1</f>
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D77)-SUM($E$52:E76)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D77)-SUM($E$53:E76)</f>
+        <v>6</v>
       </c>
       <c r="J77" s="0" t="n">
         <f aca="false">A77+1</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D78)-SUM($E$52:E77)</f>
-        <v>4</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D78)-SUM($E$53:E77)</f>
+        <v>2</v>
       </c>
       <c r="J78" s="0" t="n">
         <f aca="false">A78+1</f>
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D79)-SUM($E$52:E78)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D79)-SUM($E$53:E78)</f>
+        <v>4</v>
       </c>
       <c r="J79" s="0" t="n">
         <f aca="false">A79+1</f>
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D80)-SUM($E$52:E79)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D80)-SUM($E$53:E79)</f>
         <v>1</v>
       </c>
       <c r="J80" s="0" t="n">
         <f aca="false">A80+1</f>
-        <v>20</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D81)-SUM($E$52:E80)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D81)-SUM($E$53:E80)</f>
         <v>1</v>
       </c>
       <c r="J81" s="0" t="n">
         <f aca="false">A81+1</f>
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E82" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D82)-SUM($E$52:E81)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D82)-SUM($E$53:E81)</f>
+        <v>1</v>
       </c>
       <c r="J82" s="0" t="n">
         <f aca="false">A82+1</f>
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D83)-SUM($E$52:E82)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D83)-SUM($E$53:E82)</f>
+        <v>2</v>
       </c>
       <c r="J83" s="0" t="n">
         <f aca="false">A83+1</f>
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D84)-SUM($E$52:E83)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D84)-SUM($E$53:E83)</f>
+        <v>3</v>
       </c>
       <c r="J84" s="0" t="n">
         <f aca="false">A84+1</f>
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E85" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D85)-SUM($E$52:E84)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D85)-SUM($E$53:E84)</f>
+        <v>1</v>
       </c>
       <c r="J85" s="0" t="n">
         <f aca="false">A85+1</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,14 +3436,14 @@
         <v>18</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D86)-SUM($E$52:E85)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D86)-SUM($E$53:E85)</f>
+        <v>3</v>
       </c>
       <c r="J86" s="0" t="n">
         <f aca="false">A86+1</f>
@@ -3448,1825 +3452,1832 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E87" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D87)-SUM($E$52:E86)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D87)-SUM($E$53:E86)</f>
+        <v>2</v>
       </c>
       <c r="J87" s="0" t="n">
         <f aca="false">A87+1</f>
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D88)-SUM($E$52:E87)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D88)-SUM($E$53:E87)</f>
+        <v>5</v>
       </c>
       <c r="J88" s="0" t="n">
         <f aca="false">A88+1</f>
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E89" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D89)-SUM($E$52:E88)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D89)-SUM($E$53:E88)</f>
+        <v>1</v>
       </c>
       <c r="J89" s="0" t="n">
         <f aca="false">A89+1</f>
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D90)-SUM($E$52:E89)</f>
-        <v>5</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D90)-SUM($E$53:E89)</f>
+        <v>2</v>
       </c>
       <c r="J90" s="0" t="n">
         <f aca="false">A90+1</f>
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E91" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D91)-SUM($E$52:E90)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D91)-SUM($E$53:E90)</f>
+        <v>5</v>
       </c>
       <c r="J91" s="0" t="n">
         <f aca="false">A91+1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E92" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D92)-SUM($E$52:E91)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D92)-SUM($E$53:E91)</f>
+        <v>0</v>
       </c>
       <c r="J92" s="0" t="n">
         <f aca="false">A92+1</f>
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E93" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D93)-SUM($E$52:E92)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D93)-SUM($E$53:E92)</f>
+        <v>3</v>
       </c>
       <c r="J93" s="0" t="n">
         <f aca="false">A93+1</f>
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E94" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D94)-SUM($E$52:E93)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D94)-SUM($E$53:E93)</f>
         <v>0</v>
       </c>
       <c r="J94" s="0" t="n">
         <f aca="false">A94+1</f>
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E95" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D95)-SUM($E$52:E94)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D95)-SUM($E$53:E94)</f>
+        <v>0</v>
       </c>
       <c r="J95" s="0" t="n">
         <f aca="false">A95+1</f>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E96" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D96)-SUM($E$52:E95)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D96)-SUM($E$53:E95)</f>
+        <v>2</v>
       </c>
       <c r="J96" s="0" t="n">
         <f aca="false">A96+1</f>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E97" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D97)-SUM($E$52:E96)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D97)-SUM($E$53:E96)</f>
+        <v>3</v>
       </c>
       <c r="J97" s="0" t="n">
         <f aca="false">A97+1</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B98" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D98" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>47</v>
-      </c>
       <c r="E98" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D98)-SUM($E$52:E97)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D98)-SUM($E$53:E97)</f>
+        <v>2</v>
       </c>
       <c r="J98" s="0" t="n">
         <f aca="false">A98+1</f>
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E99" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D99)-SUM($E$52:E98)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D99)-SUM($E$53:E98)</f>
         <v>1</v>
       </c>
       <c r="J99" s="0" t="n">
         <f aca="false">A99+1</f>
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E100" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D100)-SUM($E$52:E99)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D100)-SUM($E$53:E99)</f>
+        <v>1</v>
       </c>
       <c r="J100" s="0" t="n">
         <f aca="false">A100+1</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E101" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D101)-SUM($E$52:E100)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D101)-SUM($E$53:E100)</f>
+        <v>0</v>
       </c>
       <c r="J101" s="0" t="n">
         <f aca="false">A101+1</f>
-        <v>18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E102" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D102)-SUM($E$52:E101)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D102)-SUM($E$53:E101)</f>
         <v>3</v>
       </c>
       <c r="J102" s="0" t="n">
         <f aca="false">A102+1</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E103" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D103)-SUM($E$52:E102)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D103)-SUM($E$53:E102)</f>
+        <v>3</v>
       </c>
       <c r="J103" s="0" t="n">
         <f aca="false">A103+1</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">FREQUENCY($J$48:$J$317,D104)-SUM($E$53:E103)</f>
         <v>2</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D104)-SUM($E$52:E103)</f>
-        <v>1</v>
       </c>
       <c r="J104" s="0" t="n">
         <f aca="false">A104+1</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E105" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D105)-SUM($E$52:E104)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D105)-SUM($E$53:E104)</f>
         <v>1</v>
       </c>
       <c r="J105" s="0" t="n">
         <f aca="false">A105+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E106" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D106)-SUM($E$52:E105)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D106)-SUM($E$53:E105)</f>
+        <v>1</v>
       </c>
       <c r="J106" s="0" t="n">
         <f aca="false">A106+1</f>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E107" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D107)-SUM($E$52:E106)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D107)-SUM($E$53:E106)</f>
+        <v>2</v>
       </c>
       <c r="J107" s="0" t="n">
         <f aca="false">A107+1</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E108" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D108)-SUM($E$52:E107)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D108)-SUM($E$53:E107)</f>
+        <v>1</v>
       </c>
       <c r="J108" s="0" t="n">
         <f aca="false">A108+1</f>
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E109" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D109)-SUM($E$52:E108)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D109)-SUM($E$53:E108)</f>
+        <v>0</v>
       </c>
       <c r="J109" s="0" t="n">
         <f aca="false">A109+1</f>
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D110)-SUM($E$52:E109)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D110)-SUM($E$53:E109)</f>
+        <v>1</v>
       </c>
       <c r="J110" s="0" t="n">
         <f aca="false">A110+1</f>
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D111)-SUM($E$52:E110)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D111)-SUM($E$53:E110)</f>
+        <v>2</v>
       </c>
       <c r="J111" s="0" t="n">
         <f aca="false">A111+1</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E112" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D112)-SUM($E$52:E111)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D112)-SUM($E$53:E111)</f>
+        <v>0</v>
       </c>
       <c r="J112" s="0" t="n">
         <f aca="false">A112+1</f>
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D113)-SUM($E$52:E112)</f>
-        <v>3</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D113)-SUM($E$53:E112)</f>
+        <v>2</v>
       </c>
       <c r="J113" s="0" t="n">
         <f aca="false">A113+1</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E114" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D114)-SUM($E$52:E113)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D114)-SUM($E$53:E113)</f>
+        <v>3</v>
       </c>
       <c r="J114" s="0" t="n">
         <f aca="false">A114+1</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E115" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D115)-SUM($E$52:E114)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D115)-SUM($E$53:E114)</f>
         <v>0</v>
       </c>
       <c r="J115" s="0" t="n">
         <f aca="false">A115+1</f>
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E116" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D116)-SUM($E$52:E115)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D116)-SUM($E$53:E115)</f>
         <v>0</v>
       </c>
       <c r="J116" s="0" t="n">
         <f aca="false">A116+1</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E117" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D117)-SUM($E$52:E116)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D117)-SUM($E$53:E116)</f>
+        <v>0</v>
       </c>
       <c r="J117" s="0" t="n">
         <f aca="false">A117+1</f>
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E118" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D118)-SUM($E$52:E117)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D118)-SUM($E$53:E117)</f>
         <v>1</v>
       </c>
       <c r="J118" s="0" t="n">
         <f aca="false">A118+1</f>
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E119" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D119)-SUM($E$52:E118)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D119)-SUM($E$53:E118)</f>
         <v>1</v>
       </c>
       <c r="J119" s="0" t="n">
         <f aca="false">A119+1</f>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D120)-SUM($E$52:E119)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D120)-SUM($E$53:E119)</f>
         <v>1</v>
       </c>
       <c r="J120" s="0" t="n">
         <f aca="false">A120+1</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E121" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D121)-SUM($E$52:E120)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D121)-SUM($E$53:E120)</f>
         <v>1</v>
       </c>
       <c r="J121" s="0" t="n">
         <f aca="false">A121+1</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E122" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D122)-SUM($E$52:E121)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D122)-SUM($E$53:E121)</f>
+        <v>1</v>
       </c>
       <c r="J122" s="0" t="n">
         <f aca="false">A122+1</f>
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E123" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D123)-SUM($E$52:E122)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D123)-SUM($E$53:E122)</f>
+        <v>0</v>
       </c>
       <c r="J123" s="0" t="n">
         <f aca="false">A123+1</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E124" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D124)-SUM($E$52:E123)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D124)-SUM($E$53:E123)</f>
         <v>1</v>
       </c>
       <c r="J124" s="0" t="n">
         <f aca="false">A124+1</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E125" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D125)-SUM($E$52:E124)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D125)-SUM($E$53:E124)</f>
         <v>1</v>
       </c>
       <c r="J125" s="0" t="n">
         <f aca="false">A125+1</f>
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E126" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D126)-SUM($E$52:E125)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D126)-SUM($E$53:E125)</f>
+        <v>1</v>
       </c>
       <c r="J126" s="0" t="n">
         <f aca="false">A126+1</f>
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E127" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D127)-SUM($E$52:E126)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D127)-SUM($E$53:E126)</f>
         <v>0</v>
       </c>
       <c r="J127" s="0" t="n">
         <f aca="false">A127+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E128" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D128)-SUM($E$52:E127)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D128)-SUM($E$53:E127)</f>
         <v>0</v>
       </c>
       <c r="J128" s="0" t="n">
         <f aca="false">A128+1</f>
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E129" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D129)-SUM($E$52:E128)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D129)-SUM($E$53:E128)</f>
         <v>0</v>
       </c>
       <c r="J129" s="0" t="n">
         <f aca="false">A129+1</f>
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E130" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D130)-SUM($E$52:E129)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D130)-SUM($E$53:E129)</f>
         <v>0</v>
       </c>
       <c r="J130" s="0" t="n">
         <f aca="false">A130+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E131" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D131)-SUM($E$52:E130)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D131)-SUM($E$53:E130)</f>
+        <v>0</v>
       </c>
       <c r="J131" s="0" t="n">
         <f aca="false">A131+1</f>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E132" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D132)-SUM($E$52:E131)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D132)-SUM($E$53:E131)</f>
+        <v>2</v>
       </c>
       <c r="J132" s="0" t="n">
         <f aca="false">A132+1</f>
-        <v>66</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D133" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B133" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="D133" s="0" t="n">
-        <v>82</v>
-      </c>
       <c r="E133" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D133)-SUM($E$52:E132)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D133)-SUM($E$53:E132)</f>
+        <v>1</v>
       </c>
       <c r="J133" s="0" t="n">
         <f aca="false">A133+1</f>
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E134" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D134)-SUM($E$52:E133)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D134)-SUM($E$53:E133)</f>
+        <v>2</v>
       </c>
       <c r="J134" s="0" t="n">
         <f aca="false">A134+1</f>
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E135" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D135)-SUM($E$52:E134)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D135)-SUM($E$53:E134)</f>
+        <v>1</v>
       </c>
       <c r="J135" s="0" t="n">
         <f aca="false">A135+1</f>
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E136" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D136)-SUM($E$52:E135)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D136)-SUM($E$53:E135)</f>
+        <v>0</v>
       </c>
       <c r="J136" s="0" t="n">
         <f aca="false">A136+1</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E137" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D137)-SUM($E$52:E136)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D137)-SUM($E$53:E136)</f>
+        <v>2</v>
       </c>
       <c r="J137" s="0" t="n">
         <f aca="false">A137+1</f>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E138" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D138)-SUM($E$52:E137)</f>
+        <f aca="false">FREQUENCY($J$48:$J$317,D138)-SUM($E$53:E137)</f>
         <v>0</v>
       </c>
       <c r="J138" s="0" t="n">
         <f aca="false">A138+1</f>
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E139" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D139)-SUM($E$52:E138)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D139)-SUM($E$53:E138)</f>
+        <v>0</v>
       </c>
       <c r="J139" s="0" t="n">
         <f aca="false">A139+1</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E140" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D140)-SUM($E$52:E139)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D140)-SUM($E$53:E139)</f>
+        <v>1</v>
       </c>
       <c r="J140" s="0" t="n">
         <f aca="false">A140+1</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E141" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D141)-SUM($E$52:E140)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D141)-SUM($E$53:E140)</f>
+        <v>0</v>
       </c>
       <c r="J141" s="0" t="n">
         <f aca="false">A141+1</f>
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E142" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D142)-SUM($E$52:E141)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D142)-SUM($E$53:E141)</f>
+        <v>1</v>
       </c>
       <c r="J142" s="0" t="n">
         <f aca="false">A142+1</f>
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E143" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D143)-SUM($E$52:E142)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D143)-SUM($E$53:E142)</f>
+        <v>2</v>
       </c>
       <c r="J143" s="0" t="n">
         <f aca="false">A143+1</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E144" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D144)-SUM($E$52:E143)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D144)-SUM($E$53:E143)</f>
+        <v>1</v>
       </c>
       <c r="J144" s="0" t="n">
         <f aca="false">A144+1</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E145" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D145)-SUM($E$52:E144)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D145)-SUM($E$53:E144)</f>
+        <v>2</v>
       </c>
       <c r="J145" s="0" t="n">
         <f aca="false">A145+1</f>
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E146" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D146)-SUM($E$52:E145)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D146)-SUM($E$53:E145)</f>
+        <v>0</v>
       </c>
       <c r="J146" s="0" t="n">
         <f aca="false">A146+1</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E147" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D147)-SUM($E$52:E146)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D147)-SUM($E$53:E146)</f>
+        <v>1</v>
       </c>
       <c r="J147" s="0" t="n">
         <f aca="false">A147+1</f>
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E148" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D148)-SUM($E$52:E147)</f>
-        <v>4</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D148)-SUM($E$53:E147)</f>
+        <v>2</v>
       </c>
       <c r="J148" s="0" t="n">
         <f aca="false">A148+1</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E149" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D149)-SUM($E$52:E148)</f>
-        <v>1</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D149)-SUM($E$53:E148)</f>
+        <v>4</v>
       </c>
       <c r="J149" s="0" t="n">
         <f aca="false">A149+1</f>
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E150" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D150)-SUM($E$52:E149)</f>
-        <v>0</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D150)-SUM($E$53:E149)</f>
+        <v>1</v>
       </c>
       <c r="J150" s="0" t="n">
         <f aca="false">A150+1</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E151" s="0" t="n">
-        <f aca="false">FREQUENCY($J$47:$J$316,D151)-SUM($E$52:E150)</f>
-        <v>2</v>
+        <f aca="false">FREQUENCY($J$48:$J$317,D151)-SUM($E$53:E150)</f>
+        <v>0</v>
       </c>
       <c r="J151" s="0" t="n">
         <f aca="false">A151+1</f>
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <f aca="false">FREQUENCY($J$48:$J$317,D152)-SUM($E$53:E151)</f>
+        <v>2</v>
       </c>
       <c r="J152" s="0" t="n">
         <f aca="false">A152+1</f>
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J153" s="0" t="n">
         <f aca="false">A153+1</f>
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="J154" s="0" t="n">
         <f aca="false">A154+1</f>
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J155" s="0" t="n">
         <f aca="false">A155+1</f>
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="J156" s="0" t="n">
         <f aca="false">A156+1</f>
-        <v>91</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J157" s="0" t="n">
         <f aca="false">A157+1</f>
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J158" s="0" t="n">
         <f aca="false">A158+1</f>
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J159" s="0" t="n">
         <f aca="false">A159+1</f>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J160" s="0" t="n">
         <f aca="false">A160+1</f>
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="J161" s="0" t="n">
         <f aca="false">A161+1</f>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="J162" s="0" t="n">
         <f aca="false">A162+1</f>
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="J163" s="0" t="n">
         <f aca="false">A163+1</f>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="J164" s="0" t="n">
         <f aca="false">A164+1</f>
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J165" s="0" t="n">
         <f aca="false">A165+1</f>
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J166" s="0" t="n">
         <f aca="false">A166+1</f>
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="J167" s="0" t="n">
         <f aca="false">A167+1</f>
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J168" s="0" t="n">
         <f aca="false">A168+1</f>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J169" s="0" t="n">
         <f aca="false">A169+1</f>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J170" s="0" t="n">
         <f aca="false">A170+1</f>
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J171" s="0" t="n">
         <f aca="false">A171+1</f>
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="J172" s="0" t="n">
         <f aca="false">A172+1</f>
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J173" s="0" t="n">
         <f aca="false">A173+1</f>
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J174" s="0" t="n">
         <f aca="false">A174+1</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J175" s="0" t="n">
         <f aca="false">A175+1</f>
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="J176" s="0" t="n">
         <f aca="false">A176+1</f>
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J177" s="0" t="n">
         <f aca="false">A177+1</f>
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J178" s="0" t="n">
         <f aca="false">A178+1</f>
-        <v>23</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J179" s="0" t="n">
         <f aca="false">A179+1</f>
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J180" s="0" t="n">
         <f aca="false">A180+1</f>
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B181" s="0" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J181" s="0" t="n">
         <f aca="false">A181+1</f>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="J182" s="0" t="n">
         <f aca="false">A182+1</f>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J183" s="0" t="n">
         <f aca="false">A183+1</f>
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J184" s="0" t="n">
         <f aca="false">A184+1</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J185" s="0" t="n">
         <f aca="false">A185+1</f>
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J186" s="0" t="n">
         <f aca="false">A186+1</f>
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J187" s="0" t="n">
         <f aca="false">A187+1</f>
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="J188" s="0" t="n">
         <f aca="false">A188+1</f>
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J189" s="0" t="n">
         <f aca="false">A189+1</f>
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J190" s="0" t="n">
         <f aca="false">A190+1</f>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J191" s="0" t="n">
         <f aca="false">A191+1</f>
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="J192" s="0" t="n">
         <f aca="false">A192+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B193" s="0" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J193" s="0" t="n">
         <f aca="false">A193+1</f>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J194" s="0" t="n">
         <f aca="false">A194+1</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="J195" s="0" t="n">
         <f aca="false">A195+1</f>
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="J196" s="0" t="n">
         <f aca="false">A196+1</f>
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="J197" s="0" t="n">
         <f aca="false">A197+1</f>
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J198" s="0" t="n">
         <f aca="false">A198+1</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J199" s="0" t="n">
         <f aca="false">A199+1</f>
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J200" s="0" t="n">
         <f aca="false">A200+1</f>
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5285,7 @@
         <v>24</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J201" s="0" t="n">
         <f aca="false">A201+1</f>
@@ -5283,386 +5294,386 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="J202" s="0" t="n">
         <f aca="false">A202+1</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="J203" s="0" t="n">
         <f aca="false">A203+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="J204" s="0" t="n">
         <f aca="false">A204+1</f>
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J205" s="0" t="n">
         <f aca="false">A205+1</f>
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J206" s="0" t="n">
         <f aca="false">A206+1</f>
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J207" s="0" t="n">
         <f aca="false">A207+1</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="J208" s="0" t="n">
         <f aca="false">A208+1</f>
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B209" s="0" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J209" s="0" t="n">
         <f aca="false">A209+1</f>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J210" s="0" t="n">
         <f aca="false">A210+1</f>
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="J211" s="0" t="n">
         <f aca="false">A211+1</f>
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="J212" s="0" t="n">
         <f aca="false">A212+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J213" s="0" t="n">
         <f aca="false">A213+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J214" s="0" t="n">
         <f aca="false">A214+1</f>
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J215" s="0" t="n">
         <f aca="false">A215+1</f>
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J216" s="0" t="n">
         <f aca="false">A216+1</f>
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J217" s="0" t="n">
         <f aca="false">A217+1</f>
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J218" s="0" t="n">
         <f aca="false">A218+1</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="J219" s="0" t="n">
         <f aca="false">A219+1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J220" s="0" t="n">
         <f aca="false">A220+1</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="J221" s="0" t="n">
         <f aca="false">A221+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="J222" s="0" t="n">
         <f aca="false">A222+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J223" s="0" t="n">
         <f aca="false">A223+1</f>
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J224" s="0" t="n">
         <f aca="false">A224+1</f>
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="J225" s="0" t="n">
         <f aca="false">A225+1</f>
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="J226" s="0" t="n">
         <f aca="false">A226+1</f>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="J227" s="0" t="n">
         <f aca="false">A227+1</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="J228" s="0" t="n">
         <f aca="false">A228+1</f>
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J229" s="0" t="n">
         <f aca="false">A229+1</f>
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J230" s="0" t="n">
         <f aca="false">A230+1</f>
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J231" s="0" t="n">
         <f aca="false">A231+1</f>
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="J232" s="0" t="n">
         <f aca="false">A232+1</f>
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J233" s="0" t="n">
         <f aca="false">A233+1</f>
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5670,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J234" s="0" t="n">
         <f aca="false">A234+1</f>
@@ -5679,206 +5690,206 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J235" s="0" t="n">
         <f aca="false">A235+1</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="J236" s="0" t="n">
         <f aca="false">A236+1</f>
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="J237" s="0" t="n">
         <f aca="false">A237+1</f>
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J238" s="0" t="n">
         <f aca="false">A238+1</f>
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J239" s="0" t="n">
         <f aca="false">A239+1</f>
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J240" s="0" t="n">
         <f aca="false">A240+1</f>
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J241" s="0" t="n">
         <f aca="false">A241+1</f>
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="J242" s="0" t="n">
         <f aca="false">A242+1</f>
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="J243" s="0" t="n">
         <f aca="false">A243+1</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="J244" s="0" t="n">
         <f aca="false">A244+1</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J245" s="0" t="n">
         <f aca="false">A245+1</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B246" s="0" t="n">
         <v>64</v>
       </c>
       <c r="J246" s="0" t="n">
         <f aca="false">A246+1</f>
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J247" s="0" t="n">
         <f aca="false">A247+1</f>
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="J248" s="0" t="n">
         <f aca="false">A248+1</f>
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J249" s="0" t="n">
         <f aca="false">A249+1</f>
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="J250" s="0" t="n">
         <f aca="false">A250+1</f>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J251" s="0" t="n">
         <f aca="false">A251+1</f>
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5886,7 +5897,7 @@
         <v>8</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J252" s="0" t="n">
         <f aca="false">A252+1</f>
@@ -5895,772 +5906,788 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J253" s="0" t="n">
         <f aca="false">A253+1</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="J254" s="0" t="n">
         <f aca="false">A254+1</f>
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="J255" s="0" t="n">
         <f aca="false">A255+1</f>
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="J256" s="0" t="n">
         <f aca="false">A256+1</f>
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="J257" s="0" t="n">
         <f aca="false">A257+1</f>
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="J258" s="0" t="n">
         <f aca="false">A258+1</f>
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="J259" s="0" t="n">
         <f aca="false">A259+1</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J260" s="0" t="n">
         <f aca="false">A260+1</f>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="J261" s="0" t="n">
         <f aca="false">A261+1</f>
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="J262" s="0" t="n">
         <f aca="false">A262+1</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="J263" s="0" t="n">
         <f aca="false">A263+1</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="J264" s="0" t="n">
         <f aca="false">A264+1</f>
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J265" s="0" t="n">
         <f aca="false">A265+1</f>
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J266" s="0" t="n">
         <f aca="false">A266+1</f>
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J267" s="0" t="n">
         <f aca="false">A267+1</f>
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J268" s="0" t="n">
         <f aca="false">A268+1</f>
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J269" s="0" t="n">
         <f aca="false">A269+1</f>
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J270" s="0" t="n">
         <f aca="false">A270+1</f>
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="J271" s="0" t="n">
         <f aca="false">A271+1</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J272" s="0" t="n">
         <f aca="false">A272+1</f>
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J273" s="0" t="n">
         <f aca="false">A273+1</f>
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J274" s="0" t="n">
         <f aca="false">A274+1</f>
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="J275" s="0" t="n">
         <f aca="false">A275+1</f>
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J276" s="0" t="n">
         <f aca="false">A276+1</f>
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="J277" s="0" t="n">
         <f aca="false">A277+1</f>
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="J278" s="0" t="n">
         <f aca="false">A278+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J279" s="0" t="n">
         <f aca="false">A279+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J280" s="0" t="n">
         <f aca="false">A280+1</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="J281" s="0" t="n">
         <f aca="false">A281+1</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J282" s="0" t="n">
         <f aca="false">A282+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J283" s="0" t="n">
         <f aca="false">A283+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J284" s="0" t="n">
         <f aca="false">A284+1</f>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="J285" s="0" t="n">
         <f aca="false">A285+1</f>
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J286" s="0" t="n">
         <f aca="false">A286+1</f>
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J287" s="0" t="n">
         <f aca="false">A287+1</f>
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="J288" s="0" t="n">
         <f aca="false">A288+1</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J289" s="0" t="n">
         <f aca="false">A289+1</f>
-        <v>93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="J290" s="0" t="n">
         <f aca="false">A290+1</f>
-        <v>6</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="J291" s="0" t="n">
         <f aca="false">A291+1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J292" s="0" t="n">
         <f aca="false">A292+1</f>
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J293" s="0" t="n">
         <f aca="false">A293+1</f>
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J294" s="0" t="n">
         <f aca="false">A294+1</f>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J295" s="0" t="n">
         <f aca="false">A295+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="J296" s="0" t="n">
         <f aca="false">A296+1</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="J297" s="0" t="n">
         <f aca="false">A297+1</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="J298" s="0" t="n">
         <f aca="false">A298+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J299" s="0" t="n">
         <f aca="false">A299+1</f>
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J300" s="0" t="n">
         <f aca="false">A300+1</f>
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B301" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="B301" s="0" t="n">
-        <v>23</v>
       </c>
       <c r="J301" s="0" t="n">
         <f aca="false">A301+1</f>
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>23</v>
       </c>
       <c r="J302" s="0" t="n">
         <f aca="false">A302+1</f>
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J303" s="0" t="n">
         <f aca="false">A303+1</f>
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="J304" s="0" t="n">
         <f aca="false">A304+1</f>
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J305" s="0" t="n">
         <f aca="false">A305+1</f>
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="J306" s="0" t="n">
         <f aca="false">A306+1</f>
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="J307" s="0" t="n">
         <f aca="false">A307+1</f>
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="J308" s="0" t="n">
         <f aca="false">A308+1</f>
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="J309" s="0" t="n">
         <f aca="false">A309+1</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="J310" s="0" t="n">
         <f aca="false">A310+1</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J311" s="0" t="n">
         <f aca="false">A311+1</f>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J312" s="0" t="n">
         <f aca="false">A312+1</f>
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J313" s="0" t="n">
         <f aca="false">A313+1</f>
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="J314" s="0" t="n">
         <f aca="false">A314+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J315" s="0" t="n">
         <f aca="false">A315+1</f>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J316" s="0" t="n">
         <f aca="false">A316+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B317" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="J317" s="0" t="n">
+        <f aca="false">A317+1</f>
         <v>11</v>
       </c>
     </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:B1"/>
@@ -6705,7 +6732,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6716,16 +6743,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6748,52 +6775,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13030,7 +13057,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>0.23</v>
@@ -13054,7 +13081,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -13074,7 +13101,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0.26</v>
@@ -13104,7 +13131,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -13124,7 +13151,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.2</v>
@@ -13154,7 +13181,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -19446,17 +19473,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -19477,7 +19504,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -19485,16 +19512,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19518,52 +19545,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25800,7 +25827,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -25818,7 +25845,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -25838,7 +25865,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -25856,7 +25883,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -25876,7 +25903,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -25894,7 +25921,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -32186,26 +32213,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -32226,7 +32253,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -32234,16 +32261,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32267,52 +32294,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38549,7 +38576,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -38567,7 +38594,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -38587,7 +38614,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -38605,7 +38632,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -38625,7 +38652,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -38643,7 +38670,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -44935,26 +44962,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -44975,7 +45002,7 @@
   </sheetPr>
   <dimension ref="A1:W307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
@@ -44983,20 +45010,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="0" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45028,52 +45055,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="U3" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51310,7 +51337,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>102</v>
@@ -51328,7 +51355,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>102</v>
@@ -51348,7 +51375,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>103</v>
@@ -51366,7 +51393,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>103</v>
@@ -51386,7 +51413,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>104</v>
@@ -51404,7 +51431,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>104</v>
@@ -57696,26 +57723,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S305" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S306" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S307" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
   <si>
     <t xml:space="preserve">Plan</t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">3a</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple PKs per customer: 2, 4, 6, 8, &amp; 10</t>
+    <t xml:space="preserve">Multiple PKs per customer: 2, 4, 10, 20, 50</t>
   </si>
   <si>
     <t xml:space="preserve">Lin Reg</t>
@@ -115,16 +115,16 @@
     <t xml:space="preserve">3c</t>
   </si>
   <si>
-    <t xml:space="preserve">Combine a) and b) if time</t>
+    <t xml:space="preserve">Net export transactions</t>
   </si>
   <si>
     <t xml:space="preserve">3d</t>
   </si>
   <si>
-    <t xml:space="preserve">Net export transactions</t>
+    <t xml:space="preserve">Combine best of (a), (b), and (c)</t>
   </si>
   <si>
-    <t xml:space="preserve">Classification</t>
+    <t xml:space="preserve">Normal</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly</t>
@@ -172,34 +172,52 @@
     <t xml:space="preserve">KNN</t>
   </si>
   <si>
+    <t xml:space="preserve">Solar</t>
+  </si>
+  <si>
     <t xml:space="preserve">DELTA</t>
   </si>
   <si>
-    <t xml:space="preserve">PK obfuscation</t>
+    <t xml:space="preserve">Obfuscation PK</t>
   </si>
   <si>
-    <t xml:space="preserve">Ledger obfuscation</t>
+    <t xml:space="preserve">Half Hourly (temp weekly)</t>
   </si>
   <si>
-    <t xml:space="preserve">Combo obfuscation</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
+    <t xml:space="preserve">Obfuscation Ledger</t>
   </si>
   <si>
-    <t xml:space="preserve">HH</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">10, 10</t>
+    <t xml:space="preserve">Natural</t>
   </si>
   <si>
-    <t xml:space="preserve">Net export results?</t>
+    <t xml:space="preserve">Obfsucation NEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50, 50, N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconstructing usage from net export</t>
   </si>
   <si>
     <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical analysis with gross generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical analysis with net export</t>
   </si>
   <si>
     <t xml:space="preserve">Correl</t>
@@ -711,7 +729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,6 +878,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,7 +1022,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1046,7 +1068,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Results!$E$63:$E$162</c:f>
+              <c:f>Results!$E$61:$E$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1356,11 +1378,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="29793586"/>
-        <c:axId val="44515881"/>
+        <c:axId val="28176572"/>
+        <c:axId val="80228804"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="29793586"/>
+        <c:axId val="28176572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44515881"/>
+        <c:crossAx val="80228804"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1424,7 +1446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44515881"/>
+        <c:axId val="80228804"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1511,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29793586"/>
+        <c:crossAx val="28176572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,16 +1542,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>377640</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>799560</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160920</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1537,7 +1559,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5249880" y="11178360"/>
+        <a:off x="1250640" y="10397160"/>
         <a:ext cx="5752800" cy="3232800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1559,7 +1581,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1727,7 +1749,7 @@
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1831,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2405,7 +2427,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10" t="s">
@@ -2708,7 +2730,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -2791,15 +2813,15 @@
       </c>
       <c r="C21" s="20" t="n">
         <f aca="false">C14-C5</f>
-        <v>0.0995333333333332</v>
+        <v>0.0995333333333329</v>
       </c>
       <c r="D21" s="20" t="n">
         <f aca="false">D14-D5</f>
-        <v>0.0866000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="E21" s="20" t="n">
         <f aca="false">E14-E5</f>
-        <v>0.00578333333333333</v>
+        <v>0.0057833333333333</v>
       </c>
       <c r="F21" s="19" t="n">
         <f aca="false">F14-F5</f>
@@ -2807,7 +2829,7 @@
       </c>
       <c r="G21" s="20" t="n">
         <f aca="false">G14-G5</f>
-        <v>0.0553333333333333</v>
+        <v>0.055333333333333</v>
       </c>
       <c r="H21" s="21" t="n">
         <f aca="false">H14-H5</f>
@@ -2819,7 +2841,7 @@
       </c>
       <c r="J21" s="20" t="n">
         <f aca="false">J14-J5</f>
-        <v>0.0409500000000002</v>
+        <v>0.04095</v>
       </c>
       <c r="K21" s="21" t="n">
         <f aca="false">K14-K5</f>
@@ -2827,7 +2849,7 @@
       </c>
       <c r="L21" s="19" t="n">
         <f aca="false">L14-L5</f>
-        <v>-0.0216499999999999</v>
+        <v>-0.0216500000000001</v>
       </c>
       <c r="M21" s="20" t="n">
         <f aca="false">M14-M5</f>
@@ -2852,23 +2874,23 @@
       </c>
       <c r="D22" s="24" t="n">
         <f aca="false">D15-D6</f>
-        <v>0.0661833333333334</v>
+        <v>0.066183333333333</v>
       </c>
       <c r="E22" s="24" t="n">
         <f aca="false">E15-E6</f>
-        <v>0.00576666666666668</v>
+        <v>0.005766666666667</v>
       </c>
       <c r="F22" s="23" t="n">
         <f aca="false">F15-F6</f>
-        <v>0.0852666666666667</v>
+        <v>0.0852666666666669</v>
       </c>
       <c r="G22" s="24" t="n">
         <f aca="false">G15-G6</f>
-        <v>0.0369666666666667</v>
+        <v>0.0369666666666669</v>
       </c>
       <c r="H22" s="25" t="n">
         <f aca="false">H15-H6</f>
-        <v>0.00466666666666667</v>
+        <v>0.004666666666667</v>
       </c>
       <c r="I22" s="23" t="n">
         <f aca="false">I15-I6</f>
@@ -2907,7 +2929,7 @@
       </c>
       <c r="C23" s="19" t="n">
         <f aca="false">C16-C7</f>
-        <v>0.09135</v>
+        <v>0.0913499999999999</v>
       </c>
       <c r="D23" s="20" t="n">
         <f aca="false">D16-D7</f>
@@ -2919,11 +2941,11 @@
       </c>
       <c r="F23" s="19" t="n">
         <f aca="false">F16-F7</f>
-        <v>0.0979833333333333</v>
+        <v>0.097983333333333</v>
       </c>
       <c r="G23" s="20" t="n">
         <f aca="false">G16-G7</f>
-        <v>0.0940833333333333</v>
+        <v>0.094083333333333</v>
       </c>
       <c r="H23" s="21" t="n">
         <f aca="false">H16-H7</f>
@@ -3022,10 +3044,7 @@
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="H25" s="37"/>
       <c r="L25" s="35"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
@@ -3035,30 +3054,19 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
+      <c r="C26" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11" t="s">
@@ -3067,51 +3075,28 @@
       <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="38" t="n">
+      <c r="C27" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="39" t="n">
+      <c r="E27" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" s="40" t="n">
+      <c r="F27" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="H27" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K27" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="L27" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="40" t="n">
-        <v>10</v>
-      </c>
+      <c r="G27" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H27" s="41" t="n">
+        <v>50</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
@@ -3120,42 +3105,36 @@
       <c r="B28" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="C28" s="30" t="n">
+        <f aca="false">C14</f>
+        <v>0.6798</v>
+      </c>
+      <c r="D28" s="42" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="Q28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27"/>
       <c r="B29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="45" t="n">
+        <f aca="false">C15</f>
+        <v>0.55055</v>
+      </c>
       <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="Q29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
@@ -3164,88 +3143,58 @@
       <c r="B30" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="48" t="n">
+        <f aca="false">C16</f>
+        <v>0.71765</v>
+      </c>
+      <c r="D30" s="48" t="n">
+        <v>0.6737</v>
+      </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="Q30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27"/>
       <c r="B31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="45" t="n">
+        <f aca="false">C17</f>
+        <v>0.5769</v>
+      </c>
       <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="Q31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
       <c r="H32" s="36"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
       <c r="L32" s="35"/>
       <c r="M32" s="35"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
+      <c r="C33" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
@@ -3254,51 +3203,32 @@
       <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="38" t="n">
+      <c r="C34" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="39" t="n">
+      <c r="E34" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="G34" s="40" t="n">
+      <c r="F34" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="H34" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="L34" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="M34" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" s="39" t="n">
-        <v>6</v>
-      </c>
-      <c r="P34" s="39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q34" s="40" t="n">
-        <v>10</v>
-      </c>
+      <c r="G34" s="41" t="n">
+        <v>20</v>
+      </c>
+      <c r="H34" s="41" t="n">
+        <v>50</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
@@ -3307,42 +3237,44 @@
       <c r="B35" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="42" t="n">
+        <f aca="false">C14</f>
+        <v>0.6798</v>
+      </c>
       <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44" t="n">
+        <f aca="false">D14</f>
+        <v>0.6787</v>
+      </c>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27"/>
       <c r="B36" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="45" t="n">
+        <f aca="false">C15</f>
+        <v>0.55055</v>
+      </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47" t="n">
+        <f aca="false">D15</f>
+        <v>0.52265</v>
+      </c>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
@@ -3351,86 +3283,63 @@
       <c r="B37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="48" t="n">
+        <f aca="false">C16</f>
+        <v>0.71765</v>
+      </c>
+      <c r="D37" s="48"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49" t="n">
+        <f aca="false">D16</f>
+        <v>0.7589</v>
+      </c>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27"/>
       <c r="B38" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="44"/>
+      <c r="C38" s="45" t="n">
+        <f aca="false">C17</f>
+        <v>0.5769</v>
+      </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47" t="n">
+        <f aca="false">D17</f>
+        <v>0.58375</v>
+      </c>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="C40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="G40" s="38" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
@@ -3439,25 +3348,18 @@
       <c r="B41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
+      <c r="C41" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
@@ -3466,42 +3368,20 @@
       <c r="B42" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="G42" s="51"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27"/>
       <c r="B43" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="G43" s="52"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
@@ -3510,103 +3390,53 @@
       <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="32"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="27"/>
       <c r="B45" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="G45" s="52"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
       <c r="H46" s="36"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="A48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="36"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
@@ -3615,8 +3445,14 @@
       <c r="M49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>18</v>
+      <c r="A50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="7" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="C50" s="7" t="n">
+        <v>0.7053</v>
       </c>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
@@ -3626,12 +3462,14 @@
       <c r="M50" s="35"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>57</v>
+      <c r="A51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="C51" s="7" t="n">
+        <v>0.8166</v>
       </c>
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
@@ -3642,13 +3480,13 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B52" s="7" t="n">
-        <v>0.1571</v>
+        <v>0.1113</v>
       </c>
       <c r="C52" s="7" t="n">
-        <v>0.7053</v>
+        <v>0.8507</v>
       </c>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
@@ -3658,15 +3496,8 @@
       <c r="M52" s="35"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="7" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="C53" s="7" t="n">
-        <v>0.8166</v>
-      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="36"/>
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
@@ -3675,83 +3506,106 @@
       <c r="M53" s="35"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="7" t="n">
-        <v>0.1113</v>
-      </c>
-      <c r="C54" s="7" t="n">
-        <v>0.8507</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
+      <c r="A54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">AVERAGE(A56:A325)</f>
+        <v>26.1925925925926</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">MEDIAN(A56:A325)</f>
+        <v>17</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">MODE(A56:A325)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(A56:A325)</f>
+        <v>27.1709257183037</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <f aca="false">A56+1</f>
+        <v>45</v>
+      </c>
+    </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>63</v>
+      <c r="A57" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">AVERAGE(B56:B325)</f>
+        <v>56.0851851851852</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">MEDIAN(B56:B325)</f>
+        <v>64</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">MODE(B56:B325)</f>
+        <v>76</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">_xlfn.STDEV.P(B56:B325)</f>
+        <v>30.651266709414</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <f aca="false">A57+1</f>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <f aca="false">AVERAGE(A58:A327)</f>
-        <v>26.1925925925926</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <f aca="false">MEDIAN(A58:A327)</f>
-        <v>17</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <f aca="false">MODE(A58:A327)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(A58:A327)</f>
-        <v>27.1709257183037</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I58" s="2" t="n">
         <f aca="false">A58+1</f>
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,465 +3613,460 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <f aca="false">AVERAGE(B58:B327)</f>
-        <v>56.0851851851852</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <f aca="false">MEDIAN(B58:B327)</f>
-        <v>64</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <f aca="false">MODE(B58:B327)</f>
-        <v>76</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <f aca="false">_xlfn.STDEV.P(B58:B327)</f>
-        <v>30.651266709414</v>
-      </c>
-      <c r="J59" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I59" s="2" t="n">
         <f aca="false">A59+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" s="2" t="n">
         <f aca="false">A60+1</f>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="J61" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D61)</f>
+        <v>22</v>
+      </c>
+      <c r="I61" s="2" t="n">
         <f aca="false">A61+1</f>
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J62" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D62)-SUM($E$61:E61)</f>
+        <v>11</v>
+      </c>
+      <c r="I62" s="2" t="n">
         <f aca="false">A62+1</f>
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D63)</f>
-        <v>22</v>
-      </c>
-      <c r="J63" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D63)-SUM($E$61:E62)</f>
+        <v>13</v>
+      </c>
+      <c r="I63" s="2" t="n">
         <f aca="false">A63+1</f>
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D64" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="D64" s="0" t="n">
+      <c r="E64" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D64)-SUM($E$61:E63)</f>
+        <v>10</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <f aca="false">A64+1</f>
         <v>2</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D64)-SUM($E$63:E63)</f>
-        <v>11</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <f aca="false">A64+1</f>
-        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D65)-SUM($E$63:E64)</f>
-        <v>13</v>
-      </c>
-      <c r="J65" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D65)-SUM($E$61:E64)</f>
+        <v>11</v>
+      </c>
+      <c r="I65" s="2" t="n">
         <f aca="false">A65+1</f>
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D66)-SUM($E$63:E65)</f>
-        <v>10</v>
-      </c>
-      <c r="J66" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D66)-SUM($E$61:E65)</f>
+        <v>8</v>
+      </c>
+      <c r="I66" s="2" t="n">
         <f aca="false">A66+1</f>
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D67)-SUM($E$63:E66)</f>
-        <v>11</v>
-      </c>
-      <c r="J67" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D67)-SUM($E$61:E66)</f>
+        <v>4</v>
+      </c>
+      <c r="I67" s="2" t="n">
         <f aca="false">A67+1</f>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E68" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D68)-SUM($E$63:E67)</f>
-        <v>8</v>
-      </c>
-      <c r="J68" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D68)-SUM($E$61:E67)</f>
+        <v>5</v>
+      </c>
+      <c r="I68" s="2" t="n">
         <f aca="false">A68+1</f>
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D69)-SUM($E$61:E68)</f>
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <f aca="false">A69+1</f>
         <v>23</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E69" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D69)-SUM($E$63:E68)</f>
-        <v>4</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <f aca="false">A69+1</f>
-        <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D70)-SUM($E$63:E69)</f>
-        <v>5</v>
-      </c>
-      <c r="J70" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D70)-SUM($E$61:E69)</f>
+        <v>6</v>
+      </c>
+      <c r="I70" s="2" t="n">
         <f aca="false">A70+1</f>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E71" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D71)-SUM($E$63:E70)</f>
-        <v>8</v>
-      </c>
-      <c r="J71" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D71)-SUM($E$61:E70)</f>
+        <v>7</v>
+      </c>
+      <c r="I71" s="2" t="n">
         <f aca="false">A71+1</f>
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D72)-SUM($E$63:E71)</f>
-        <v>6</v>
-      </c>
-      <c r="J72" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D72)-SUM($E$61:E71)</f>
+        <v>5</v>
+      </c>
+      <c r="I72" s="2" t="n">
         <f aca="false">A72+1</f>
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E73" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D73)-SUM($E$63:E72)</f>
-        <v>7</v>
-      </c>
-      <c r="J73" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D73)-SUM($E$61:E72)</f>
+        <v>8</v>
+      </c>
+      <c r="I73" s="2" t="n">
         <f aca="false">A73+1</f>
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E74" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D74)-SUM($E$63:E73)</f>
-        <v>5</v>
-      </c>
-      <c r="J74" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D74)-SUM($E$61:E73)</f>
+        <v>2</v>
+      </c>
+      <c r="I74" s="2" t="n">
         <f aca="false">A74+1</f>
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E75" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D75)-SUM($E$63:E74)</f>
-        <v>8</v>
-      </c>
-      <c r="J75" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D75)-SUM($E$61:E74)</f>
+        <v>2</v>
+      </c>
+      <c r="I75" s="2" t="n">
         <f aca="false">A75+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D76)-SUM($E$63:E75)</f>
-        <v>2</v>
-      </c>
-      <c r="J76" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D76)-SUM($E$61:E75)</f>
+        <v>9</v>
+      </c>
+      <c r="I76" s="2" t="n">
         <f aca="false">A76+1</f>
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E77" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D77)-SUM($E$63:E76)</f>
-        <v>2</v>
-      </c>
-      <c r="J77" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D77)-SUM($E$61:E76)</f>
+        <v>3</v>
+      </c>
+      <c r="I77" s="2" t="n">
         <f aca="false">A77+1</f>
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D78)-SUM($E$63:E77)</f>
-        <v>9</v>
-      </c>
-      <c r="J78" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D78)-SUM($E$61:E77)</f>
+        <v>5</v>
+      </c>
+      <c r="I78" s="2" t="n">
         <f aca="false">A78+1</f>
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E79" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D79)-SUM($E$63:E78)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D79)-SUM($E$61:E78)</f>
         <v>3</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="I79" s="2" t="n">
         <f aca="false">A79+1</f>
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E80" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D80)-SUM($E$63:E79)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D80)-SUM($E$61:E79)</f>
         <v>5</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="I80" s="2" t="n">
         <f aca="false">A80+1</f>
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D81)-SUM($E$63:E80)</f>
-        <v>3</v>
-      </c>
-      <c r="J81" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D81)-SUM($E$61:E80)</f>
+        <v>5</v>
+      </c>
+      <c r="I81" s="2" t="n">
         <f aca="false">A81+1</f>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>95</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E82" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D82)-SUM($E$63:E81)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D82)-SUM($E$61:E81)</f>
         <v>5</v>
       </c>
-      <c r="J82" s="0" t="n">
+      <c r="I82" s="2" t="n">
         <f aca="false">A82+1</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E83" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D83)-SUM($E$63:E82)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D83)-SUM($E$61:E82)</f>
         <v>5</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="I83" s="2" t="n">
         <f aca="false">A83+1</f>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,455 +4074,455 @@
         <v>96</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E84" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D84)-SUM($E$63:E83)</f>
-        <v>5</v>
-      </c>
-      <c r="J84" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D84)-SUM($E$61:E83)</f>
+        <v>3</v>
+      </c>
+      <c r="I84" s="2" t="n">
         <f aca="false">A84+1</f>
         <v>97</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E85" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D85)-SUM($E$63:E84)</f>
-        <v>5</v>
-      </c>
-      <c r="J85" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D85)-SUM($E$61:E84)</f>
+        <v>6</v>
+      </c>
+      <c r="I85" s="2" t="n">
         <f aca="false">A85+1</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E86" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D86)-SUM($E$63:E85)</f>
-        <v>3</v>
-      </c>
-      <c r="J86" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D86)-SUM($E$61:E85)</f>
+        <v>2</v>
+      </c>
+      <c r="I86" s="2" t="n">
         <f aca="false">A86+1</f>
-        <v>97</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E87" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D87)-SUM($E$63:E86)</f>
-        <v>6</v>
-      </c>
-      <c r="J87" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D87)-SUM($E$61:E86)</f>
+        <v>4</v>
+      </c>
+      <c r="I87" s="2" t="n">
         <f aca="false">A87+1</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E88" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D88)-SUM($E$63:E87)</f>
-        <v>2</v>
-      </c>
-      <c r="J88" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D88)-SUM($E$61:E87)</f>
+        <v>1</v>
+      </c>
+      <c r="I88" s="2" t="n">
         <f aca="false">A88+1</f>
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D89)-SUM($E$61:E88)</f>
+        <v>1</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <f aca="false">A89+1</f>
         <v>20</v>
-      </c>
-      <c r="B89" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="D89" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D89)-SUM($E$63:E88)</f>
-        <v>4</v>
-      </c>
-      <c r="J89" s="0" t="n">
-        <f aca="false">A89+1</f>
-        <v>21</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E90" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D90)-SUM($E$63:E89)</f>
-        <v>1</v>
-      </c>
-      <c r="J90" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D90)-SUM($E$61:E89)</f>
+        <v>1</v>
+      </c>
+      <c r="I90" s="2" t="n">
         <f aca="false">A90+1</f>
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E91" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D91)-SUM($E$63:E90)</f>
-        <v>1</v>
-      </c>
-      <c r="J91" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D91)-SUM($E$61:E90)</f>
+        <v>2</v>
+      </c>
+      <c r="I91" s="2" t="n">
         <f aca="false">A91+1</f>
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E92" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D92)-SUM($E$63:E91)</f>
-        <v>1</v>
-      </c>
-      <c r="J92" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D92)-SUM($E$61:E91)</f>
+        <v>3</v>
+      </c>
+      <c r="I92" s="2" t="n">
         <f aca="false">A92+1</f>
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E93" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D93)-SUM($E$63:E92)</f>
-        <v>2</v>
-      </c>
-      <c r="J93" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D93)-SUM($E$61:E92)</f>
+        <v>1</v>
+      </c>
+      <c r="I93" s="2" t="n">
         <f aca="false">A93+1</f>
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D94)-SUM($E$61:E93)</f>
         <v>3</v>
       </c>
-      <c r="B94" s="0" t="n">
-        <v>56</v>
-      </c>
-      <c r="D94" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D94)-SUM($E$63:E93)</f>
-        <v>3</v>
-      </c>
-      <c r="J94" s="0" t="n">
+      <c r="I94" s="2" t="n">
         <f aca="false">A94+1</f>
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E95" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D95)-SUM($E$63:E94)</f>
-        <v>1</v>
-      </c>
-      <c r="J95" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D95)-SUM($E$61:E94)</f>
+        <v>2</v>
+      </c>
+      <c r="I95" s="2" t="n">
         <f aca="false">A95+1</f>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E96" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D96)-SUM($E$63:E95)</f>
-        <v>3</v>
-      </c>
-      <c r="J96" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D96)-SUM($E$61:E95)</f>
+        <v>5</v>
+      </c>
+      <c r="I96" s="2" t="n">
         <f aca="false">A96+1</f>
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E97" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D97)-SUM($E$63:E96)</f>
-        <v>2</v>
-      </c>
-      <c r="J97" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D97)-SUM($E$61:E96)</f>
+        <v>1</v>
+      </c>
+      <c r="I97" s="2" t="n">
         <f aca="false">A97+1</f>
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D98" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D98)-SUM($E$61:E97)</f>
+        <v>2</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <f aca="false">A98+1</f>
         <v>36</v>
-      </c>
-      <c r="E98" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D98)-SUM($E$63:E97)</f>
-        <v>5</v>
-      </c>
-      <c r="J98" s="0" t="n">
-        <f aca="false">A98+1</f>
-        <v>85</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E99" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D99)-SUM($E$63:E98)</f>
-        <v>1</v>
-      </c>
-      <c r="J99" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D99)-SUM($E$61:E98)</f>
+        <v>5</v>
+      </c>
+      <c r="I99" s="2" t="n">
         <f aca="false">A99+1</f>
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E100" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D100)-SUM($E$63:E99)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D100)-SUM($E$61:E99)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <f aca="false">A100+1</f>
         <v>2</v>
-      </c>
-      <c r="J100" s="0" t="n">
-        <f aca="false">A100+1</f>
-        <v>36</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E101" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D101)-SUM($E$63:E100)</f>
-        <v>5</v>
-      </c>
-      <c r="J101" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D101)-SUM($E$61:E100)</f>
+        <v>3</v>
+      </c>
+      <c r="I101" s="2" t="n">
         <f aca="false">A101+1</f>
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E102" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D102)-SUM($E$63:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D102)-SUM($E$61:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2" t="n">
         <f aca="false">A102+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E103" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D103)-SUM($E$63:E102)</f>
-        <v>3</v>
-      </c>
-      <c r="J103" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D103)-SUM($E$61:E102)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="2" t="n">
         <f aca="false">A103+1</f>
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B104" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D104)-SUM($E$61:E103)</f>
         <v>2</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D104)-SUM($E$63:E103)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="0" t="n">
+      <c r="I104" s="2" t="n">
         <f aca="false">A104+1</f>
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E105" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D105)-SUM($E$63:E104)</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D105)-SUM($E$61:E104)</f>
+        <v>3</v>
+      </c>
+      <c r="I105" s="2" t="n">
         <f aca="false">A105+1</f>
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E106" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D106)-SUM($E$63:E105)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D106)-SUM($E$61:E105)</f>
         <v>2</v>
       </c>
-      <c r="J106" s="0" t="n">
+      <c r="I106" s="2" t="n">
         <f aca="false">A106+1</f>
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E107" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D107)-SUM($E$63:E106)</f>
-        <v>3</v>
-      </c>
-      <c r="J107" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D107)-SUM($E$61:E106)</f>
+        <v>1</v>
+      </c>
+      <c r="I107" s="2" t="n">
         <f aca="false">A107+1</f>
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4681,740 +4530,740 @@
         <v>0</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E108" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D108)-SUM($E$63:E107)</f>
-        <v>2</v>
-      </c>
-      <c r="J108" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D108)-SUM($E$61:E107)</f>
+        <v>1</v>
+      </c>
+      <c r="I108" s="2" t="n">
         <f aca="false">A108+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E109" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D109)-SUM($E$63:E108)</f>
-        <v>1</v>
-      </c>
-      <c r="J109" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D109)-SUM($E$61:E108)</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="2" t="n">
         <f aca="false">A109+1</f>
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E110" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D110)-SUM($E$63:E109)</f>
-        <v>1</v>
-      </c>
-      <c r="J110" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D110)-SUM($E$61:E109)</f>
+        <v>3</v>
+      </c>
+      <c r="I110" s="2" t="n">
         <f aca="false">A110+1</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E111" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D111)-SUM($E$63:E110)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D111)-SUM($E$61:E110)</f>
+        <v>3</v>
+      </c>
+      <c r="I111" s="2" t="n">
         <f aca="false">A111+1</f>
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E112" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D112)-SUM($E$63:E111)</f>
-        <v>3</v>
-      </c>
-      <c r="J112" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D112)-SUM($E$61:E111)</f>
+        <v>2</v>
+      </c>
+      <c r="I112" s="2" t="n">
         <f aca="false">A112+1</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E113" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D113)-SUM($E$63:E112)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D113)-SUM($E$61:E112)</f>
+        <v>1</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <f aca="false">A113+1</f>
         <v>3</v>
-      </c>
-      <c r="J113" s="0" t="n">
-        <f aca="false">A113+1</f>
-        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E114" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D114)-SUM($E$63:E113)</f>
-        <v>2</v>
-      </c>
-      <c r="J114" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D114)-SUM($E$61:E113)</f>
+        <v>1</v>
+      </c>
+      <c r="I114" s="2" t="n">
         <f aca="false">A114+1</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D115)-SUM($E$61:E114)</f>
         <v>2</v>
       </c>
-      <c r="B115" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D115" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D115)-SUM($E$63:E114)</f>
-        <v>1</v>
-      </c>
-      <c r="J115" s="0" t="n">
+      <c r="I115" s="2" t="n">
         <f aca="false">A115+1</f>
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E116" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D116)-SUM($E$63:E115)</f>
-        <v>1</v>
-      </c>
-      <c r="J116" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D116)-SUM($E$61:E115)</f>
+        <v>1</v>
+      </c>
+      <c r="I116" s="2" t="n">
         <f aca="false">A116+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E117" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D117)-SUM($E$63:E116)</f>
-        <v>2</v>
-      </c>
-      <c r="J117" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D117)-SUM($E$61:E116)</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="2" t="n">
         <f aca="false">A117+1</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E118" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D118)-SUM($E$63:E117)</f>
-        <v>1</v>
-      </c>
-      <c r="J118" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D118)-SUM($E$61:E117)</f>
+        <v>1</v>
+      </c>
+      <c r="I118" s="2" t="n">
         <f aca="false">A118+1</f>
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E119" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D119)-SUM($E$63:E118)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D119)-SUM($E$61:E118)</f>
+        <v>2</v>
+      </c>
+      <c r="I119" s="2" t="n">
         <f aca="false">A119+1</f>
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E120" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D120)-SUM($E$63:E119)</f>
-        <v>1</v>
-      </c>
-      <c r="J120" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D120)-SUM($E$61:E119)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="n">
         <f aca="false">A120+1</f>
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E121" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D121)-SUM($E$63:E120)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D121)-SUM($E$61:E120)</f>
         <v>2</v>
       </c>
-      <c r="J121" s="0" t="n">
+      <c r="I121" s="2" t="n">
         <f aca="false">A121+1</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E122" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D122)-SUM($E$63:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D122)-SUM($E$61:E121)</f>
+        <v>3</v>
+      </c>
+      <c r="I122" s="2" t="n">
         <f aca="false">A122+1</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E123" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D123)-SUM($E$63:E122)</f>
-        <v>2</v>
-      </c>
-      <c r="J123" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D123)-SUM($E$61:E122)</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="n">
         <f aca="false">A123+1</f>
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E124" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D124)-SUM($E$63:E123)</f>
-        <v>3</v>
-      </c>
-      <c r="J124" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D124)-SUM($E$61:E123)</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="n">
         <f aca="false">A124+1</f>
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E125" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D125)-SUM($E$63:E124)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D125)-SUM($E$61:E124)</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="n">
         <f aca="false">A125+1</f>
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E126" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D126)-SUM($E$63:E125)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D126)-SUM($E$61:E125)</f>
+        <v>1</v>
+      </c>
+      <c r="I126" s="2" t="n">
         <f aca="false">A126+1</f>
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E127" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D127)-SUM($E$63:E126)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D127)-SUM($E$61:E126)</f>
+        <v>1</v>
+      </c>
+      <c r="I127" s="2" t="n">
         <f aca="false">A127+1</f>
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E128" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D128)-SUM($E$63:E127)</f>
-        <v>1</v>
-      </c>
-      <c r="J128" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D128)-SUM($E$61:E127)</f>
+        <v>1</v>
+      </c>
+      <c r="I128" s="2" t="n">
         <f aca="false">A128+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E129" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D129)-SUM($E$63:E128)</f>
-        <v>1</v>
-      </c>
-      <c r="J129" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D129)-SUM($E$61:E128)</f>
+        <v>1</v>
+      </c>
+      <c r="I129" s="2" t="n">
         <f aca="false">A129+1</f>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E130" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D130)-SUM($E$63:E129)</f>
-        <v>1</v>
-      </c>
-      <c r="J130" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D130)-SUM($E$61:E129)</f>
+        <v>1</v>
+      </c>
+      <c r="I130" s="2" t="n">
         <f aca="false">A130+1</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E131" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D131)-SUM($E$63:E130)</f>
-        <v>1</v>
-      </c>
-      <c r="J131" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D131)-SUM($E$61:E130)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="n">
         <f aca="false">A131+1</f>
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E132" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D132)-SUM($E$63:E131)</f>
-        <v>1</v>
-      </c>
-      <c r="J132" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D132)-SUM($E$61:E131)</f>
+        <v>1</v>
+      </c>
+      <c r="I132" s="2" t="n">
         <f aca="false">A132+1</f>
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E133" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D133)-SUM($E$63:E132)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D133)-SUM($E$61:E132)</f>
+        <v>1</v>
+      </c>
+      <c r="I133" s="2" t="n">
         <f aca="false">A133+1</f>
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E134" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D134)-SUM($E$63:E133)</f>
-        <v>1</v>
-      </c>
-      <c r="J134" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D134)-SUM($E$61:E133)</f>
+        <v>1</v>
+      </c>
+      <c r="I134" s="2" t="n">
         <f aca="false">A134+1</f>
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E135" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D135)-SUM($E$63:E134)</f>
-        <v>1</v>
-      </c>
-      <c r="J135" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D135)-SUM($E$61:E134)</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="n">
         <f aca="false">A135+1</f>
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E136" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D136)-SUM($E$63:E135)</f>
-        <v>1</v>
-      </c>
-      <c r="J136" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D136)-SUM($E$61:E135)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="n">
         <f aca="false">A136+1</f>
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E137" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D137)-SUM($E$63:E136)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D137)-SUM($E$61:E136)</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="n">
         <f aca="false">A137+1</f>
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E138" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D138)-SUM($E$63:E137)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D138)-SUM($E$61:E137)</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="n">
         <f aca="false">A138+1</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E139" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D139)-SUM($E$63:E138)</f>
-        <v>0</v>
-      </c>
-      <c r="J139" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D139)-SUM($E$61:E138)</f>
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="n">
         <f aca="false">A139+1</f>
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E140" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D140)-SUM($E$63:E139)</f>
-        <v>0</v>
-      </c>
-      <c r="J140" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D140)-SUM($E$61:E139)</f>
+        <v>2</v>
+      </c>
+      <c r="I140" s="2" t="n">
         <f aca="false">A140+1</f>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E141" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D141)-SUM($E$63:E140)</f>
-        <v>0</v>
-      </c>
-      <c r="J141" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D141)-SUM($E$61:E140)</f>
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="n">
         <f aca="false">A141+1</f>
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E142" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D142)-SUM($E$63:E141)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D142)-SUM($E$61:E141)</f>
         <v>2</v>
       </c>
-      <c r="J142" s="0" t="n">
+      <c r="I142" s="2" t="n">
         <f aca="false">A142+1</f>
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E143" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D143)-SUM($E$63:E142)</f>
-        <v>1</v>
-      </c>
-      <c r="J143" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D143)-SUM($E$61:E142)</f>
+        <v>1</v>
+      </c>
+      <c r="I143" s="2" t="n">
         <f aca="false">A143+1</f>
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="B144" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="D144" s="0" t="n">
-        <v>82</v>
-      </c>
       <c r="E144" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D144)-SUM($E$63:E143)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D144)-SUM($E$61:E143)</f>
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <f aca="false">A144+1</f>
         <v>2</v>
-      </c>
-      <c r="J144" s="0" t="n">
-        <f aca="false">A144+1</f>
-        <v>82</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E145" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D145)-SUM($E$63:E144)</f>
-        <v>1</v>
-      </c>
-      <c r="J145" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D145)-SUM($E$61:E144)</f>
+        <v>2</v>
+      </c>
+      <c r="I145" s="2" t="n">
         <f aca="false">A145+1</f>
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E146" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D146)-SUM($E$63:E145)</f>
-        <v>0</v>
-      </c>
-      <c r="J146" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D146)-SUM($E$61:E145)</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="n">
         <f aca="false">A146+1</f>
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,132 +5271,132 @@
         <v>15</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E147" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D147)-SUM($E$63:E146)</f>
-        <v>2</v>
-      </c>
-      <c r="J147" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D147)-SUM($E$61:E146)</f>
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="n">
         <f aca="false">A147+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E148" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D148)-SUM($E$63:E147)</f>
-        <v>0</v>
-      </c>
-      <c r="J148" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D148)-SUM($E$61:E147)</f>
+        <v>1</v>
+      </c>
+      <c r="I148" s="2" t="n">
         <f aca="false">A148+1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E149" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D149)-SUM($E$63:E148)</f>
-        <v>0</v>
-      </c>
-      <c r="J149" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D149)-SUM($E$61:E148)</f>
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="n">
         <f aca="false">A149+1</f>
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E150" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D150)-SUM($E$63:E149)</f>
-        <v>1</v>
-      </c>
-      <c r="J150" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D150)-SUM($E$61:E149)</f>
+        <v>1</v>
+      </c>
+      <c r="I150" s="2" t="n">
         <f aca="false">A150+1</f>
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D151)-SUM($E$61:E150)</f>
         <v>2</v>
       </c>
-      <c r="B151" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="D151" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D151)-SUM($E$63:E150)</f>
-        <v>0</v>
-      </c>
-      <c r="J151" s="0" t="n">
+      <c r="I151" s="2" t="n">
         <f aca="false">A151+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E152" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D152)-SUM($E$63:E151)</f>
-        <v>1</v>
-      </c>
-      <c r="J152" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D152)-SUM($E$61:E151)</f>
+        <v>1</v>
+      </c>
+      <c r="I152" s="2" t="n">
         <f aca="false">A152+1</f>
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E153" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D153)-SUM($E$63:E152)</f>
+        <f aca="false">FREQUENCY($I$56:$I$325,D153)-SUM($E$61:E152)</f>
         <v>2</v>
       </c>
-      <c r="J153" s="0" t="n">
+      <c r="I153" s="2" t="n">
         <f aca="false">A153+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,16 +5404,16 @@
         <v>24</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E154" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D154)-SUM($E$63:E153)</f>
-        <v>1</v>
-      </c>
-      <c r="J154" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D154)-SUM($E$61:E153)</f>
+        <v>0</v>
+      </c>
+      <c r="I154" s="2" t="n">
         <f aca="false">A154+1</f>
         <v>25</v>
       </c>
@@ -5574,271 +5423,257 @@
         <v>0</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E155" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D155)-SUM($E$63:E154)</f>
-        <v>2</v>
-      </c>
-      <c r="J155" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D155)-SUM($E$61:E154)</f>
+        <v>1</v>
+      </c>
+      <c r="I155" s="2" t="n">
         <f aca="false">A155+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E156" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D156)-SUM($E$63:E155)</f>
-        <v>0</v>
-      </c>
-      <c r="J156" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D156)-SUM($E$61:E155)</f>
+        <v>2</v>
+      </c>
+      <c r="I156" s="2" t="n">
         <f aca="false">A156+1</f>
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B157" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="D157" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="D157" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="E157" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D157)-SUM($E$63:E156)</f>
-        <v>1</v>
-      </c>
-      <c r="J157" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D157)-SUM($E$61:E156)</f>
+        <v>4</v>
+      </c>
+      <c r="I157" s="2" t="n">
         <f aca="false">A157+1</f>
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E158" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D158)-SUM($E$63:E157)</f>
-        <v>2</v>
-      </c>
-      <c r="J158" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D158)-SUM($E$61:E157)</f>
+        <v>1</v>
+      </c>
+      <c r="I158" s="2" t="n">
         <f aca="false">A158+1</f>
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E159" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D159)-SUM($E$63:E158)</f>
-        <v>4</v>
-      </c>
-      <c r="J159" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D159)-SUM($E$61:E158)</f>
+        <v>0</v>
+      </c>
+      <c r="I159" s="2" t="n">
         <f aca="false">A159+1</f>
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E160" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D160)-SUM($E$63:E159)</f>
-        <v>1</v>
-      </c>
-      <c r="J160" s="0" t="n">
+        <f aca="false">FREQUENCY($I$56:$I$325,D160)-SUM($E$61:E159)</f>
+        <v>2</v>
+      </c>
+      <c r="I160" s="2" t="n">
         <f aca="false">A160+1</f>
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D161" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="E161" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D161)-SUM($E$63:E160)</f>
-        <v>0</v>
-      </c>
-      <c r="J161" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I161" s="2" t="n">
         <f aca="false">A161+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>49</v>
-      </c>
-      <c r="D162" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <f aca="false">FREQUENCY($J$58:$J$327,D162)-SUM($E$63:E161)</f>
-        <v>2</v>
-      </c>
-      <c r="J162" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I162" s="2" t="n">
         <f aca="false">A162+1</f>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="J163" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I163" s="2" t="n">
         <f aca="false">A163+1</f>
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="J164" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I164" s="2" t="n">
         <f aca="false">A164+1</f>
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="J165" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I165" s="2" t="n">
         <f aca="false">A165+1</f>
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J166" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="I166" s="2" t="n">
         <f aca="false">A166+1</f>
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="J167" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I167" s="2" t="n">
         <f aca="false">A167+1</f>
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="J168" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="I168" s="2" t="n">
         <f aca="false">A168+1</f>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="J169" s="0" t="n">
+      <c r="I169" s="2" t="n">
         <f aca="false">A169+1</f>
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="J170" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I170" s="2" t="n">
         <f aca="false">A170+1</f>
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="J171" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I171" s="2" t="n">
         <f aca="false">A171+1</f>
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J172" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I172" s="2" t="n">
         <f aca="false">A172+1</f>
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,539 +5681,539 @@
         <v>2</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J173" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="I173" s="2" t="n">
         <f aca="false">A173+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="J174" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="I174" s="2" t="n">
         <f aca="false">A174+1</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="J175" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I175" s="2" t="n">
         <f aca="false">A175+1</f>
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="J176" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I176" s="2" t="n">
         <f aca="false">A176+1</f>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="J177" s="0" t="n">
+      <c r="I177" s="2" t="n">
         <f aca="false">A177+1</f>
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J178" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I178" s="2" t="n">
         <f aca="false">A178+1</f>
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="J179" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I179" s="2" t="n">
         <f aca="false">A179+1</f>
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J180" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I180" s="2" t="n">
         <f aca="false">A180+1</f>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B181" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B181" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="J181" s="0" t="n">
+      <c r="I181" s="2" t="n">
         <f aca="false">A181+1</f>
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B182" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="J182" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="I182" s="2" t="n">
         <f aca="false">A182+1</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B183" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="J183" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I183" s="2" t="n">
         <f aca="false">A183+1</f>
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B184" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="J184" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I184" s="2" t="n">
         <f aca="false">A184+1</f>
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="B185" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J185" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I185" s="2" t="n">
         <f aca="false">A185+1</f>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B186" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J186" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I186" s="2" t="n">
         <f aca="false">A186+1</f>
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B187" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="J187" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="I187" s="2" t="n">
         <f aca="false">A187+1</f>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B188" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="J188" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I188" s="2" t="n">
         <f aca="false">A188+1</f>
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="J189" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I189" s="2" t="n">
         <f aca="false">A189+1</f>
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="J190" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I190" s="2" t="n">
         <f aca="false">A190+1</f>
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B191" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="J191" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="I191" s="2" t="n">
         <f aca="false">A191+1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B192" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="J192" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I192" s="2" t="n">
         <f aca="false">A192+1</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="I193" s="2" t="n">
+        <f aca="false">A193+1</f>
         <v>5</v>
-      </c>
-      <c r="B193" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="J193" s="0" t="n">
-        <f aca="false">A193+1</f>
-        <v>6</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B194" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J194" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="I194" s="2" t="n">
         <f aca="false">A194+1</f>
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B195" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="J195" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I195" s="2" t="n">
         <f aca="false">A195+1</f>
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B196" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="J196" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="I196" s="2" t="n">
         <f aca="false">A196+1</f>
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B197" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="J197" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I197" s="2" t="n">
         <f aca="false">A197+1</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B198" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="J198" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I198" s="2" t="n">
         <f aca="false">A198+1</f>
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B199" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="J199" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I199" s="2" t="n">
         <f aca="false">A199+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B200" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J200" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I200" s="2" t="n">
         <f aca="false">A200+1</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B201" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="J201" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I201" s="2" t="n">
         <f aca="false">A201+1</f>
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B202" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="J202" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="I202" s="2" t="n">
         <f aca="false">A202+1</f>
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B203" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="J203" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I203" s="2" t="n">
         <f aca="false">A203+1</f>
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="B204" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="J204" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I204" s="2" t="n">
         <f aca="false">A204+1</f>
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B205" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="J205" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I205" s="2" t="n">
         <f aca="false">A205+1</f>
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B206" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J206" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I206" s="2" t="n">
         <f aca="false">A206+1</f>
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B207" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J207" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="I207" s="2" t="n">
         <f aca="false">A207+1</f>
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B208" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J208" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I208" s="2" t="n">
         <f aca="false">A208+1</f>
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B209" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="J209" s="0" t="n">
+      <c r="I209" s="2" t="n">
         <f aca="false">A209+1</f>
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="B210" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="J210" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="I210" s="2" t="n">
         <f aca="false">A210+1</f>
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B211" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="J211" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I211" s="2" t="n">
         <f aca="false">A211+1</f>
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B212" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="J212" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I212" s="2" t="n">
         <f aca="false">A212+1</f>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B213" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="J213" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I213" s="2" t="n">
         <f aca="false">A213+1</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J214" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I214" s="2" t="n">
         <f aca="false">A214+1</f>
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B215" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="J215" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I215" s="2" t="n">
         <f aca="false">A215+1</f>
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B216" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="J216" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I216" s="2" t="n">
         <f aca="false">A216+1</f>
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J217" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="I217" s="2" t="n">
         <f aca="false">A217+1</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6386,1043 +6221,1043 @@
         <v>3</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J218" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="I218" s="2" t="n">
         <f aca="false">A218+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B219" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="J219" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I219" s="2" t="n">
         <f aca="false">A219+1</f>
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="J220" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I220" s="2" t="n">
         <f aca="false">A220+1</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="J221" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I221" s="2" t="n">
         <f aca="false">A221+1</f>
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B222" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J222" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="I222" s="2" t="n">
         <f aca="false">A222+1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B223" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="J223" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I223" s="2" t="n">
         <f aca="false">A223+1</f>
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="J224" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I224" s="2" t="n">
         <f aca="false">A224+1</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B225" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J225" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="I225" s="2" t="n">
         <f aca="false">A225+1</f>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B226" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J226" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I226" s="2" t="n">
         <f aca="false">A226+1</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B227" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="J227" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I227" s="2" t="n">
         <f aca="false">A227+1</f>
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B228" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J228" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="I228" s="2" t="n">
         <f aca="false">A228+1</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J229" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I229" s="2" t="n">
         <f aca="false">A229+1</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="J230" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I230" s="2" t="n">
         <f aca="false">A230+1</f>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J231" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I231" s="2" t="n">
         <f aca="false">A231+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B232" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="J232" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="I232" s="2" t="n">
         <f aca="false">A232+1</f>
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="J233" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="I233" s="2" t="n">
         <f aca="false">A233+1</f>
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="J234" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="I234" s="2" t="n">
         <f aca="false">A234+1</f>
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="J235" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I235" s="2" t="n">
         <f aca="false">A235+1</f>
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="J236" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I236" s="2" t="n">
         <f aca="false">A236+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B237" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="J237" s="0" t="n">
+      <c r="I237" s="2" t="n">
         <f aca="false">A237+1</f>
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J238" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="I238" s="2" t="n">
         <f aca="false">A238+1</f>
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J239" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I239" s="2" t="n">
         <f aca="false">A239+1</f>
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B240" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="J240" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I240" s="2" t="n">
         <f aca="false">A240+1</f>
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B241" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="J241" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I241" s="2" t="n">
         <f aca="false">A241+1</f>
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B242" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="J242" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="I242" s="2" t="n">
         <f aca="false">A242+1</f>
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B243" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J243" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="I243" s="2" t="n">
         <f aca="false">A243+1</f>
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B244" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="J244" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I244" s="2" t="n">
         <f aca="false">A244+1</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B245" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J245" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I245" s="2" t="n">
         <f aca="false">A245+1</f>
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B246" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J246" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I246" s="2" t="n">
         <f aca="false">A246+1</f>
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B247" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="J247" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="I247" s="2" t="n">
         <f aca="false">A247+1</f>
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B248" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="J248" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="I248" s="2" t="n">
         <f aca="false">A248+1</f>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B249" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="J249" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="I249" s="2" t="n">
         <f aca="false">A249+1</f>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B250" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="J250" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="I250" s="2" t="n">
         <f aca="false">A250+1</f>
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B251" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="J251" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I251" s="2" t="n">
         <f aca="false">A251+1</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B252" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="J252" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I252" s="2" t="n">
         <f aca="false">A252+1</f>
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B253" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J253" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I253" s="2" t="n">
         <f aca="false">A253+1</f>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B254" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="J254" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I254" s="2" t="n">
         <f aca="false">A254+1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B255" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J255" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I255" s="2" t="n">
         <f aca="false">A255+1</f>
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B256" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J256" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="I256" s="2" t="n">
         <f aca="false">A256+1</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B257" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J257" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="I257" s="2" t="n">
         <f aca="false">A257+1</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="J258" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I258" s="2" t="n">
         <f aca="false">A258+1</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="J259" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I259" s="2" t="n">
         <f aca="false">A259+1</f>
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="J260" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I260" s="2" t="n">
         <f aca="false">A260+1</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="J261" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I261" s="2" t="n">
         <f aca="false">A261+1</f>
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="J262" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="I262" s="2" t="n">
         <f aca="false">A262+1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="J263" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I263" s="2" t="n">
         <f aca="false">A263+1</f>
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="J264" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I264" s="2" t="n">
         <f aca="false">A264+1</f>
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="J265" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I265" s="2" t="n">
         <f aca="false">A265+1</f>
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="J266" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I266" s="2" t="n">
         <f aca="false">A266+1</f>
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="J267" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I267" s="2" t="n">
         <f aca="false">A267+1</f>
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="J268" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I268" s="2" t="n">
         <f aca="false">A268+1</f>
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="J269" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I269" s="2" t="n">
         <f aca="false">A269+1</f>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="J270" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="I270" s="2" t="n">
         <f aca="false">A270+1</f>
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J271" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="I271" s="2" t="n">
         <f aca="false">A271+1</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="J272" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" s="2" t="n">
         <f aca="false">A272+1</f>
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="J273" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I273" s="2" t="n">
         <f aca="false">A273+1</f>
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I274" s="2" t="n">
         <f aca="false">A274+1</f>
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="J275" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="I275" s="2" t="n">
         <f aca="false">A275+1</f>
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="J276" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I276" s="2" t="n">
         <f aca="false">A276+1</f>
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="J277" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I277" s="2" t="n">
         <f aca="false">A277+1</f>
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="J278" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I278" s="2" t="n">
         <f aca="false">A278+1</f>
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="J279" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I279" s="2" t="n">
         <f aca="false">A279+1</f>
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B280" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B280" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="J280" s="0" t="n">
+      <c r="I280" s="2" t="n">
         <f aca="false">A280+1</f>
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J281" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I281" s="2" t="n">
         <f aca="false">A281+1</f>
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J282" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="I282" s="2" t="n">
         <f aca="false">A282+1</f>
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="J283" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I283" s="2" t="n">
         <f aca="false">A283+1</f>
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="J284" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I284" s="2" t="n">
         <f aca="false">A284+1</f>
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="J285" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="I285" s="2" t="n">
         <f aca="false">A285+1</f>
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="I286" s="2" t="n">
+        <f aca="false">A286+1</f>
         <v>3</v>
-      </c>
-      <c r="B286" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="J286" s="0" t="n">
-        <f aca="false">A286+1</f>
-        <v>4</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>74</v>
-      </c>
-      <c r="J287" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="I287" s="2" t="n">
         <f aca="false">A287+1</f>
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="J288" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="I288" s="2" t="n">
         <f aca="false">A288+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="J289" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I289" s="2" t="n">
         <f aca="false">A289+1</f>
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="J290" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="I290" s="2" t="n">
         <f aca="false">A290+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="J291" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="I291" s="2" t="n">
         <f aca="false">A291+1</f>
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="J292" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I292" s="2" t="n">
         <f aca="false">A292+1</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="J293" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="I293" s="2" t="n">
         <f aca="false">A293+1</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I294" s="2" t="n">
+        <f aca="false">A294+1</f>
         <v>2</v>
-      </c>
-      <c r="B294" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="J294" s="0" t="n">
-        <f aca="false">A294+1</f>
-        <v>3</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="J295" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I295" s="2" t="n">
         <f aca="false">A295+1</f>
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J296" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="I296" s="2" t="n">
         <f aca="false">A296+1</f>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="J297" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I297" s="2" t="n">
         <f aca="false">A297+1</f>
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="J298" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="I298" s="2" t="n">
         <f aca="false">A298+1</f>
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="J299" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I299" s="2" t="n">
         <f aca="false">A299+1</f>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>92</v>
-      </c>
-      <c r="J300" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="I300" s="2" t="n">
         <f aca="false">A300+1</f>
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J301" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I301" s="2" t="n">
         <f aca="false">A301+1</f>
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="J302" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" s="2" t="n">
         <f aca="false">A302+1</f>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J303" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I303" s="2" t="n">
         <f aca="false">A303+1</f>
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I304" s="2" t="n">
         <f aca="false">A304+1</f>
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,277 +7265,255 @@
         <v>2</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J305" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I305" s="2" t="n">
         <f aca="false">A305+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="J306" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I306" s="2" t="n">
         <f aca="false">A306+1</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="J307" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I307" s="2" t="n">
         <f aca="false">A307+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="J308" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I308" s="2" t="n">
         <f aca="false">A308+1</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J309" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I309" s="2" t="n">
         <f aca="false">A309+1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J310" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I310" s="2" t="n">
         <f aca="false">A310+1</f>
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="J311" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="I311" s="2" t="n">
         <f aca="false">A311+1</f>
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J312" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I312" s="2" t="n">
         <f aca="false">A312+1</f>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="J313" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I313" s="2" t="n">
         <f aca="false">A313+1</f>
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J314" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="I314" s="2" t="n">
         <f aca="false">A314+1</f>
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="J315" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="I315" s="2" t="n">
         <f aca="false">A315+1</f>
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="J316" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="I316" s="2" t="n">
         <f aca="false">A316+1</f>
-        <v>98</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="J317" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="I317" s="2" t="n">
         <f aca="false">A317+1</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="J318" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I318" s="2" t="n">
         <f aca="false">A318+1</f>
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="J319" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="I319" s="2" t="n">
         <f aca="false">A319+1</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="J320" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I320" s="2" t="n">
         <f aca="false">A320+1</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="J321" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="I321" s="2" t="n">
         <f aca="false">A321+1</f>
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="J322" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I322" s="2" t="n">
         <f aca="false">A322+1</f>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J323" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="I323" s="2" t="n">
         <f aca="false">A323+1</f>
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="J324" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="I324" s="2" t="n">
         <f aca="false">A324+1</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="J325" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="I325" s="2" t="n">
         <f aca="false">A325+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B326" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="J326" s="0" t="n">
-        <f aca="false">A326+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B327" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="J327" s="0" t="n">
-        <f aca="false">A327+1</f>
         <v>11</v>
       </c>
     </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7717,7 +7530,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="35">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -7742,18 +7555,15 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="C26:I26"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:Q33"/>
+    <mergeCell ref="C33:I33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
   </mergeCells>
@@ -7786,16 +7596,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,52 +7628,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14100,7 +13910,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0.23</v>
@@ -14124,7 +13934,7 @@
         <v>64</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>102</v>
@@ -14144,7 +13954,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>0.26</v>
@@ -14174,7 +13984,7 @@
         <v>73</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="S106" s="2" t="n">
         <v>103</v>
@@ -14194,7 +14004,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>0.2</v>
@@ -14224,7 +14034,7 @@
         <v>85</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S107" s="2" t="n">
         <v>104</v>
@@ -20516,17 +20326,17 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S305" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S306" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S307" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -20555,16 +20365,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20588,52 +20398,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26870,7 +26680,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>102</v>
@@ -26888,7 +26698,7 @@
         <v>570</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>102</v>
@@ -26908,7 +26718,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>103</v>
@@ -26926,7 +26736,7 @@
         <v>546</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="S106" s="2" t="n">
         <v>103</v>
@@ -26946,7 +26756,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>104</v>
@@ -26964,7 +26774,7 @@
         <v>553</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="S107" s="2" t="n">
         <v>104</v>
@@ -33256,26 +33066,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -33304,16 +33114,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33337,52 +33147,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39619,7 +39429,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>102</v>
@@ -39637,7 +39447,7 @@
         <v>3360</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>102</v>
@@ -39657,7 +39467,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>103</v>
@@ -39675,7 +39485,7 @@
         <v>3172</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="S106" s="2" t="n">
         <v>103</v>
@@ -39695,7 +39505,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>104</v>
@@ -39713,7 +39523,7 @@
         <v>3227</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="S107" s="2" t="n">
         <v>104</v>
@@ -46005,26 +45815,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -46053,20 +45863,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="n">
         <f aca="false">COUNTIF(H4:H103,"=1")</f>
         <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46098,52 +45908,52 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52380,7 +52190,7 @@
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>102</v>
@@ -52398,7 +52208,7 @@
         <v>3281</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="S105" s="2" t="n">
         <v>102</v>
@@ -52418,7 +52228,7 @@
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>103</v>
@@ -52436,7 +52246,7 @@
         <v>3285</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="S106" s="2" t="n">
         <v>103</v>
@@ -52456,7 +52266,7 @@
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>104</v>
@@ -52474,7 +52284,7 @@
         <v>3161</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="S107" s="2" t="n">
         <v>104</v>
@@ -58766,26 +58576,26 @@
     </row>
     <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G305" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S305" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G306" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S306" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G307" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="S307" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -58814,28 +58624,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>44</v>
@@ -58858,14 +58668,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O2)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="53" t="n">
+      <c r="Q2" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O2,$D$3:$D$302)</f>
         <v>0.79</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="53" t="n">
+      <c r="T2" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S2,$Q$2:$Q$102),"")</f>
         <v>0.76825</v>
       </c>
@@ -58906,14 +58716,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O3)</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="53" t="n">
+      <c r="Q3" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O3,$D$3:$D$302)</f>
         <v>0.75</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="T3" s="53" t="n">
+      <c r="T3" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S3,$Q$2:$Q$102),"")</f>
         <v>0.806346153846154</v>
       </c>
@@ -58954,14 +58764,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O4)</f>
         <v>2</v>
       </c>
-      <c r="Q4" s="53" t="n">
+      <c r="Q4" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O4,$D$3:$D$302)</f>
         <v>0.91</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="T4" s="53" t="n">
+      <c r="T4" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S4,$Q$2:$Q$102),"")</f>
         <v>0.771481481481481</v>
       </c>
@@ -59002,14 +58812,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O5)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="53" t="n">
+      <c r="Q5" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O5,$D$3:$D$302)</f>
         <v>0.58</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="T5" s="53" t="n">
+      <c r="T5" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S5,$Q$2:$Q$102),"")</f>
         <v>0.802083333333333</v>
       </c>
@@ -59050,14 +58860,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O6)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="53" t="n">
+      <c r="Q6" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O6,$D$3:$D$302)</f>
         <v>0.68</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="T6" s="53" t="n">
+      <c r="T6" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S6,$Q$2:$Q$102),"")</f>
         <v>0.833714285714286</v>
       </c>
@@ -59098,14 +58908,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O7)</f>
         <v>2</v>
       </c>
-      <c r="Q7" s="53" t="n">
+      <c r="Q7" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O7,$D$3:$D$302)</f>
         <v>0.56</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="T7" s="53" t="n">
+      <c r="T7" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S7,$Q$2:$Q$102),"")</f>
         <v>0.813095238095238</v>
       </c>
@@ -59146,14 +58956,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O8)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="53" t="n">
+      <c r="Q8" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O8,$D$3:$D$302)</f>
         <v>0.73</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="T8" s="53" t="n">
+      <c r="T8" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S8,$Q$2:$Q$102),"")</f>
         <v>0.741428571428571</v>
       </c>
@@ -59194,14 +59004,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O9)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="53" t="n">
+      <c r="Q9" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O9,$D$3:$D$302)</f>
         <v>0.75</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="T9" s="53" t="n">
+      <c r="T9" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S9,$Q$2:$Q$102),"")</f>
         <v>0.83875</v>
       </c>
@@ -59242,14 +59052,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O10)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="53" t="n">
+      <c r="Q10" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O10,$D$3:$D$302)</f>
         <v>0.97</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="T10" s="53" t="n">
+      <c r="T10" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S10,$Q$2:$Q$102),"")</f>
         <v>0.768888888888889</v>
       </c>
@@ -59290,14 +59100,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O11)</f>
         <v>2</v>
       </c>
-      <c r="Q11" s="53" t="n">
+      <c r="Q11" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O11,$D$3:$D$302)</f>
         <v>0.95</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="T11" s="53" t="str">
+      <c r="T11" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S11,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59338,14 +59148,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O12)</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="53" t="n">
+      <c r="Q12" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O12,$D$3:$D$302)</f>
         <v>0.57</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="T12" s="53" t="str">
+      <c r="T12" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S12,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59386,14 +59196,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O13)</f>
         <v>2</v>
       </c>
-      <c r="Q13" s="53" t="n">
+      <c r="Q13" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O13,$D$3:$D$302)</f>
         <v>0.82</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="T13" s="53" t="str">
+      <c r="T13" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S13,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59434,14 +59244,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O14)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="53" t="n">
+      <c r="Q14" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O14,$D$3:$D$302)</f>
         <v>0.876666666666667</v>
       </c>
       <c r="S14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="T14" s="53" t="n">
+      <c r="T14" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S14,$Q$2:$Q$102),"")</f>
         <v>0.82</v>
       </c>
@@ -59482,14 +59292,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O15)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="53" t="n">
+      <c r="Q15" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O15,$D$3:$D$302)</f>
         <v>0.83</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="T15" s="53" t="str">
+      <c r="T15" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S15,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59530,14 +59340,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O16)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="53" t="n">
+      <c r="Q16" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O16,$D$3:$D$302)</f>
         <v>0.74</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="T16" s="53" t="str">
+      <c r="T16" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S16,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59578,14 +59388,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O17)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="53" t="n">
+      <c r="Q17" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O17,$D$3:$D$302)</f>
         <v>0.64</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="T17" s="53" t="str">
+      <c r="T17" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S17,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59626,14 +59436,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O18)</f>
         <v>4</v>
       </c>
-      <c r="Q18" s="53" t="n">
+      <c r="Q18" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O18,$D$3:$D$302)</f>
         <v>0.81</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="T18" s="53" t="str">
+      <c r="T18" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S18,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59674,14 +59484,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O19)</f>
         <v>5</v>
       </c>
-      <c r="Q19" s="53" t="n">
+      <c r="Q19" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O19,$D$3:$D$302)</f>
         <v>0.65</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="T19" s="53" t="str">
+      <c r="T19" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S19,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59722,14 +59532,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O20)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="53" t="n">
+      <c r="Q20" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O20,$D$3:$D$302)</f>
         <v>0.896666666666667</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="T20" s="53" t="str">
+      <c r="T20" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S20,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59770,14 +59580,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O21)</f>
         <v>6</v>
       </c>
-      <c r="Q21" s="53" t="n">
+      <c r="Q21" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O21,$D$3:$D$302)</f>
         <v>0.896666666666667</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="T21" s="53" t="str">
+      <c r="T21" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S21,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59818,14 +59628,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O22)</f>
         <v>5</v>
       </c>
-      <c r="Q22" s="53" t="n">
+      <c r="Q22" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O22,$D$3:$D$302)</f>
         <v>0.868</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="T22" s="53" t="n">
+      <c r="T22" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S22,$Q$2:$Q$102),"")</f>
         <v>0.792857142857143</v>
       </c>
@@ -59866,14 +59676,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O23)</f>
         <v>3</v>
       </c>
-      <c r="Q23" s="53" t="n">
+      <c r="Q23" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O23,$D$3:$D$302)</f>
         <v>0.743333333333333</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="T23" s="53" t="str">
+      <c r="T23" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S23,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59914,14 +59724,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O24)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="53" t="n">
+      <c r="Q24" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O24,$D$3:$D$302)</f>
         <v>0.98</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="T24" s="53" t="str">
+      <c r="T24" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S24,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -59962,14 +59772,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O25)</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="53" t="n">
+      <c r="Q25" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O25,$D$3:$D$302)</f>
         <v>0.945</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="T25" s="53" t="str">
+      <c r="T25" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S25,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60010,14 +59820,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O26)</f>
         <v>1</v>
       </c>
-      <c r="Q26" s="53" t="n">
+      <c r="Q26" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O26,$D$3:$D$302)</f>
         <v>0.61</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="T26" s="53" t="str">
+      <c r="T26" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S26,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60058,14 +59868,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O27)</f>
         <v>2</v>
       </c>
-      <c r="Q27" s="53" t="n">
+      <c r="Q27" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O27,$D$3:$D$302)</f>
         <v>0.695</v>
       </c>
       <c r="S27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="T27" s="53" t="str">
+      <c r="T27" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S27,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60106,14 +59916,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O28)</f>
         <v>5</v>
       </c>
-      <c r="Q28" s="53" t="n">
+      <c r="Q28" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O28,$D$3:$D$302)</f>
         <v>0.928</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="T28" s="53" t="str">
+      <c r="T28" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S28,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60154,14 +59964,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O29)</f>
         <v>4</v>
       </c>
-      <c r="Q29" s="53" t="n">
+      <c r="Q29" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O29,$D$3:$D$302)</f>
         <v>0.8025</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="T29" s="53" t="n">
+      <c r="T29" s="54" t="n">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S29,$Q$2:$Q$102),"")</f>
         <v>0.814642857142857</v>
       </c>
@@ -60202,14 +60012,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O30)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="53" t="n">
+      <c r="Q30" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O30,$D$3:$D$302)</f>
         <v>0.66</v>
       </c>
       <c r="S30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="T30" s="53" t="str">
+      <c r="T30" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S30,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60250,14 +60060,14 @@
         <f aca="false">COUNTIF($B$3:$B$302,O31)</f>
         <v>2</v>
       </c>
-      <c r="Q31" s="53" t="n">
+      <c r="Q31" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O31,$D$3:$D$302)</f>
         <v>0.995</v>
       </c>
       <c r="S31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="T31" s="53" t="str">
+      <c r="T31" s="54" t="str">
         <f aca="false">IFERROR(AVERAGEIF($P$2:$P$102,S31,$Q$2:$Q$102),"")</f>
         <v/>
       </c>
@@ -60298,7 +60108,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O32)</f>
         <v>9</v>
       </c>
-      <c r="Q32" s="53" t="n">
+      <c r="Q32" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O32,$D$3:$D$302)</f>
         <v>0.768888888888889</v>
       </c>
@@ -60339,7 +60149,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O33)</f>
         <v>2</v>
       </c>
-      <c r="Q33" s="53" t="n">
+      <c r="Q33" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O33,$D$3:$D$302)</f>
         <v>0.91</v>
       </c>
@@ -60380,7 +60190,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O34)</f>
         <v>2</v>
       </c>
-      <c r="Q34" s="53" t="n">
+      <c r="Q34" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O34,$D$3:$D$302)</f>
         <v>0.9</v>
       </c>
@@ -60421,7 +60231,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O35)</f>
         <v>6</v>
       </c>
-      <c r="Q35" s="53" t="n">
+      <c r="Q35" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O35,$D$3:$D$302)</f>
         <v>0.723333333333333</v>
       </c>
@@ -60462,7 +60272,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O36)</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="53" t="n">
+      <c r="Q36" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O36,$D$3:$D$302)</f>
         <v>0.84</v>
       </c>
@@ -60503,7 +60313,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O37)</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="53" t="n">
+      <c r="Q37" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O37,$D$3:$D$302)</f>
         <v>0.37</v>
       </c>
@@ -60544,7 +60354,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O38)</f>
         <v>2</v>
       </c>
-      <c r="Q38" s="53" t="n">
+      <c r="Q38" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O38,$D$3:$D$302)</f>
         <v>0.89</v>
       </c>
@@ -60585,7 +60395,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O39)</f>
         <v>6</v>
       </c>
-      <c r="Q39" s="53" t="n">
+      <c r="Q39" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O39,$D$3:$D$302)</f>
         <v>0.76</v>
       </c>
@@ -60626,7 +60436,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O40)</f>
         <v>2</v>
       </c>
-      <c r="Q40" s="53" t="n">
+      <c r="Q40" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O40,$D$3:$D$302)</f>
         <v>0.93</v>
       </c>
@@ -60667,7 +60477,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O41)</f>
         <v>1</v>
       </c>
-      <c r="Q41" s="53" t="n">
+      <c r="Q41" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O41,$D$3:$D$302)</f>
         <v>0.97</v>
       </c>
@@ -60708,7 +60518,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O42)</f>
         <v>5</v>
       </c>
-      <c r="Q42" s="53" t="n">
+      <c r="Q42" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O42,$D$3:$D$302)</f>
         <v>0.798</v>
       </c>
@@ -60749,7 +60559,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O43)</f>
         <v>1</v>
       </c>
-      <c r="Q43" s="53" t="n">
+      <c r="Q43" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O43,$D$3:$D$302)</f>
         <v>0.63</v>
       </c>
@@ -60790,7 +60600,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O44)</f>
         <v>2</v>
       </c>
-      <c r="Q44" s="53" t="n">
+      <c r="Q44" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O44,$D$3:$D$302)</f>
         <v>0.79</v>
       </c>
@@ -60831,7 +60641,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O45)</f>
         <v>1</v>
       </c>
-      <c r="Q45" s="53" t="n">
+      <c r="Q45" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O45,$D$3:$D$302)</f>
         <v>0.85</v>
       </c>
@@ -60872,7 +60682,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O46)</f>
         <v>4</v>
       </c>
-      <c r="Q46" s="53" t="n">
+      <c r="Q46" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O46,$D$3:$D$302)</f>
         <v>0.66</v>
       </c>
@@ -60913,7 +60723,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O47)</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="53" t="n">
+      <c r="Q47" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O47,$D$3:$D$302)</f>
         <v>0.62</v>
       </c>
@@ -60954,7 +60764,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O48)</f>
         <v>1</v>
       </c>
-      <c r="Q48" s="53" t="n">
+      <c r="Q48" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O48,$D$3:$D$302)</f>
         <v>0.67</v>
       </c>
@@ -60995,7 +60805,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O49)</f>
         <v>1</v>
       </c>
-      <c r="Q49" s="53" t="n">
+      <c r="Q49" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O49,$D$3:$D$302)</f>
         <v>1</v>
       </c>
@@ -61036,7 +60846,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O50)</f>
         <v>2</v>
       </c>
-      <c r="Q50" s="53" t="n">
+      <c r="Q50" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O50,$D$3:$D$302)</f>
         <v>0.955</v>
       </c>
@@ -61077,7 +60887,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O51)</f>
         <v>7</v>
       </c>
-      <c r="Q51" s="53" t="n">
+      <c r="Q51" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O51,$D$3:$D$302)</f>
         <v>0.741428571428571</v>
       </c>
@@ -61118,7 +60928,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O52)</f>
         <v>3</v>
       </c>
-      <c r="Q52" s="53" t="n">
+      <c r="Q52" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O52,$D$3:$D$302)</f>
         <v>0.823333333333333</v>
       </c>
@@ -61159,7 +60969,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O53)</f>
         <v>1</v>
       </c>
-      <c r="Q53" s="53" t="n">
+      <c r="Q53" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O53,$D$3:$D$302)</f>
         <v>0.44</v>
       </c>
@@ -61200,7 +61010,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O54)</f>
         <v>2</v>
       </c>
-      <c r="Q54" s="53" t="n">
+      <c r="Q54" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O54,$D$3:$D$302)</f>
         <v>0.94</v>
       </c>
@@ -61241,7 +61051,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O55)</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="53" t="n">
+      <c r="Q55" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O55,$D$3:$D$302)</f>
         <v>0.51</v>
       </c>
@@ -61282,7 +61092,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O56)</f>
         <v>1</v>
       </c>
-      <c r="Q56" s="53" t="n">
+      <c r="Q56" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O56,$D$3:$D$302)</f>
         <v>0.88</v>
       </c>
@@ -61323,7 +61133,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O57)</f>
         <v>1</v>
       </c>
-      <c r="Q57" s="53" t="n">
+      <c r="Q57" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O57,$D$3:$D$302)</f>
         <v>0.9</v>
       </c>
@@ -61364,7 +61174,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O58)</f>
         <v>2</v>
       </c>
-      <c r="Q58" s="53" t="n">
+      <c r="Q58" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O58,$D$3:$D$302)</f>
         <v>0.605</v>
       </c>
@@ -61405,7 +61215,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O59)</f>
         <v>2</v>
       </c>
-      <c r="Q59" s="53" t="n">
+      <c r="Q59" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O59,$D$3:$D$302)</f>
         <v>0.575</v>
       </c>
@@ -61446,7 +61256,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O60)</f>
         <v>2</v>
       </c>
-      <c r="Q60" s="53" t="n">
+      <c r="Q60" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O60,$D$3:$D$302)</f>
         <v>0.615</v>
       </c>
@@ -61487,7 +61297,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O61)</f>
         <v>1</v>
       </c>
-      <c r="Q61" s="53" t="n">
+      <c r="Q61" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O61,$D$3:$D$302)</f>
         <v>0.79</v>
       </c>
@@ -61528,7 +61338,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O62)</f>
         <v>2</v>
       </c>
-      <c r="Q62" s="53" t="n">
+      <c r="Q62" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O62,$D$3:$D$302)</f>
         <v>0.675</v>
       </c>
@@ -61569,7 +61379,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O63)</f>
         <v>3</v>
       </c>
-      <c r="Q63" s="53" t="n">
+      <c r="Q63" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O63,$D$3:$D$302)</f>
         <v>0.67</v>
       </c>
@@ -61610,7 +61420,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O64)</f>
         <v>2</v>
       </c>
-      <c r="Q64" s="53" t="n">
+      <c r="Q64" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O64,$D$3:$D$302)</f>
         <v>0.925</v>
       </c>
@@ -61651,7 +61461,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O65)</f>
         <v>3</v>
       </c>
-      <c r="Q65" s="53" t="n">
+      <c r="Q65" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O65,$D$3:$D$302)</f>
         <v>0.686666666666667</v>
       </c>
@@ -61692,7 +61502,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O66)</f>
         <v>1</v>
       </c>
-      <c r="Q66" s="53" t="n">
+      <c r="Q66" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O66,$D$3:$D$302)</f>
         <v>0.69</v>
       </c>
@@ -61733,7 +61543,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O67)</f>
         <v>2</v>
       </c>
-      <c r="Q67" s="53" t="n">
+      <c r="Q67" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O67,$D$3:$D$302)</f>
         <v>0.9</v>
       </c>
@@ -61774,7 +61584,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O68)</f>
         <v>2</v>
       </c>
-      <c r="Q68" s="53" t="n">
+      <c r="Q68" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O68,$D$3:$D$302)</f>
         <v>0.76</v>
       </c>
@@ -61815,7 +61625,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O69)</f>
         <v>4</v>
       </c>
-      <c r="Q69" s="53" t="n">
+      <c r="Q69" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O69,$D$3:$D$302)</f>
         <v>0.8825</v>
       </c>
@@ -61856,7 +61666,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O70)</f>
         <v>28</v>
       </c>
-      <c r="Q70" s="53" t="n">
+      <c r="Q70" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O70,$D$3:$D$302)</f>
         <v>0.814642857142857</v>
       </c>
@@ -61897,7 +61707,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O71)</f>
         <v>3</v>
       </c>
-      <c r="Q71" s="53" t="n">
+      <c r="Q71" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O71,$D$3:$D$302)</f>
         <v>0.886666666666667</v>
       </c>
@@ -61938,7 +61748,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O72)</f>
         <v>21</v>
       </c>
-      <c r="Q72" s="53" t="n">
+      <c r="Q72" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O72,$D$3:$D$302)</f>
         <v>0.792857142857143</v>
       </c>
@@ -61979,7 +61789,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O73)</f>
         <v>8</v>
       </c>
-      <c r="Q73" s="53" t="n">
+      <c r="Q73" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O73,$D$3:$D$302)</f>
         <v>0.83875</v>
       </c>
@@ -62020,7 +61830,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O74)</f>
         <v>6</v>
       </c>
-      <c r="Q74" s="53" t="n">
+      <c r="Q74" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O74,$D$3:$D$302)</f>
         <v>0.82</v>
       </c>
@@ -62061,7 +61871,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O75)</f>
         <v>1</v>
       </c>
-      <c r="Q75" s="53" t="n">
+      <c r="Q75" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O75,$D$3:$D$302)</f>
         <v>0.95</v>
       </c>
@@ -62102,7 +61912,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O76)</f>
         <v>3</v>
       </c>
-      <c r="Q76" s="53" t="n">
+      <c r="Q76" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O76,$D$3:$D$302)</f>
         <v>0.646666666666667</v>
       </c>
@@ -62143,7 +61953,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O77)</f>
         <v>1</v>
       </c>
-      <c r="Q77" s="53" t="n">
+      <c r="Q77" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O77,$D$3:$D$302)</f>
         <v>0.55</v>
       </c>
@@ -62184,7 +61994,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O78)</f>
         <v>5</v>
       </c>
-      <c r="Q78" s="53" t="n">
+      <c r="Q78" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O78,$D$3:$D$302)</f>
         <v>0.902</v>
       </c>
@@ -62225,7 +62035,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O79)</f>
         <v>1</v>
       </c>
-      <c r="Q79" s="53" t="n">
+      <c r="Q79" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O79,$D$3:$D$302)</f>
         <v>0.99</v>
       </c>
@@ -62266,7 +62076,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O80)</f>
         <v>4</v>
       </c>
-      <c r="Q80" s="53" t="n">
+      <c r="Q80" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O80,$D$3:$D$302)</f>
         <v>0.88</v>
       </c>
@@ -62307,7 +62117,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O81)</f>
         <v>2</v>
       </c>
-      <c r="Q81" s="53" t="n">
+      <c r="Q81" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O81,$D$3:$D$302)</f>
         <v>0.68</v>
       </c>
@@ -62348,7 +62158,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O82)</f>
         <v>4</v>
       </c>
-      <c r="Q82" s="53" t="n">
+      <c r="Q82" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O82,$D$3:$D$302)</f>
         <v>0.7775</v>
       </c>
@@ -62389,7 +62199,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O83)</f>
         <v>5</v>
       </c>
-      <c r="Q83" s="53" t="n">
+      <c r="Q83" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O83,$D$3:$D$302)</f>
         <v>0.812</v>
       </c>
@@ -62430,7 +62240,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O84)</f>
         <v>1</v>
       </c>
-      <c r="Q84" s="53" t="n">
+      <c r="Q84" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O84,$D$3:$D$302)</f>
         <v>0.94</v>
       </c>
@@ -62471,7 +62281,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O85)</f>
         <v>6</v>
       </c>
-      <c r="Q85" s="53" t="n">
+      <c r="Q85" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O85,$D$3:$D$302)</f>
         <v>0.668333333333333</v>
       </c>
@@ -62512,7 +62322,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O86)</f>
         <v>13</v>
       </c>
-      <c r="Q86" s="53" t="n">
+      <c r="Q86" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O86,$D$3:$D$302)</f>
         <v>0.82</v>
       </c>
@@ -62553,7 +62363,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O87)</f>
         <v>6</v>
       </c>
-      <c r="Q87" s="53" t="n">
+      <c r="Q87" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O87,$D$3:$D$302)</f>
         <v>0.926666666666667</v>
       </c>
@@ -62594,7 +62404,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O88)</f>
         <v>1</v>
       </c>
-      <c r="Q88" s="53" t="n">
+      <c r="Q88" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O88,$D$3:$D$302)</f>
         <v>0.83</v>
       </c>
@@ -62635,7 +62445,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O89)</f>
         <v>2</v>
       </c>
-      <c r="Q89" s="53" t="n">
+      <c r="Q89" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O89,$D$3:$D$302)</f>
         <v>0.785</v>
       </c>
@@ -62676,7 +62486,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O90)</f>
         <v>1</v>
       </c>
-      <c r="Q90" s="53" t="n">
+      <c r="Q90" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O90,$D$3:$D$302)</f>
         <v>0.9</v>
       </c>
@@ -62717,7 +62527,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O91)</f>
         <v>1</v>
       </c>
-      <c r="Q91" s="53" t="n">
+      <c r="Q91" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O91,$D$3:$D$302)</f>
         <v>0.92</v>
       </c>
@@ -62758,7 +62568,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O92)</f>
         <v>1</v>
       </c>
-      <c r="Q92" s="53" t="n">
+      <c r="Q92" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O92,$D$3:$D$302)</f>
         <v>0.8</v>
       </c>
@@ -62799,7 +62609,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O93)</f>
         <v>2</v>
       </c>
-      <c r="Q93" s="53" t="n">
+      <c r="Q93" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O93,$D$3:$D$302)</f>
         <v>0.825</v>
       </c>
@@ -62840,7 +62650,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O94)</f>
         <v>2</v>
       </c>
-      <c r="Q94" s="53" t="n">
+      <c r="Q94" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O94,$D$3:$D$302)</f>
         <v>0.79</v>
       </c>
@@ -62881,7 +62691,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O95)</f>
         <v>5</v>
       </c>
-      <c r="Q95" s="53" t="n">
+      <c r="Q95" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O95,$D$3:$D$302)</f>
         <v>0.878</v>
       </c>
@@ -62922,7 +62732,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O96)</f>
         <v>1</v>
       </c>
-      <c r="Q96" s="53" t="n">
+      <c r="Q96" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O96,$D$3:$D$302)</f>
         <v>0.67</v>
       </c>
@@ -62963,7 +62773,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O97)</f>
         <v>3</v>
       </c>
-      <c r="Q97" s="53" t="n">
+      <c r="Q97" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O97,$D$3:$D$302)</f>
         <v>0.78</v>
       </c>
@@ -63004,7 +62814,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O98)</f>
         <v>1</v>
       </c>
-      <c r="Q98" s="53" t="n">
+      <c r="Q98" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O98,$D$3:$D$302)</f>
         <v>0.97</v>
       </c>
@@ -63045,7 +62855,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O99)</f>
         <v>1</v>
       </c>
-      <c r="Q99" s="53" t="n">
+      <c r="Q99" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O99,$D$3:$D$302)</f>
         <v>0.86</v>
       </c>
@@ -63086,7 +62896,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O100)</f>
         <v>3</v>
       </c>
-      <c r="Q100" s="53" t="n">
+      <c r="Q100" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O100,$D$3:$D$302)</f>
         <v>0.83</v>
       </c>
@@ -63127,7 +62937,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O101)</f>
         <v>1</v>
       </c>
-      <c r="Q101" s="53" t="n">
+      <c r="Q101" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O101,$D$3:$D$302)</f>
         <v>0.57</v>
       </c>
@@ -63168,7 +62978,7 @@
         <f aca="false">COUNTIF($B$3:$B$302,O102)</f>
         <v>1</v>
       </c>
-      <c r="Q102" s="53" t="n">
+      <c r="Q102" s="54" t="n">
         <f aca="false">AVERAGEIF(B$3:B$302,O102,$D$3:$D$302)</f>
         <v>0.98</v>
       </c>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -1075,7 +1075,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1431,11 +1431,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="15249839"/>
-        <c:axId val="92587507"/>
+        <c:axId val="46970954"/>
+        <c:axId val="86175656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="15249839"/>
+        <c:axId val="46970954"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1491,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92587507"/>
+        <c:crossAx val="86175656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92587507"/>
+        <c:axId val="86175656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15249839"/>
+        <c:crossAx val="46970954"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3177,11 +3177,21 @@
         <f aca="false">$C$14</f>
         <v>0.6798</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="D28" s="42" t="n">
+        <v>0.4422</v>
+      </c>
+      <c r="E28" s="43" t="n">
+        <v>0.2317</v>
+      </c>
+      <c r="F28" s="43" t="n">
+        <v>0.0892</v>
+      </c>
+      <c r="G28" s="44" t="n">
+        <v>0.0514</v>
+      </c>
+      <c r="H28" s="44" t="n">
+        <v>0.0352</v>
+      </c>
       <c r="I28" s="44" t="n">
         <f aca="false">$E$14</f>
         <v>0.03045</v>
@@ -3204,11 +3214,21 @@
         <f aca="false">$C$15</f>
         <v>0.55055</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
+      <c r="D29" s="45" t="n">
+        <v>0.2971</v>
+      </c>
+      <c r="E29" s="46" t="n">
+        <v>0.1711</v>
+      </c>
+      <c r="F29" s="46" t="n">
+        <v>0.1246</v>
+      </c>
+      <c r="G29" s="47" t="n">
+        <v>0.1208</v>
+      </c>
+      <c r="H29" s="47" t="n">
+        <v>0.1161</v>
+      </c>
       <c r="I29" s="47" t="n">
         <f aca="false">$E$15</f>
         <v>0.1204</v>
@@ -3234,16 +3254,16 @@
         <v>0.71765</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0.4536</v>
+        <v>0.4531</v>
       </c>
       <c r="E30" s="30" t="n">
-        <v>0.2618</v>
+        <v>0.2576</v>
       </c>
       <c r="F30" s="30" t="n">
-        <v>0.1428</v>
+        <v>0.1825</v>
       </c>
       <c r="G30" s="49" t="n">
-        <v>0.0922</v>
+        <v>0.0803</v>
       </c>
       <c r="H30" s="49" t="n">
         <v>0.045</v>
@@ -3271,13 +3291,13 @@
         <v>0.5769</v>
       </c>
       <c r="D31" s="45" t="n">
-        <v>0.3374</v>
+        <v>0.32</v>
       </c>
       <c r="E31" s="46" t="n">
-        <v>0.2427</v>
+        <v>0.2581</v>
       </c>
       <c r="F31" s="46" t="n">
-        <v>0.1813</v>
+        <v>0.1835</v>
       </c>
       <c r="G31" s="47" t="n">
         <v>0.1589</v>
@@ -3462,7 +3482,9 @@
         <f aca="false">$C$16</f>
         <v>0.71765</v>
       </c>
-      <c r="D38" s="48"/>
+      <c r="D38" s="48" t="n">
+        <v>0.4551</v>
+      </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="49"/>
@@ -3488,7 +3510,9 @@
         <f aca="false">$C$17</f>
         <v>0.5769</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="45" t="n">
+        <v>0.341</v>
+      </c>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="47"/>
@@ -3651,7 +3675,9 @@
         <f aca="false">$C$16</f>
         <v>0.71765</v>
       </c>
-      <c r="D45" s="48"/>
+      <c r="D45" s="30" t="n">
+        <v>0.4872</v>
+      </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
       <c r="G45" s="49"/>
@@ -3678,7 +3704,9 @@
         <f aca="false">$C$17</f>
         <v>0.5769</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="46" t="n">
+        <v>0.3301</v>
+      </c>
       <c r="E46" s="46"/>
       <c r="F46" s="46"/>
       <c r="G46" s="47"/>
@@ -3842,7 +3870,9 @@
         <f aca="false">$C$16</f>
         <v>0.71765</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="30" t="n">
+        <v>0.478</v>
+      </c>
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="49"/>
@@ -3869,7 +3899,9 @@
         <f aca="false">$C$17</f>
         <v>0.5769</v>
       </c>
-      <c r="D53" s="45"/>
+      <c r="D53" s="46" t="n">
+        <v>0.3379</v>
+      </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
       <c r="G53" s="47"/>
@@ -4033,7 +4065,9 @@
         <f aca="false">$C$16</f>
         <v>0.71765</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="49" t="n">
+        <v>0.4373</v>
+      </c>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="49"/>
@@ -4060,7 +4094,9 @@
         <f aca="false">$C$17</f>
         <v>0.5769</v>
       </c>
-      <c r="D60" s="45"/>
+      <c r="D60" s="47" t="n">
+        <v>0.3315</v>
+      </c>
       <c r="E60" s="46"/>
       <c r="F60" s="46"/>
       <c r="G60" s="47"/>
@@ -4224,7 +4260,9 @@
         <f aca="false">$C$16</f>
         <v>0.71765</v>
       </c>
-      <c r="D66" s="48"/>
+      <c r="D66" s="49" t="n">
+        <v>0.4563</v>
+      </c>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
       <c r="G66" s="49"/>
@@ -4251,7 +4289,9 @@
         <f aca="false">$C$17</f>
         <v>0.5769</v>
       </c>
-      <c r="D67" s="45"/>
+      <c r="D67" s="47" t="n">
+        <v>0.3234</v>
+      </c>
       <c r="E67" s="46"/>
       <c r="F67" s="46"/>
       <c r="G67" s="47"/>

--- a/Plan+Results.xlsx
+++ b/Plan+Results.xlsx
@@ -1078,7 +1078,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1437,11 +1437,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="66929696"/>
-        <c:axId val="96708010"/>
+        <c:axId val="78214009"/>
+        <c:axId val="66164086"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66929696"/>
+        <c:axId val="78214009"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,7 +1507,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96708010"/>
+        <c:crossAx val="66164086"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96708010"/>
+        <c:axId val="66164086"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,7 +1591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66929696"/>
+        <c:crossAx val="78214009"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1629,9 +1629,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>158400</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1639,8 +1639,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1250640" y="14287320"/>
-        <a:ext cx="5751000" cy="3390840"/>
+        <a:off x="1250640" y="14227920"/>
+        <a:ext cx="5750280" cy="3390120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1849,11 +1849,11 @@
   </sheetPr>
   <dimension ref="A1:R371"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P76" activeCellId="0" sqref="P76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.38671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.45"/>
@@ -2799,7 +2799,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
         <v>45</v>
       </c>
@@ -2807,44 +2807,44 @@
         <v>43</v>
       </c>
       <c r="C21" s="20" t="n">
-        <f aca="false">K207-K198</f>
-        <v>-34</v>
+        <f aca="false">C14-C5</f>
+        <v>0.099533333333333</v>
       </c>
       <c r="D21" s="20" t="n">
-        <f aca="false">K231-K222</f>
-        <v>-66</v>
+        <f aca="false">D14-D5</f>
+        <v>0.0866</v>
       </c>
       <c r="E21" s="20" t="n">
-        <f aca="false">K255-K246</f>
-        <v>32</v>
+        <f aca="false">E14-E5</f>
+        <v>0.0042333333333333</v>
       </c>
       <c r="F21" s="19" t="n">
-        <f aca="false">K279-K270</f>
-        <v>9</v>
+        <f aca="false">F14-F5</f>
+        <v>0.0645</v>
       </c>
       <c r="G21" s="20" t="n">
-        <f aca="false">K303-K294</f>
-        <v>-21</v>
+        <f aca="false">G14-G5</f>
+        <v>0.055333333333333</v>
       </c>
       <c r="H21" s="21" t="n">
-        <f aca="false">K327-K318</f>
-        <v>2</v>
+        <f aca="false">H14-H5</f>
+        <v>0.0045</v>
       </c>
       <c r="I21" s="19" t="n">
-        <f aca="false">L342-K342</f>
-        <v>53</v>
+        <f aca="false">I14-I5</f>
+        <v>0.03415</v>
       </c>
       <c r="J21" s="20" t="n">
-        <f aca="false">L303-L294</f>
-        <v>-1</v>
+        <f aca="false">J14-J5</f>
+        <v>0.04095</v>
       </c>
       <c r="K21" s="21" t="n">
-        <f aca="false">L327-L318</f>
-        <v>14</v>
+        <f aca="false">K14-K5</f>
+        <v>0.0098</v>
       </c>
       <c r="L21" s="19" t="n">
-        <f aca="false">M339-L341</f>
-        <v>-8</v>
+        <f aca="false">L14-L5</f>
+        <v>-0.0216500000000001</v>
       </c>
       <c r="M21" s="20" t="n">
         <f aca="false">M14-M5</f>
@@ -2858,50 +2858,50 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27"/>
       <c r="B22" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="24" t="n">
-        <f aca="false">K208-K199</f>
-        <v>16</v>
+        <f aca="false">C15-C6</f>
+        <v>0.12205</v>
       </c>
       <c r="D22" s="24" t="n">
-        <f aca="false">K232-K223</f>
-        <v>14</v>
+        <f aca="false">D15-D6</f>
+        <v>0.066183333333333</v>
       </c>
       <c r="E22" s="24" t="n">
-        <f aca="false">K256-K247</f>
-        <v>50</v>
+        <f aca="false">E15-E6</f>
+        <v>0.005766666666667</v>
       </c>
       <c r="F22" s="23" t="n">
-        <f aca="false">K280-K271</f>
-        <v>64</v>
+        <f aca="false">F15-F6</f>
+        <v>0.0852666666666669</v>
       </c>
       <c r="G22" s="24" t="n">
-        <f aca="false">K304-K295</f>
-        <v>-76</v>
+        <f aca="false">G15-G6</f>
+        <v>0.0369666666666669</v>
       </c>
       <c r="H22" s="25" t="n">
-        <f aca="false">K328-K319</f>
-        <v>-86</v>
+        <f aca="false">H15-H6</f>
+        <v>0.004666666666667</v>
       </c>
       <c r="I22" s="23" t="n">
-        <f aca="false">M332-K343</f>
-        <v>-79</v>
+        <f aca="false">I15-I6</f>
+        <v>0.0429999999999999</v>
       </c>
       <c r="J22" s="24" t="n">
-        <f aca="false">L304-L295</f>
-        <v>3</v>
+        <f aca="false">J15-J6</f>
+        <v>0.02275</v>
       </c>
       <c r="K22" s="25" t="n">
-        <f aca="false">L328-L319</f>
-        <v>-72</v>
+        <f aca="false">K15-K6</f>
+        <v>0.00435000000000001</v>
       </c>
       <c r="L22" s="23" t="n">
-        <f aca="false">M340-L342</f>
-        <v>-83</v>
+        <f aca="false">L15-L6</f>
+        <v>0.0307500000000001</v>
       </c>
       <c r="M22" s="24" t="n">
         <f aca="false">M15-M6</f>
@@ -2915,7 +2915,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
         <v>46</v>
       </c>
@@ -2923,44 +2923,44 @@
         <v>43</v>
       </c>
       <c r="C23" s="19" t="n">
-        <f aca="false">K209-K200</f>
-        <v>-42</v>
+        <f aca="false">C16-C7</f>
+        <v>0.0913499999999999</v>
       </c>
       <c r="D23" s="20" t="n">
-        <f aca="false">K233-K224</f>
-        <v>-57</v>
+        <f aca="false">D16-D7</f>
+        <v>0.110766666666667</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">K257-K248</f>
-        <v>88</v>
+        <f aca="false">E16-E7</f>
+        <v>0.00695</v>
       </c>
       <c r="F23" s="19" t="n">
-        <f aca="false">K281-K272</f>
-        <v>8</v>
+        <f aca="false">F16-F7</f>
+        <v>0.0979833333333331</v>
       </c>
       <c r="G23" s="20" t="n">
-        <f aca="false">K305-K296</f>
-        <v>-1</v>
+        <f aca="false">G16-G7</f>
+        <v>0.094083333333333</v>
       </c>
       <c r="H23" s="21" t="n">
-        <f aca="false">K329-K320</f>
-        <v>-17</v>
+        <f aca="false">H16-H7</f>
+        <v>0.01065</v>
       </c>
       <c r="I23" s="19" t="n">
-        <f aca="false">M333-L336</f>
-        <v>-15</v>
+        <f aca="false">I16-I7</f>
+        <v>0.0982500000000001</v>
       </c>
       <c r="J23" s="20" t="n">
-        <f aca="false">L305-L296</f>
-        <v>35</v>
+        <f aca="false">J16-J7</f>
+        <v>0.1022</v>
       </c>
       <c r="K23" s="21" t="n">
-        <f aca="false">L329-L320</f>
-        <v>2</v>
+        <f aca="false">K16-K7</f>
+        <v>0.02535</v>
       </c>
       <c r="L23" s="19" t="n">
-        <f aca="false">M341-M332</f>
-        <v>0</v>
+        <f aca="false">L16-L7</f>
+        <v>0.1064</v>
       </c>
       <c r="M23" s="20" t="n">
         <f aca="false">M16-M7</f>
@@ -2974,50 +2974,50 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27"/>
       <c r="B24" s="33" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="23" t="n">
-        <f aca="false">K210-K201</f>
-        <v>50</v>
+        <f aca="false">C17-C8</f>
+        <v>0.197966666666667</v>
       </c>
       <c r="D24" s="24" t="n">
-        <f aca="false">K234-K225</f>
-        <v>22</v>
+        <f aca="false">D17-D8</f>
+        <v>0.176816666666667</v>
       </c>
       <c r="E24" s="25" t="n">
-        <f aca="false">K258-K249</f>
-        <v>50</v>
+        <f aca="false">E17-E8</f>
+        <v>0.02565</v>
       </c>
       <c r="F24" s="23" t="n">
-        <f aca="false">K282-K273</f>
-        <v>49</v>
+        <f aca="false">F17-F8</f>
+        <v>0.151666666666667</v>
       </c>
       <c r="G24" s="24" t="n">
-        <f aca="false">K306-K297</f>
-        <v>-71</v>
+        <f aca="false">G17-G8</f>
+        <v>0.159216666666667</v>
       </c>
       <c r="H24" s="25" t="n">
-        <f aca="false">K330-K321</f>
-        <v>-63</v>
+        <f aca="false">H17-H8</f>
+        <v>0.0136</v>
       </c>
       <c r="I24" s="23" t="n">
-        <f aca="false">M334-L337</f>
-        <v>-58</v>
+        <f aca="false">I17-I8</f>
+        <v>0.14805</v>
       </c>
       <c r="J24" s="24" t="n">
-        <f aca="false">L306-L297</f>
-        <v>-8</v>
+        <f aca="false">J17-J8</f>
+        <v>0.1454</v>
       </c>
       <c r="K24" s="25" t="n">
-        <f aca="false">L330-L321</f>
-        <v>-1</v>
+        <f aca="false">K17-K8</f>
+        <v>0.0212</v>
       </c>
       <c r="L24" s="23" t="n">
-        <f aca="false">M342-M333</f>
-        <v>0</v>
+        <f aca="false">L17-L8</f>
+        <v>0.1462</v>
       </c>
       <c r="M24" s="24" t="n">
         <f aca="false">M17-M8</f>
@@ -4183,7 +4183,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="27"/>
       <c r="B59" s="31" t="s">
         <v>44</v>
@@ -4214,13 +4214,23 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="56" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="N59" s="2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="O59" s="2" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="P59" s="2" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="Q59" s="2" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4233,11 +4243,21 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="M60" s="56" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="N60" s="2" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>26.02</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>27.82</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>29.94</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
@@ -10225,7 +10245,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.38671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="12.45"/>
   </cols>
@@ -22997,7 +23017,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.38671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -35746,7 +35766,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.38671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -48495,7 +48515,7 @@
       <selection pane="topLeft" activeCell="H303" activeCellId="0" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.38671875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
